--- a/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
+++ b/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20130" yWindow="510" windowWidth="28760" windowHeight="18330" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -565,7 +565,7 @@
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -787,6 +787,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,11 +1182,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="23.7265625" customWidth="1" style="95" min="1" max="1"/>
-    <col width="22.453125" customWidth="1" style="95" min="2" max="2"/>
-    <col width="36.26953125" customWidth="1" style="95" min="3" max="3"/>
+    <col width="23.6640625" customWidth="1" style="95" min="1" max="1"/>
+    <col width="22.5" customWidth="1" style="95" min="2" max="2"/>
+    <col width="36.33203125" customWidth="1" style="95" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1198,6 +1199,9 @@
         <is>
           <t>Louisiana</t>
         </is>
+      </c>
+      <c r="C1" s="113" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -1697,15 +1701,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" style="95" min="1" max="1"/>
-    <col width="36.7265625" customWidth="1" style="95" min="2" max="2"/>
+    <col width="36.6640625" customWidth="1" style="95" min="2" max="2"/>
     <col width="26" customWidth="1" style="95" min="3" max="3"/>
-    <col width="36.26953125" customWidth="1" style="95" min="4" max="4"/>
-    <col width="29.7265625" customWidth="1" style="95" min="5" max="5"/>
-    <col width="35.81640625" bestFit="1" customWidth="1" style="95" min="6" max="6"/>
-    <col width="31.08984375" bestFit="1" customWidth="1" style="95" min="7" max="7"/>
+    <col width="36.33203125" customWidth="1" style="95" min="4" max="4"/>
+    <col width="29.6640625" customWidth="1" style="95" min="5" max="5"/>
+    <col width="35.83203125" bestFit="1" customWidth="1" style="95" min="6" max="6"/>
+    <col width="31.1640625" bestFit="1" customWidth="1" style="95" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1737,7 +1741,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="16" customHeight="1" s="95">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>ISIC 01T03</t>
@@ -1753,7 +1757,7 @@
         <v/>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="16" customHeight="1" s="95">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>ISIC 05</t>
@@ -1773,7 +1777,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="16" customHeight="1" s="95">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>ISIC 06</t>
@@ -1809,7 +1813,7 @@
         <v/>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="16" customHeight="1" s="95">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>ISIC 19</t>
@@ -1825,7 +1829,7 @@
         <v/>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="16" customHeight="1" s="95">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>ISIC 351</t>
@@ -1845,7 +1849,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="16" customHeight="1" s="95">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
@@ -1942,7 +1946,7 @@
       <c r="G18" s="54" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="95" thickBot="1"/>
-    <row r="20">
+    <row r="20" ht="16" customHeight="1" s="95">
       <c r="A20" s="32" t="inlineStr">
         <is>
           <t>ISIC 07T08</t>
@@ -2043,7 +2047,7 @@
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="95" thickBot="1"/>
-    <row r="25">
+    <row r="25" ht="16" customHeight="1" s="95">
       <c r="A25" s="32" t="inlineStr">
         <is>
           <t>ISIC 01T03</t>
@@ -2328,12 +2332,12 @@
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="46.81640625" customWidth="1" style="95" min="1" max="1"/>
-    <col width="23.54296875" bestFit="1" customWidth="1" style="95" min="2" max="2"/>
-    <col width="12.6328125" bestFit="1" customWidth="1" style="95" min="18" max="18"/>
-    <col width="29.7265625" bestFit="1" customWidth="1" style="95" min="19" max="19"/>
+    <col width="46.83203125" customWidth="1" style="95" min="1" max="1"/>
+    <col width="23.5" bestFit="1" customWidth="1" style="95" min="2" max="2"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" style="95" min="18" max="18"/>
+    <col width="29.6640625" bestFit="1" customWidth="1" style="95" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5316,14 +5320,14 @@
       <selection pane="bottomRight" activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.453125" customWidth="1" style="112" min="1" max="1"/>
+    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
     <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1796875" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1796875" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1796875" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1796875" customWidth="1" style="112" min="36" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
+    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
+    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
@@ -20386,14 +20390,14 @@
       <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.453125" customWidth="1" style="112" min="1" max="1"/>
+    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
     <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1796875" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1796875" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1796875" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1796875" customWidth="1" style="112" min="36" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
+    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
+    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
@@ -31633,18 +31637,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B2837:AH2837"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2153:AH2153"/>
-    <mergeCell ref="B2317:AH2317"/>
-    <mergeCell ref="B2419:AH2419"/>
-    <mergeCell ref="B2509:AH2509"/>
-    <mergeCell ref="B2598:AH2598"/>
     <mergeCell ref="B1604:AH1604"/>
     <mergeCell ref="B1698:AH1698"/>
     <mergeCell ref="B146:AG146"/>
@@ -31654,6 +31646,18 @@
     <mergeCell ref="B1227:AH1227"/>
     <mergeCell ref="B1390:AH1390"/>
     <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B2837:AH2837"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2153:AH2153"/>
+    <mergeCell ref="B2317:AH2317"/>
+    <mergeCell ref="B2419:AH2419"/>
+    <mergeCell ref="B2509:AH2509"/>
+    <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
+    <mergeCell ref="B887:AH887"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -31675,14 +31679,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.453125" customWidth="1" style="112" min="1" max="1"/>
+    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
     <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1796875" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1796875" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1796875" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1796875" customWidth="1" style="112" min="36" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
+    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
+    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
@@ -45736,14 +45740,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.453125" customWidth="1" style="112" min="1" max="1"/>
+    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
     <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1796875" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1796875" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1796875" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1796875" customWidth="1" style="112" min="36" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
+    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
+    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
@@ -50483,6 +50487,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2837:AH2837"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2153:AH2153"/>
+    <mergeCell ref="B2317:AH2317"/>
+    <mergeCell ref="B2419:AH2419"/>
+    <mergeCell ref="B2509:AH2509"/>
+    <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B69:AG69"/>
     <mergeCell ref="B1945:AH1945"/>
     <mergeCell ref="B112:AH112"/>
@@ -50496,14 +50508,6 @@
     <mergeCell ref="B1502:AH1502"/>
     <mergeCell ref="B1604:AH1604"/>
     <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B2837:AH2837"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2153:AH2153"/>
-    <mergeCell ref="B2317:AH2317"/>
-    <mergeCell ref="B2419:AH2419"/>
-    <mergeCell ref="B2509:AH2509"/>
-    <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B2719:AH2719"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -50523,13 +50527,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="36.54296875" customWidth="1" style="95" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" style="95" min="2" max="26"/>
-    <col width="13.81640625" customWidth="1" style="95" min="27" max="27"/>
-    <col width="10.7265625" customWidth="1" style="95" min="28" max="28"/>
-    <col width="10.1796875" customWidth="1" style="95" min="29" max="43"/>
+    <col width="36.5" customWidth="1" style="95" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" style="95" min="2" max="26"/>
+    <col width="13.83203125" customWidth="1" style="95" min="27" max="27"/>
+    <col width="10.6640625" customWidth="1" style="95" min="28" max="28"/>
+    <col width="10.1640625" customWidth="1" style="95" min="29" max="43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">

--- a/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
+++ b/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="720" yWindow="720" windowWidth="14400" windowHeight="6920" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -752,6 +752,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -787,7 +788,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1182,11 +1182,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="23.6640625" customWidth="1" style="95" min="1" max="1"/>
-    <col width="22.5" customWidth="1" style="95" min="2" max="2"/>
-    <col width="36.33203125" customWidth="1" style="95" min="3" max="3"/>
+    <col width="23.6796875" customWidth="1" style="96" min="1" max="1"/>
+    <col width="22.5" customWidth="1" style="96" min="2" max="2"/>
+    <col width="36.31640625" customWidth="1" style="96" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1197,10 +1197,10 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Louisiana</t>
-        </is>
-      </c>
-      <c r="C1" s="113" t="n">
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="C1" s="94" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1701,15 +1701,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="18" customWidth="1" style="95" min="1" max="1"/>
-    <col width="36.6640625" customWidth="1" style="95" min="2" max="2"/>
-    <col width="26" customWidth="1" style="95" min="3" max="3"/>
-    <col width="36.33203125" customWidth="1" style="95" min="4" max="4"/>
-    <col width="29.6640625" customWidth="1" style="95" min="5" max="5"/>
-    <col width="35.83203125" bestFit="1" customWidth="1" style="95" min="6" max="6"/>
-    <col width="31.1640625" bestFit="1" customWidth="1" style="95" min="7" max="7"/>
+    <col width="18" customWidth="1" style="96" min="1" max="1"/>
+    <col width="36.6796875" customWidth="1" style="96" min="2" max="2"/>
+    <col width="26" customWidth="1" style="96" min="3" max="3"/>
+    <col width="36.31640625" customWidth="1" style="96" min="4" max="4"/>
+    <col width="29.6796875" customWidth="1" style="96" min="5" max="5"/>
+    <col width="35.81640625" bestFit="1" customWidth="1" style="96" min="6" max="6"/>
+    <col width="31.1796875" bestFit="1" customWidth="1" style="96" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1741,7 +1741,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1" s="95">
+    <row r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>ISIC 01T03</t>
@@ -1757,7 +1757,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1" s="95">
+    <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>ISIC 05</t>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1" s="95">
+    <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>ISIC 06</t>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="29" customHeight="1" s="95">
+    <row r="7" ht="29" customHeight="1" s="96">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>ISIC 07T08</t>
@@ -1813,7 +1813,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1" s="95">
+    <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>ISIC 19</t>
@@ -1829,7 +1829,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1" s="95">
+    <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>ISIC 351</t>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1" s="95">
+    <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="95" thickBot="1"/>
+    <row r="14" ht="15" customHeight="1" s="96" thickBot="1"/>
     <row r="15">
       <c r="A15" s="33" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="E15" s="84" t="n"/>
-      <c r="F15" s="105" t="n"/>
+      <c r="F15" s="106" t="n"/>
       <c r="G15" s="86" t="n"/>
     </row>
     <row r="16">
@@ -1927,7 +1927,7 @@
       <c r="E17" s="51" t="n"/>
       <c r="G17" s="43" t="n"/>
     </row>
-    <row r="18" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="18" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="A18" t="inlineStr">
         <is>
           <t>Fuel Share of ISIC 19 products</t>
@@ -1945,8 +1945,8 @@
       <c r="F18" s="88" t="n"/>
       <c r="G18" s="54" t="n"/>
     </row>
-    <row r="19" ht="15" customHeight="1" s="95" thickBot="1"/>
-    <row r="20" ht="16" customHeight="1" s="95">
+    <row r="19" ht="15" customHeight="1" s="96" thickBot="1"/>
+    <row r="20">
       <c r="A20" s="32" t="inlineStr">
         <is>
           <t>ISIC 07T08</t>
@@ -2003,7 +2003,7 @@
         <v/>
       </c>
       <c r="G21" s="43" t="n">
-        <v>322727683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2024,7 +2024,7 @@
       <c r="F22" s="52" t="n"/>
       <c r="G22" s="43" t="n"/>
     </row>
-    <row r="23" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="23" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="A23" t="inlineStr">
         <is>
           <t>Fuel share of ISIC 07T08 products</t>
@@ -2046,8 +2046,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="95" thickBot="1"/>
-    <row r="25" ht="16" customHeight="1" s="95">
+    <row r="24" ht="15" customHeight="1" s="96" thickBot="1"/>
+    <row r="25">
       <c r="A25" s="32" t="inlineStr">
         <is>
           <t>ISIC 01T03</t>
@@ -2104,7 +2104,7 @@
         <v/>
       </c>
       <c r="G26" s="43" t="n">
-        <v>1751705800</v>
+        <v>4413408698.01</v>
       </c>
     </row>
     <row r="27">
@@ -2125,7 +2125,7 @@
       <c r="F27" s="52" t="n"/>
       <c r="G27" s="43" t="n"/>
     </row>
-    <row r="28" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="28" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="A28" t="inlineStr">
         <is>
           <t>Fuel share of ISIC 01T03 products</t>
@@ -2147,8 +2147,8 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="95" thickBot="1"/>
-    <row r="30" ht="29" customHeight="1" s="95">
+    <row r="29" ht="15" customHeight="1" s="96" thickBot="1"/>
+    <row r="30" ht="29" customHeight="1" s="96">
       <c r="A30" s="47" t="inlineStr">
         <is>
           <t>Biomass-Purchasing Sector</t>
@@ -2225,7 +2225,7 @@
       <c r="A35" s="51" t="n"/>
       <c r="C35" s="43" t="n"/>
     </row>
-    <row r="36" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="36" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="A36" s="44" t="inlineStr">
         <is>
           <t>Sources:</t>
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="94" t="inlineStr">
+      <c r="A39" s="95" t="inlineStr">
         <is>
           <t>Uranium</t>
         </is>
@@ -2332,12 +2332,12 @@
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="46.83203125" customWidth="1" style="95" min="1" max="1"/>
-    <col width="23.5" bestFit="1" customWidth="1" style="95" min="2" max="2"/>
-    <col width="12.6640625" bestFit="1" customWidth="1" style="95" min="18" max="18"/>
-    <col width="29.6640625" bestFit="1" customWidth="1" style="95" min="19" max="19"/>
+    <col width="46.81640625" customWidth="1" style="96" min="1" max="1"/>
+    <col width="23.5" bestFit="1" customWidth="1" style="96" min="2" max="2"/>
+    <col width="12.6796875" bestFit="1" customWidth="1" style="96" min="18" max="18"/>
+    <col width="29.6796875" bestFit="1" customWidth="1" style="96" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2363,7 +2363,7 @@
       <c r="P1" s="71" t="n"/>
       <c r="Q1" s="71" t="n"/>
     </row>
-    <row r="2" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="2" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="A2" s="71" t="inlineStr">
         <is>
           <t>Source: https://www.eia.gov/state/seds/seds-data-complete.php#Production</t>
@@ -2392,84 +2392,84 @@
           <t>State</t>
         </is>
       </c>
-      <c r="B3" s="98" t="inlineStr">
+      <c r="B3" s="99" t="inlineStr">
         <is>
           <t>Fossil Fuels</t>
         </is>
       </c>
-      <c r="C3" s="99" t="n"/>
-      <c r="D3" s="99" t="n"/>
-      <c r="E3" s="99" t="n"/>
-      <c r="F3" s="99" t="n"/>
-      <c r="G3" s="100" t="n"/>
-      <c r="H3" s="98" t="inlineStr">
+      <c r="C3" s="100" t="n"/>
+      <c r="D3" s="100" t="n"/>
+      <c r="E3" s="100" t="n"/>
+      <c r="F3" s="100" t="n"/>
+      <c r="G3" s="101" t="n"/>
+      <c r="H3" s="99" t="inlineStr">
         <is>
           <t>Nuclear Electric Power</t>
         </is>
       </c>
-      <c r="I3" s="101" t="n"/>
-      <c r="J3" s="98" t="inlineStr">
+      <c r="I3" s="102" t="n"/>
+      <c r="J3" s="99" t="inlineStr">
         <is>
           <t>Renewable Energy</t>
         </is>
       </c>
-      <c r="K3" s="99" t="n"/>
-      <c r="L3" s="99" t="n"/>
-      <c r="M3" s="99" t="n"/>
-      <c r="N3" s="99" t="n"/>
-      <c r="O3" s="100" t="n"/>
-      <c r="P3" s="104" t="inlineStr">
+      <c r="K3" s="100" t="n"/>
+      <c r="L3" s="100" t="n"/>
+      <c r="M3" s="100" t="n"/>
+      <c r="N3" s="100" t="n"/>
+      <c r="O3" s="101" t="n"/>
+      <c r="P3" s="105" t="inlineStr">
         <is>
           <t xml:space="preserve">Total   </t>
         </is>
       </c>
-      <c r="Q3" s="105" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="95" thickBot="1">
+      <c r="Q3" s="106" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="A4" s="79" t="n"/>
-      <c r="B4" s="106" t="inlineStr">
+      <c r="B4" s="107" t="inlineStr">
         <is>
           <t>Coal a</t>
         </is>
       </c>
-      <c r="C4" s="103" t="n"/>
-      <c r="D4" s="106" t="inlineStr">
+      <c r="C4" s="104" t="n"/>
+      <c r="D4" s="107" t="inlineStr">
         <is>
           <t>Natural 
 Gas b</t>
         </is>
       </c>
-      <c r="E4" s="103" t="n"/>
-      <c r="F4" s="106" t="inlineStr">
+      <c r="E4" s="104" t="n"/>
+      <c r="F4" s="107" t="inlineStr">
         <is>
           <t>Crude Oil c</t>
         </is>
       </c>
-      <c r="G4" s="103" t="n"/>
-      <c r="H4" s="102" t="n"/>
-      <c r="I4" s="103" t="n"/>
-      <c r="J4" s="107" t="inlineStr">
+      <c r="G4" s="104" t="n"/>
+      <c r="H4" s="103" t="n"/>
+      <c r="I4" s="104" t="n"/>
+      <c r="J4" s="108" t="inlineStr">
         <is>
           <t>Biofuels d</t>
         </is>
       </c>
-      <c r="K4" s="97" t="n"/>
-      <c r="L4" s="96" t="inlineStr">
+      <c r="K4" s="98" t="n"/>
+      <c r="L4" s="97" t="inlineStr">
         <is>
           <t>Wood and Waste e</t>
         </is>
       </c>
-      <c r="M4" s="97" t="n"/>
-      <c r="N4" s="96" t="inlineStr">
+      <c r="M4" s="98" t="n"/>
+      <c r="N4" s="97" t="inlineStr">
         <is>
           <t>Other f</t>
         </is>
       </c>
-      <c r="O4" s="97" t="n"/>
-      <c r="P4" s="102" t="n"/>
-      <c r="Q4" s="97" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="95" thickBot="1">
+      <c r="O4" s="98" t="n"/>
+      <c r="P4" s="103" t="n"/>
+      <c r="Q4" s="98" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="A5" s="80" t="n"/>
       <c r="B5" s="81" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="56" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="A56" s="66" t="inlineStr">
         <is>
           <t>Wyoming</t>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="Q61" s="62" t="n"/>
     </row>
-    <row r="62" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="62" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="A62" s="69" t="n"/>
       <c r="B62" s="69" t="n"/>
       <c r="C62" s="69" t="n"/>
@@ -5126,7 +5126,7 @@
       <c r="P63" s="71" t="n"/>
       <c r="Q63" s="71" t="n"/>
     </row>
-    <row r="64" ht="15.5" customHeight="1" s="95">
+    <row r="64" ht="15.5" customHeight="1" s="96">
       <c r="A64" s="70" t="inlineStr">
         <is>
           <t>a  Includes refuse recovery.</t>
@@ -5153,7 +5153,7 @@
       <c r="P64" s="71" t="n"/>
       <c r="Q64" s="71" t="n"/>
     </row>
-    <row r="65" ht="15.5" customHeight="1" s="95">
+    <row r="65" ht="15.5" customHeight="1" s="96">
       <c r="A65" s="70" t="inlineStr">
         <is>
           <t>b  Marketed production.</t>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I65" s="71" t="n"/>
     </row>
-    <row r="66" ht="15.5" customHeight="1" s="95">
+    <row r="66" ht="15.5" customHeight="1" s="96">
       <c r="A66" s="70" t="inlineStr">
         <is>
           <t>c  Includes lease condensate.</t>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="I66" s="71" t="n"/>
     </row>
-    <row r="67" ht="15.5" customHeight="1" s="95">
+    <row r="67" ht="15.5" customHeight="1" s="96">
       <c r="A67" s="70" t="inlineStr">
         <is>
           <t>d  Biomass inputs (feedstock) to the production of biofuels.</t>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="I67" s="71" t="n"/>
     </row>
-    <row r="68" ht="15.5" customHeight="1" s="95">
+    <row r="68" ht="15.5" customHeight="1" s="96">
       <c r="A68" s="70" t="inlineStr">
         <is>
           <t>e  Wood energy production and biomass waste energy consumption.</t>
@@ -5320,17 +5320,17 @@
       <selection pane="bottomRight" activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
-    <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
+    <col hidden="1" width="22.5" customWidth="1" style="113" min="1" max="1"/>
+    <col width="49" customWidth="1" style="113" min="2" max="2"/>
+    <col width="9.1796875" customWidth="1" style="113" min="3" max="33"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" style="113" min="34" max="34"/>
+    <col width="9.1796875" customWidth="1" style="113" min="35" max="35"/>
+    <col width="9.1796875" customWidth="1" style="113" min="36" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="1" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="B1" s="6" t="inlineStr">
         <is>
           <t>highogs.d120120a</t>
@@ -5430,8 +5430,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="95" thickTop="1"/>
-    <row r="3" ht="15" customHeight="1" s="95">
+    <row r="2" ht="15" customHeight="1" s="96" thickTop="1"/>
+    <row r="3" ht="15" customHeight="1" s="96">
       <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Report</t>
@@ -5447,7 +5447,7 @@
       <c r="G3" s="9" t="n"/>
       <c r="H3" s="9" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1" s="95">
+    <row r="4" ht="15" customHeight="1" s="96">
       <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Scenario</t>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="H4" s="9" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="95">
+    <row r="5" ht="15" customHeight="1" s="96">
       <c r="C5" s="8" t="inlineStr">
         <is>
           <t>Datekey</t>
@@ -5483,7 +5483,7 @@
       <c r="G5" s="9" t="n"/>
       <c r="H5" s="9" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="95">
+    <row r="6" ht="15" customHeight="1" s="96">
       <c r="C6" s="8" t="inlineStr">
         <is>
           <t>Release Date</t>
@@ -5499,7 +5499,7 @@
       <c r="G6" s="9" t="n"/>
       <c r="H6" s="9" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="95">
+    <row r="7" ht="15" customHeight="1" s="96">
       <c r="C7" s="9" t="n"/>
       <c r="D7" s="9" t="n"/>
       <c r="E7" s="9" t="n"/>
@@ -5507,9 +5507,9 @@
       <c r="G7" s="9" t="n"/>
       <c r="H7" s="9" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="95"/>
-    <row r="9" ht="12" customHeight="1" s="95"/>
-    <row r="10" ht="15" customHeight="1" s="95">
+    <row r="8" ht="12" customHeight="1" s="96"/>
+    <row r="9" ht="12" customHeight="1" s="96"/>
+    <row r="10" ht="15" customHeight="1" s="96">
       <c r="A10" s="10" t="inlineStr">
         <is>
           <t>QUA000</t>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="95">
+    <row r="11" ht="15" customHeight="1" s="96">
       <c r="B11" s="6" t="inlineStr">
         <is>
           <t>(quadrillion Btu, unless otherwise noted)</t>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="95">
+    <row r="12" ht="15" customHeight="1" s="96">
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="13" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sector and Source</t>
@@ -5682,21 +5682,21 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="95" thickTop="1"/>
-    <row r="15" ht="15" customHeight="1" s="95">
+    <row r="14" ht="15" customHeight="1" s="96" thickTop="1"/>
+    <row r="15" ht="15" customHeight="1" s="96">
       <c r="B15" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Residential</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="95">
+    <row r="16" ht="15" customHeight="1" s="96">
       <c r="A16" s="10" t="inlineStr">
         <is>
           <t>QUA000:ca_LiquefiedPetr</t>
         </is>
       </c>
-      <c r="B16" s="110" t="inlineStr">
+      <c r="B16" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -5798,13 +5798,13 @@
         <v>-0.00164</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="95">
+    <row r="17" ht="15" customHeight="1" s="96">
       <c r="A17" s="10" t="inlineStr">
         <is>
           <t>QUA000:ca_DistillateFue</t>
         </is>
       </c>
-      <c r="B17" s="110" t="inlineStr">
+      <c r="B17" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil 1/</t>
         </is>
@@ -5906,13 +5906,13 @@
         <v>-0.014037</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="95">
+    <row r="18" ht="15" customHeight="1" s="96">
       <c r="A18" s="10" t="inlineStr">
         <is>
           <t>QUA000:ca_PetroleumSubt</t>
         </is>
       </c>
-      <c r="B18" s="110" t="inlineStr">
+      <c r="B18" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Petroleum and Other Liquids Subtotal</t>
         </is>
@@ -6014,13 +6014,13 @@
         <v>-0.007101</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="95">
+    <row r="19" ht="15" customHeight="1" s="96">
       <c r="A19" s="10" t="inlineStr">
         <is>
           <t>QUA000:ca_NaturalGas</t>
         </is>
       </c>
-      <c r="B19" s="110" t="inlineStr">
+      <c r="B19" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -6122,13 +6122,13 @@
         <v>-0.000632</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="95">
+    <row r="20" ht="15" customHeight="1" s="96">
       <c r="A20" s="10" t="inlineStr">
         <is>
           <t>QUA000:ca_RenewableEner</t>
         </is>
       </c>
-      <c r="B20" s="110" t="inlineStr">
+      <c r="B20" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Renewable Energy 2/</t>
         </is>
@@ -6230,13 +6230,13 @@
         <v>-0.011621</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="95">
+    <row r="21" ht="15" customHeight="1" s="96">
       <c r="A21" s="10" t="inlineStr">
         <is>
           <t>QUA000:ca_Electricity</t>
         </is>
       </c>
-      <c r="B21" s="110" t="inlineStr">
+      <c r="B21" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Purchased Electricity</t>
         </is>
@@ -6338,7 +6338,7 @@
         <v>0.007132</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="95">
+    <row r="22" ht="15" customHeight="1" s="96">
       <c r="A22" s="10" t="inlineStr">
         <is>
           <t>QUA000:ca_DeliveredEner</t>
@@ -6446,13 +6446,13 @@
         <v>0.002275</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="95">
+    <row r="23" ht="15" customHeight="1" s="96">
       <c r="A23" s="10" t="inlineStr">
         <is>
           <t>QUA000:ca_ElectricityRe</t>
         </is>
       </c>
-      <c r="B23" s="110" t="inlineStr">
+      <c r="B23" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity Related Losses</t>
         </is>
@@ -6554,7 +6554,7 @@
         <v>-0.002893</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="95">
+    <row r="24" ht="15" customHeight="1" s="96">
       <c r="A24" s="10" t="inlineStr">
         <is>
           <t>QUA000:ca_Total</t>
@@ -6662,20 +6662,20 @@
         <v>2.8e-05</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="95">
+    <row r="26" ht="15" customHeight="1" s="96">
       <c r="B26" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commercial</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="95">
+    <row r="27" ht="15" customHeight="1" s="96">
       <c r="A27" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_LiquefiedPetr</t>
         </is>
       </c>
-      <c r="B27" s="110" t="inlineStr">
+      <c r="B27" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -6777,13 +6777,13 @@
         <v>0.009002</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="95">
+    <row r="28" ht="15" customHeight="1" s="96">
       <c r="A28" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_MotorGasoline</t>
         </is>
       </c>
-      <c r="B28" s="110" t="inlineStr">
+      <c r="B28" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline 3/</t>
         </is>
@@ -6885,13 +6885,13 @@
         <v>0.005426</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="95">
+    <row r="29" ht="15" customHeight="1" s="96">
       <c r="A29" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_Kerosene</t>
         </is>
       </c>
-      <c r="B29" s="110" t="inlineStr">
+      <c r="B29" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Kerosene</t>
         </is>
@@ -6993,13 +6993,13 @@
         <v>-0.007794</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="95">
+    <row r="30" ht="15" customHeight="1" s="96">
       <c r="A30" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_DistillateFue</t>
         </is>
       </c>
-      <c r="B30" s="110" t="inlineStr">
+      <c r="B30" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -7101,13 +7101,13 @@
         <v>-0.002379</v>
       </c>
     </row>
-    <row r="31" ht="14.5" customHeight="1" s="95">
+    <row r="31" ht="14.5" customHeight="1" s="96">
       <c r="A31" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_ResidualFuel</t>
         </is>
       </c>
-      <c r="B31" s="110" t="inlineStr">
+      <c r="B31" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -7209,13 +7209,13 @@
         <v>0.01512</v>
       </c>
     </row>
-    <row r="32" ht="14.5" customHeight="1" s="95">
+    <row r="32" ht="14.5" customHeight="1" s="96">
       <c r="A32" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_PetroleumSubt</t>
         </is>
       </c>
-      <c r="B32" s="110" t="inlineStr">
+      <c r="B32" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Petroleum and Other Liquids Subtotal</t>
         </is>
@@ -7317,13 +7317,13 @@
         <v>0.003495</v>
       </c>
     </row>
-    <row r="33" ht="14.5" customHeight="1" s="95">
+    <row r="33" ht="14.5" customHeight="1" s="96">
       <c r="A33" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_NaturalGas</t>
         </is>
       </c>
-      <c r="B33" s="110" t="inlineStr">
+      <c r="B33" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -7425,13 +7425,13 @@
         <v>0.004875</v>
       </c>
     </row>
-    <row r="34" ht="14.5" customHeight="1" s="95">
+    <row r="34" ht="14.5" customHeight="1" s="96">
       <c r="A34" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_Coal</t>
         </is>
       </c>
-      <c r="B34" s="110" t="inlineStr">
+      <c r="B34" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal</t>
         </is>
@@ -7533,13 +7533,13 @@
         <v>-0.009781</v>
       </c>
     </row>
-    <row r="35" ht="14.5" customHeight="1" s="95">
+    <row r="35" ht="14.5" customHeight="1" s="96">
       <c r="A35" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_RenewableEner</t>
         </is>
       </c>
-      <c r="B35" s="110" t="inlineStr">
+      <c r="B35" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Renewable Energy 4/</t>
         </is>
@@ -7641,13 +7641,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="14.5" customHeight="1" s="95">
+    <row r="36" ht="14.5" customHeight="1" s="96">
       <c r="A36" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_Electricity</t>
         </is>
       </c>
-      <c r="B36" s="110" t="inlineStr">
+      <c r="B36" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Purchased Electricity</t>
         </is>
@@ -7749,7 +7749,7 @@
         <v>0.009140000000000001</v>
       </c>
     </row>
-    <row r="37" ht="12" customHeight="1" s="95">
+    <row r="37" ht="12" customHeight="1" s="96">
       <c r="A37" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_DeliveredEner</t>
@@ -7857,13 +7857,13 @@
         <v>0.006883</v>
       </c>
     </row>
-    <row r="38" ht="14.5" customHeight="1" s="95">
+    <row r="38" ht="14.5" customHeight="1" s="96">
       <c r="A38" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_ElectricityRe</t>
         </is>
       </c>
-      <c r="B38" s="110" t="inlineStr">
+      <c r="B38" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity Related Losses</t>
         </is>
@@ -7965,7 +7965,7 @@
         <v>-0.000905</v>
       </c>
     </row>
-    <row r="39" ht="12" customHeight="1" s="95">
+    <row r="39" ht="12" customHeight="1" s="96">
       <c r="A39" s="10" t="inlineStr">
         <is>
           <t>QUA000:da_Total</t>
@@ -8073,21 +8073,21 @@
         <v>0.003328</v>
       </c>
     </row>
-    <row r="40" ht="12" customHeight="1" s="95"/>
-    <row r="41" ht="12" customHeight="1" s="95">
+    <row r="40" ht="12" customHeight="1" s="96"/>
+    <row r="41" ht="12" customHeight="1" s="96">
       <c r="B41" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Industrial 5/</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="14.5" customHeight="1" s="95">
+    <row r="42" ht="14.5" customHeight="1" s="96">
       <c r="A42" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_LiquefiedPetr</t>
         </is>
       </c>
-      <c r="B42" s="110" t="inlineStr">
+      <c r="B42" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Liquefied Petroleum Gases and Other 6/</t>
         </is>
@@ -8189,13 +8189,13 @@
         <v>0.020819</v>
       </c>
     </row>
-    <row r="43" ht="14.5" customHeight="1" s="95">
+    <row r="43" ht="14.5" customHeight="1" s="96">
       <c r="A43" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_MotorGasoline</t>
         </is>
       </c>
-      <c r="B43" s="110" t="inlineStr">
+      <c r="B43" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline 3/</t>
         </is>
@@ -8297,13 +8297,13 @@
         <v>0.017228</v>
       </c>
     </row>
-    <row r="44" ht="14.5" customHeight="1" s="95">
+    <row r="44" ht="14.5" customHeight="1" s="96">
       <c r="A44" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_DistillateFue</t>
         </is>
       </c>
-      <c r="B44" s="110" t="inlineStr">
+      <c r="B44" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -8405,13 +8405,13 @@
         <v>0.016231</v>
       </c>
     </row>
-    <row r="45" ht="14.5" customHeight="1" s="95">
+    <row r="45" ht="14.5" customHeight="1" s="96">
       <c r="A45" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_ResidualFuel</t>
         </is>
       </c>
-      <c r="B45" s="110" t="inlineStr">
+      <c r="B45" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -8513,13 +8513,13 @@
         <v>0.014849</v>
       </c>
     </row>
-    <row r="46" ht="14.5" customHeight="1" s="95">
+    <row r="46" ht="14.5" customHeight="1" s="96">
       <c r="A46" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_Petrochemical</t>
         </is>
       </c>
-      <c r="B46" s="110" t="inlineStr">
+      <c r="B46" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Petrochemical Feedstocks</t>
         </is>
@@ -8621,13 +8621,13 @@
         <v>0.004002</v>
       </c>
     </row>
-    <row r="47" ht="14.5" customHeight="1" s="95">
+    <row r="47" ht="14.5" customHeight="1" s="96">
       <c r="A47" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_OtherPetroleu</t>
         </is>
       </c>
-      <c r="B47" s="110" t="inlineStr">
+      <c r="B47" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Petroleum 7/</t>
         </is>
@@ -8729,7 +8729,7 @@
         <v>0.005094</v>
       </c>
     </row>
-    <row r="48" ht="14.5" customHeight="1" s="95">
+    <row r="48" ht="14.5" customHeight="1" s="96">
       <c r="A48" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_PetroleumSubt</t>
@@ -8837,13 +8837,13 @@
         <v>0.013603</v>
       </c>
     </row>
-    <row r="49" ht="14.5" customHeight="1" s="95">
+    <row r="49" ht="14.5" customHeight="1" s="96">
       <c r="A49" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_NaturalGas</t>
         </is>
       </c>
-      <c r="B49" s="110" t="inlineStr">
+      <c r="B49" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -8945,13 +8945,13 @@
         <v>0.012213</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="95">
+    <row r="50" ht="15" customHeight="1" s="96">
       <c r="A50" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_NGastoLiquids</t>
         </is>
       </c>
-      <c r="B50" s="110" t="inlineStr">
+      <c r="B50" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural-Gas-to-Liquids Heat and Power</t>
         </is>
@@ -9055,13 +9055,13 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="95">
+    <row r="51" ht="15" customHeight="1" s="96">
       <c r="A51" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_LeaseandPlant</t>
         </is>
       </c>
-      <c r="B51" s="110" t="inlineStr">
+      <c r="B51" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Lease and Plant Fuel 8/</t>
         </is>
@@ -9163,13 +9163,13 @@
         <v>0.016729</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" s="95">
+    <row r="52" ht="15" customHeight="1" s="96">
       <c r="A52" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_liquefactexp</t>
         </is>
       </c>
-      <c r="B52" s="110" t="inlineStr">
+      <c r="B52" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas to Liquefy Gas for Export 9/</t>
         </is>
@@ -9271,13 +9271,13 @@
         <v>0.041444</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" s="95">
+    <row r="53" ht="15" customHeight="1" s="96">
       <c r="A53" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_NaturalGasSub</t>
         </is>
       </c>
-      <c r="B53" s="110" t="inlineStr">
+      <c r="B53" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Natural Gas Subtotal</t>
         </is>
@@ -9379,13 +9379,13 @@
         <v>0.014507</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" s="95">
+    <row r="54" ht="15" customHeight="1" s="96">
       <c r="A54" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_Metallurgical</t>
         </is>
       </c>
-      <c r="B54" s="110" t="inlineStr">
+      <c r="B54" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal</t>
         </is>
@@ -9487,13 +9487,13 @@
         <v>0.001015</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" s="95">
+    <row r="55" ht="15" customHeight="1" s="96">
       <c r="A55" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_SteamCoal</t>
         </is>
       </c>
-      <c r="B55" s="110" t="inlineStr">
+      <c r="B55" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Industrial Coal</t>
         </is>
@@ -9595,13 +9595,13 @@
         <v>8.000000000000001e-05</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="95">
+    <row r="56" ht="15" customHeight="1" s="96">
       <c r="A56" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_CoaltoLiquids</t>
         </is>
       </c>
-      <c r="B56" s="110" t="inlineStr">
+      <c r="B56" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal-to-Liquids Heat and Power</t>
         </is>
@@ -9705,13 +9705,13 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" s="95">
+    <row r="57" ht="15" customHeight="1" s="96">
       <c r="A57" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_NetCoalCokeIm</t>
         </is>
       </c>
-      <c r="B57" s="110" t="inlineStr">
+      <c r="B57" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Net Coal Coke Imports</t>
         </is>
@@ -9813,13 +9813,13 @@
         <v>-0.011535</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="95">
+    <row r="58" ht="15" customHeight="1" s="96">
       <c r="A58" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_CoalSubtotal</t>
         </is>
       </c>
-      <c r="B58" s="110" t="inlineStr">
+      <c r="B58" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Coal Subtotal</t>
         </is>
@@ -9921,13 +9921,13 @@
         <v>0.000811</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" s="95">
+    <row r="59" ht="15" customHeight="1" s="96">
       <c r="A59" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_BiofuelsHeat</t>
         </is>
       </c>
-      <c r="B59" s="110" t="inlineStr">
+      <c r="B59" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Biofuels Heat and Coproducts</t>
         </is>
@@ -10029,13 +10029,13 @@
         <v>0.006056</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" s="95">
+    <row r="60" ht="15" customHeight="1" s="96">
       <c r="A60" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_RenewableEner</t>
         </is>
       </c>
-      <c r="B60" s="110" t="inlineStr">
+      <c r="B60" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Renewable Energy 10/</t>
         </is>
@@ -10137,13 +10137,13 @@
         <v>0.009468000000000001</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" s="95">
+    <row r="61" ht="15" customHeight="1" s="96">
       <c r="A61" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_Electricity</t>
         </is>
       </c>
-      <c r="B61" s="110" t="inlineStr">
+      <c r="B61" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Purchased Electricity</t>
         </is>
@@ -10245,7 +10245,7 @@
         <v>0.010742</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" s="95">
+    <row r="62" ht="15" customHeight="1" s="96">
       <c r="A62" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_DeliveredEner</t>
@@ -10353,13 +10353,13 @@
         <v>0.01278</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" s="95">
+    <row r="63" ht="15" customHeight="1" s="96">
       <c r="A63" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_ElectricityRe</t>
         </is>
       </c>
-      <c r="B63" s="110" t="inlineStr">
+      <c r="B63" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity Related Losses</t>
         </is>
@@ -10461,7 +10461,7 @@
         <v>0.000681</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" s="95">
+    <row r="64" ht="15" customHeight="1" s="96">
       <c r="A64" s="10" t="inlineStr">
         <is>
           <t>QUA000:ea_Total</t>
@@ -10569,21 +10569,21 @@
         <v>0.010853</v>
       </c>
     </row>
-    <row r="66" ht="12" customHeight="1" s="95"/>
-    <row r="67" ht="15" customHeight="1" s="95">
+    <row r="66" ht="12" customHeight="1" s="96"/>
+    <row r="67" ht="15" customHeight="1" s="96">
       <c r="B67" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Transportation</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" s="95">
+    <row r="68" ht="15" customHeight="1" s="96">
       <c r="A68" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_LiquefiedPetr</t>
         </is>
       </c>
-      <c r="B68" s="110" t="inlineStr">
+      <c r="B68" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -10685,13 +10685,13 @@
         <v>0.026695</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" s="95">
+    <row r="69" ht="15" customHeight="1" s="96">
       <c r="A69" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_MotorGasoline</t>
         </is>
       </c>
-      <c r="B69" s="110" t="inlineStr">
+      <c r="B69" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline 3/</t>
         </is>
@@ -10793,13 +10793,13 @@
         <v>0.000534</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" s="95">
+    <row r="70" ht="15" customHeight="1" s="96">
       <c r="A70" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_RenewableEner</t>
         </is>
       </c>
-      <c r="B70" s="110" t="inlineStr">
+      <c r="B70" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">      of which:  E85 11/</t>
         </is>
@@ -10901,13 +10901,13 @@
         <v>0.002463</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="95">
+    <row r="71" ht="15" customHeight="1" s="96">
       <c r="A71" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_JetFuel</t>
         </is>
       </c>
-      <c r="B71" s="110" t="inlineStr">
+      <c r="B71" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Jet Fuel 12/</t>
         </is>
@@ -11009,13 +11009,13 @@
         <v>0.023598</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" s="95">
+    <row r="72" ht="15" customHeight="1" s="96">
       <c r="A72" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_DistillateFue</t>
         </is>
       </c>
-      <c r="B72" s="110" t="inlineStr">
+      <c r="B72" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil 13/</t>
         </is>
@@ -11117,13 +11117,13 @@
         <v>0.001927</v>
       </c>
     </row>
-    <row r="73" ht="14.5" customHeight="1" s="95">
+    <row r="73" ht="14.5" customHeight="1" s="96">
       <c r="A73" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_ResidualFuel</t>
         </is>
       </c>
-      <c r="B73" s="110" t="inlineStr">
+      <c r="B73" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -11225,13 +11225,13 @@
         <v>0.005187</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1" s="95">
+    <row r="74" ht="15" customHeight="1" s="96">
       <c r="A74" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_OtherPetroleu</t>
         </is>
       </c>
-      <c r="B74" s="110" t="inlineStr">
+      <c r="B74" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Petroleum 14/</t>
         </is>
@@ -11333,13 +11333,13 @@
         <v>0.000705</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" s="95">
+    <row r="75" ht="15" customHeight="1" s="96">
       <c r="A75" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_PetroleumSubt</t>
         </is>
       </c>
-      <c r="B75" s="110" t="inlineStr">
+      <c r="B75" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Petroleum and Other Liquids Subtotal</t>
         </is>
@@ -11441,13 +11441,13 @@
         <v>0.00391</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" s="95">
+    <row r="76" ht="15" customHeight="1" s="96">
       <c r="A76" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_PipelineFuelN</t>
         </is>
       </c>
-      <c r="B76" s="110" t="inlineStr">
+      <c r="B76" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Pipeline and Distribution Fuel Natural Gas</t>
         </is>
@@ -11549,13 +11549,13 @@
         <v>0.003523</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" s="95">
+    <row r="77" ht="15" customHeight="1" s="96">
       <c r="A77" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_CompressedNat</t>
         </is>
       </c>
-      <c r="B77" s="110" t="inlineStr">
+      <c r="B77" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Compressed / Liquefied Natural Gas</t>
         </is>
@@ -11657,13 +11657,13 @@
         <v>0.052896</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1" s="95">
+    <row r="78" ht="15" customHeight="1" s="96">
       <c r="A78" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_LiquidHydroge</t>
         </is>
       </c>
-      <c r="B78" s="110" t="inlineStr">
+      <c r="B78" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Hydrogen</t>
         </is>
@@ -11765,13 +11765,13 @@
         <v>0.08338</v>
       </c>
     </row>
-    <row r="79" ht="14.5" customHeight="1" s="95">
+    <row r="79" ht="14.5" customHeight="1" s="96">
       <c r="A79" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_Electricity</t>
         </is>
       </c>
-      <c r="B79" s="110" t="inlineStr">
+      <c r="B79" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Purchased Electricity</t>
         </is>
@@ -11873,7 +11873,7 @@
         <v>0.083273</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1" s="95">
+    <row r="80" ht="15" customHeight="1" s="96">
       <c r="A80" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_DeliveredEner</t>
@@ -11981,13 +11981,13 @@
         <v>0.004692</v>
       </c>
     </row>
-    <row r="81" ht="14.5" customHeight="1" s="95">
+    <row r="81" ht="14.5" customHeight="1" s="96">
       <c r="A81" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_ElectricityRe</t>
         </is>
       </c>
-      <c r="B81" s="110" t="inlineStr">
+      <c r="B81" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity Related Losses</t>
         </is>
@@ -12089,7 +12089,7 @@
         <v>0.07249</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1" s="95">
+    <row r="82" ht="15" customHeight="1" s="96">
       <c r="A82" s="10" t="inlineStr">
         <is>
           <t>QUA000:fa_Total</t>
@@ -12197,14 +12197,14 @@
         <v>0.005231</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" s="95">
+    <row r="84" ht="15" customHeight="1" s="96">
       <c r="B84" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Unspecified Sector 15/</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" s="95">
+    <row r="85" ht="15" customHeight="1" s="96">
       <c r="A85" s="10" t="inlineStr">
         <is>
           <t>QUA000:un_Total</t>
@@ -12312,20 +12312,20 @@
         <v>0.001858</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1" s="95">
+    <row r="87" ht="15" customHeight="1" s="96">
       <c r="B87" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Delivered Energy Consumption, All Sectors</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1" s="95">
+    <row r="88" ht="15" customHeight="1" s="96">
       <c r="A88" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_LiquefiedPetr</t>
         </is>
       </c>
-      <c r="B88" s="110" t="inlineStr">
+      <c r="B88" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Liquefied Petroleum Gases and Other 6/</t>
         </is>
@@ -12427,13 +12427,13 @@
         <v>0.018282</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1" s="95">
+    <row r="89" ht="15" customHeight="1" s="96">
       <c r="A89" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_MotorGasoline</t>
         </is>
       </c>
-      <c r="B89" s="110" t="inlineStr">
+      <c r="B89" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline 3/</t>
         </is>
@@ -12535,13 +12535,13 @@
         <v>0.0009779999999999999</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1" s="95">
+    <row r="90" ht="15" customHeight="1" s="96">
       <c r="A90" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_E85</t>
         </is>
       </c>
-      <c r="B90" s="110" t="inlineStr">
+      <c r="B90" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">      of which:  E85 11/</t>
         </is>
@@ -12643,13 +12643,13 @@
         <v>0.002463</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1" s="95">
+    <row r="91" ht="15" customHeight="1" s="96">
       <c r="A91" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_JetFuel</t>
         </is>
       </c>
-      <c r="B91" s="110" t="inlineStr">
+      <c r="B91" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Jet Fuel 12/</t>
         </is>
@@ -12751,13 +12751,13 @@
         <v>0.023598</v>
       </c>
     </row>
-    <row r="92" ht="14.5" customHeight="1" s="95">
+    <row r="92" ht="14.5" customHeight="1" s="96">
       <c r="A92" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_Kerosene</t>
         </is>
       </c>
-      <c r="B92" s="110" t="inlineStr">
+      <c r="B92" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Kerosene 16/</t>
         </is>
@@ -12859,13 +12859,13 @@
         <v>-0.003294</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1" s="95">
+    <row r="93" ht="15" customHeight="1" s="96">
       <c r="A93" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_DistillateFue</t>
         </is>
       </c>
-      <c r="B93" s="110" t="inlineStr">
+      <c r="B93" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil 1/</t>
         </is>
@@ -12967,13 +12967,13 @@
         <v>0.003605</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1" s="95">
+    <row r="94" ht="15" customHeight="1" s="96">
       <c r="A94" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_ResidualFuel</t>
         </is>
       </c>
-      <c r="B94" s="110" t="inlineStr">
+      <c r="B94" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -13075,13 +13075,13 @@
         <v>0.005967</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1" s="95">
+    <row r="95" ht="15" customHeight="1" s="96">
       <c r="A95" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_Petrochemical</t>
         </is>
       </c>
-      <c r="B95" s="110" t="inlineStr">
+      <c r="B95" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Petrochemical Feedstocks</t>
         </is>
@@ -13183,13 +13183,13 @@
         <v>0.004002</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1" s="95">
+    <row r="96" ht="15" customHeight="1" s="96">
       <c r="A96" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_OtherPetroleu</t>
         </is>
       </c>
-      <c r="B96" s="110" t="inlineStr">
+      <c r="B96" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Petroleum 17/</t>
         </is>
@@ -13291,7 +13291,7 @@
         <v>0.00492</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1" s="95">
+    <row r="97" ht="15" customHeight="1" s="96">
       <c r="A97" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_PetroleumSubt</t>
@@ -13399,13 +13399,13 @@
         <v>0.006374</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1" s="95">
+    <row r="98" ht="15" customHeight="1" s="96">
       <c r="A98" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_NaturalGas</t>
         </is>
       </c>
-      <c r="B98" s="110" t="inlineStr">
+      <c r="B98" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -13507,13 +13507,13 @@
         <v>0.007881000000000001</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1" s="95">
+    <row r="99" ht="15" customHeight="1" s="96">
       <c r="A99" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_NGastoLiquids</t>
         </is>
       </c>
-      <c r="B99" s="110" t="inlineStr">
+      <c r="B99" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural-Gas-to-Liquids Heat and Power</t>
         </is>
@@ -13617,13 +13617,13 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1" s="95">
+    <row r="100" ht="15" customHeight="1" s="96">
       <c r="A100" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_LeaseandPlant</t>
         </is>
       </c>
-      <c r="B100" s="110" t="inlineStr">
+      <c r="B100" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Lease and Plant Fuel 8/</t>
         </is>
@@ -13725,13 +13725,13 @@
         <v>0.016729</v>
       </c>
     </row>
-    <row r="101" ht="14.5" customHeight="1" s="95">
+    <row r="101" ht="14.5" customHeight="1" s="96">
       <c r="A101" s="10" t="inlineStr">
         <is>
           <t>QUA000:qa_liquefactexp</t>
         </is>
       </c>
-      <c r="B101" s="110" t="inlineStr">
+      <c r="B101" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas to Liquefy Gas for Export 9/</t>
         </is>
@@ -13833,13 +13833,13 @@
         <v>0.041444</v>
       </c>
     </row>
-    <row r="102" ht="14.5" customHeight="1" s="95">
+    <row r="102" ht="14.5" customHeight="1" s="96">
       <c r="A102" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_PipelineNatur</t>
         </is>
       </c>
-      <c r="B102" s="110" t="inlineStr">
+      <c r="B102" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Pipeline and Distribution Fuel Natural Gas</t>
         </is>
@@ -13941,13 +13941,13 @@
         <v>0.003523</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1" s="95">
+    <row r="103" ht="15" customHeight="1" s="96">
       <c r="A103" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_NaturalGasSub</t>
         </is>
       </c>
-      <c r="B103" s="110" t="inlineStr">
+      <c r="B103" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Natural Gas Subtotal</t>
         </is>
@@ -14049,13 +14049,13 @@
         <v>0.00966</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1" s="95">
+    <row r="104" ht="15" customHeight="1" s="96">
       <c r="A104" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_Metallurgical</t>
         </is>
       </c>
-      <c r="B104" s="110" t="inlineStr">
+      <c r="B104" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal</t>
         </is>
@@ -14157,13 +14157,13 @@
         <v>0.001015</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1" s="95">
+    <row r="105" ht="15" customHeight="1" s="96">
       <c r="A105" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_SteamCoal</t>
         </is>
       </c>
-      <c r="B105" s="110" t="inlineStr">
+      <c r="B105" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Coal</t>
         </is>
@@ -14265,13 +14265,13 @@
         <v>-0.000215</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1" s="95">
+    <row r="106" ht="15" customHeight="1" s="96">
       <c r="A106" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_CoaltoLiquids</t>
         </is>
       </c>
-      <c r="B106" s="110" t="inlineStr">
+      <c r="B106" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal-to-Liquids Heat and Power</t>
         </is>
@@ -14375,13 +14375,13 @@
         </is>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1" s="95">
+    <row r="107" ht="15" customHeight="1" s="96">
       <c r="A107" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_NetCoalCokeIm</t>
         </is>
       </c>
-      <c r="B107" s="110" t="inlineStr">
+      <c r="B107" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Net Coal Coke Imports</t>
         </is>
@@ -14483,13 +14483,13 @@
         <v>-0.011535</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1" s="95">
+    <row r="108" ht="15" customHeight="1" s="96">
       <c r="A108" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_CoalSubtotal</t>
         </is>
       </c>
-      <c r="B108" s="110" t="inlineStr">
+      <c r="B108" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Coal Subtotal</t>
         </is>
@@ -14591,13 +14591,13 @@
         <v>0.000646</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1" s="95">
+    <row r="109" ht="15" customHeight="1" s="96">
       <c r="A109" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_BiofuelsHeat</t>
         </is>
       </c>
-      <c r="B109" s="110" t="inlineStr">
+      <c r="B109" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Biofuels Heat and Coproducts</t>
         </is>
@@ -14699,13 +14699,13 @@
         <v>0.006056</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1" s="95">
+    <row r="110" ht="15" customHeight="1" s="96">
       <c r="A110" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_RenewableEner</t>
         </is>
       </c>
-      <c r="B110" s="110" t="inlineStr">
+      <c r="B110" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Renewable Energy 18/</t>
         </is>
@@ -14807,13 +14807,13 @@
         <v>0.005306</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1" s="95">
+    <row r="111" ht="15" customHeight="1" s="96">
       <c r="A111" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_LiquidHydroge</t>
         </is>
       </c>
-      <c r="B111" s="110" t="inlineStr">
+      <c r="B111" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Hydrogen</t>
         </is>
@@ -14915,51 +14915,51 @@
         <v>0.08338</v>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1" s="95">
+    <row r="112" ht="15" customHeight="1" s="96">
       <c r="A112" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_Electricity</t>
         </is>
       </c>
-      <c r="B112" s="110" t="inlineStr">
+      <c r="B112" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Purchased Electricity</t>
         </is>
       </c>
-      <c r="C112" s="111" t="n"/>
-      <c r="D112" s="111" t="n"/>
-      <c r="E112" s="111" t="n"/>
-      <c r="F112" s="111" t="n"/>
-      <c r="G112" s="111" t="n"/>
-      <c r="H112" s="111" t="n"/>
-      <c r="I112" s="111" t="n"/>
-      <c r="J112" s="111" t="n"/>
-      <c r="K112" s="111" t="n"/>
-      <c r="L112" s="111" t="n"/>
-      <c r="M112" s="111" t="n"/>
-      <c r="N112" s="111" t="n"/>
-      <c r="O112" s="111" t="n"/>
-      <c r="P112" s="111" t="n"/>
-      <c r="Q112" s="111" t="n"/>
-      <c r="R112" s="111" t="n"/>
-      <c r="S112" s="111" t="n"/>
-      <c r="T112" s="111" t="n"/>
-      <c r="U112" s="111" t="n"/>
-      <c r="V112" s="111" t="n"/>
-      <c r="W112" s="111" t="n"/>
-      <c r="X112" s="111" t="n"/>
-      <c r="Y112" s="111" t="n"/>
-      <c r="Z112" s="111" t="n"/>
-      <c r="AA112" s="111" t="n"/>
-      <c r="AB112" s="111" t="n"/>
-      <c r="AC112" s="111" t="n"/>
-      <c r="AD112" s="111" t="n"/>
-      <c r="AE112" s="111" t="n"/>
-      <c r="AF112" s="111" t="n"/>
-      <c r="AG112" s="111" t="n"/>
-      <c r="AH112" s="111" t="n"/>
-    </row>
-    <row r="113" ht="15" customHeight="1" s="95">
+      <c r="C112" s="112" t="n"/>
+      <c r="D112" s="112" t="n"/>
+      <c r="E112" s="112" t="n"/>
+      <c r="F112" s="112" t="n"/>
+      <c r="G112" s="112" t="n"/>
+      <c r="H112" s="112" t="n"/>
+      <c r="I112" s="112" t="n"/>
+      <c r="J112" s="112" t="n"/>
+      <c r="K112" s="112" t="n"/>
+      <c r="L112" s="112" t="n"/>
+      <c r="M112" s="112" t="n"/>
+      <c r="N112" s="112" t="n"/>
+      <c r="O112" s="112" t="n"/>
+      <c r="P112" s="112" t="n"/>
+      <c r="Q112" s="112" t="n"/>
+      <c r="R112" s="112" t="n"/>
+      <c r="S112" s="112" t="n"/>
+      <c r="T112" s="112" t="n"/>
+      <c r="U112" s="112" t="n"/>
+      <c r="V112" s="112" t="n"/>
+      <c r="W112" s="112" t="n"/>
+      <c r="X112" s="112" t="n"/>
+      <c r="Y112" s="112" t="n"/>
+      <c r="Z112" s="112" t="n"/>
+      <c r="AA112" s="112" t="n"/>
+      <c r="AB112" s="112" t="n"/>
+      <c r="AC112" s="112" t="n"/>
+      <c r="AD112" s="112" t="n"/>
+      <c r="AE112" s="112" t="n"/>
+      <c r="AF112" s="112" t="n"/>
+      <c r="AG112" s="112" t="n"/>
+      <c r="AH112" s="112" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="96">
       <c r="A113" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_DeliveredEner</t>
@@ -15067,13 +15067,13 @@
         <v>0.007794</v>
       </c>
     </row>
-    <row r="114" ht="15" customHeight="1" s="95">
+    <row r="114" ht="15" customHeight="1" s="96">
       <c r="A114" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_ElectricityRe</t>
         </is>
       </c>
-      <c r="B114" s="110" t="inlineStr">
+      <c r="B114" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity Related Losses</t>
         </is>
@@ -15175,7 +15175,7 @@
         <v>-0.000595</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1" s="95">
+    <row r="115" ht="15" customHeight="1" s="96">
       <c r="A115" s="10" t="inlineStr">
         <is>
           <t>QUA000:ga_Total</t>
@@ -15283,20 +15283,20 @@
         <v>0.005875</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1" s="95">
+    <row r="118" ht="15" customHeight="1" s="96">
       <c r="B118" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Electric Power 19/</t>
         </is>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1" s="95">
+    <row r="119" ht="15" customHeight="1" s="96">
       <c r="A119" s="10" t="inlineStr">
         <is>
           <t>QUA000:ha_DistillateFue</t>
         </is>
       </c>
-      <c r="B119" s="110" t="inlineStr">
+      <c r="B119" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -15398,13 +15398,13 @@
         <v>-0.026865</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1" s="95">
+    <row r="120" ht="15" customHeight="1" s="96">
       <c r="A120" s="10" t="inlineStr">
         <is>
           <t>QUA000:ha_ResidualFuel</t>
         </is>
       </c>
-      <c r="B120" s="110" t="inlineStr">
+      <c r="B120" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -15506,13 +15506,13 @@
         <v>-0.048769</v>
       </c>
     </row>
-    <row r="121" ht="15" customHeight="1" s="95">
+    <row r="121" ht="15" customHeight="1" s="96">
       <c r="A121" s="10" t="inlineStr">
         <is>
           <t>QUA000:ha_PetroleumSubt</t>
         </is>
       </c>
-      <c r="B121" s="110" t="inlineStr">
+      <c r="B121" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Petroleum and Other Liquids Subtotal</t>
         </is>
@@ -15614,13 +15614,13 @@
         <v>-0.036546</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1" s="95">
+    <row r="122" ht="15" customHeight="1" s="96">
       <c r="A122" s="10" t="inlineStr">
         <is>
           <t>QUA000:ha_NaturalGas</t>
         </is>
       </c>
-      <c r="B122" s="110" t="inlineStr">
+      <c r="B122" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -15722,13 +15722,13 @@
         <v>0.011691</v>
       </c>
     </row>
-    <row r="123" ht="15" customHeight="1" s="95">
+    <row r="123" ht="15" customHeight="1" s="96">
       <c r="A123" s="10" t="inlineStr">
         <is>
           <t>QUA000:ha_SteamCoal</t>
         </is>
       </c>
-      <c r="B123" s="110" t="inlineStr">
+      <c r="B123" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Steam Coal</t>
         </is>
@@ -15830,13 +15830,13 @@
         <v>-0.024743</v>
       </c>
     </row>
-    <row r="124" ht="15" customHeight="1" s="95">
+    <row r="124" ht="15" customHeight="1" s="96">
       <c r="A124" s="10" t="inlineStr">
         <is>
           <t>QUA000:ha_NuclearPower</t>
         </is>
       </c>
-      <c r="B124" s="110" t="inlineStr">
+      <c r="B124" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Nuclear / Uranium 20/</t>
         </is>
@@ -15938,13 +15938,13 @@
         <v>-0.027078</v>
       </c>
     </row>
-    <row r="125" ht="15" customHeight="1" s="95">
+    <row r="125" ht="15" customHeight="1" s="96">
       <c r="A125" s="10" t="inlineStr">
         <is>
           <t>QUA000:ha_RenewableEner</t>
         </is>
       </c>
-      <c r="B125" s="110" t="inlineStr">
+      <c r="B125" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Renewable Energy 21/</t>
         </is>
@@ -16046,13 +16046,13 @@
         <v>0.024932</v>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1" s="95">
+    <row r="126" ht="15" customHeight="1" s="96">
       <c r="A126" s="10" t="inlineStr">
         <is>
           <t>QUA000:ha_non-bio_mun</t>
         </is>
       </c>
-      <c r="B126" s="110" t="inlineStr">
+      <c r="B126" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Non-biogenic Municipal Waste</t>
         </is>
@@ -16154,13 +16154,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" ht="15" customHeight="1" s="95">
+    <row r="127" ht="15" customHeight="1" s="96">
       <c r="A127" s="10" t="inlineStr">
         <is>
           <t>QUA000:ha_ElectricityIm</t>
         </is>
       </c>
-      <c r="B127" s="110" t="inlineStr">
+      <c r="B127" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity Imports</t>
         </is>
@@ -16262,7 +16262,7 @@
         <v>-0.000913</v>
       </c>
     </row>
-    <row r="128" ht="15" customHeight="1" s="95">
+    <row r="128" ht="15" customHeight="1" s="96">
       <c r="A128" s="10" t="inlineStr">
         <is>
           <t>QUA000:ha_Total</t>
@@ -16370,20 +16370,20 @@
         <v>0.003253</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1" s="95">
+    <row r="130" ht="15" customHeight="1" s="96">
       <c r="B130" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Total Energy Consumption</t>
         </is>
       </c>
     </row>
-    <row r="131" ht="15" customHeight="1" s="95">
+    <row r="131" ht="15" customHeight="1" s="96">
       <c r="A131" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_LiquefiedPetr</t>
         </is>
       </c>
-      <c r="B131" s="110" t="inlineStr">
+      <c r="B131" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Liquefied Petroleum Gases and Other 6/</t>
         </is>
@@ -16485,13 +16485,13 @@
         <v>0.018282</v>
       </c>
     </row>
-    <row r="132" ht="15" customHeight="1" s="95">
+    <row r="132" ht="15" customHeight="1" s="96">
       <c r="A132" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_MotorGasoline</t>
         </is>
       </c>
-      <c r="B132" s="110" t="inlineStr">
+      <c r="B132" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline 3/</t>
         </is>
@@ -16593,13 +16593,13 @@
         <v>0.0009779999999999999</v>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1" s="95">
+    <row r="133" ht="15" customHeight="1" s="96">
       <c r="A133" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_E85</t>
         </is>
       </c>
-      <c r="B133" s="110" t="inlineStr">
+      <c r="B133" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">      of which:  E85 11/</t>
         </is>
@@ -16701,13 +16701,13 @@
         <v>0.002463</v>
       </c>
     </row>
-    <row r="134" ht="15" customHeight="1" s="95">
+    <row r="134" ht="15" customHeight="1" s="96">
       <c r="A134" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_JetFuel</t>
         </is>
       </c>
-      <c r="B134" s="110" t="inlineStr">
+      <c r="B134" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Jet Fuel 12/</t>
         </is>
@@ -16809,13 +16809,13 @@
         <v>0.023598</v>
       </c>
     </row>
-    <row r="135" ht="15" customHeight="1" s="95">
+    <row r="135" ht="15" customHeight="1" s="96">
       <c r="A135" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_Kerosene</t>
         </is>
       </c>
-      <c r="B135" s="110" t="inlineStr">
+      <c r="B135" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Kerosene 16/</t>
         </is>
@@ -16917,13 +16917,13 @@
         <v>-0.003294</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1" s="95">
+    <row r="136" ht="15" customHeight="1" s="96">
       <c r="A136" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_DistillateFue</t>
         </is>
       </c>
-      <c r="B136" s="110" t="inlineStr">
+      <c r="B136" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil 1/</t>
         </is>
@@ -17025,13 +17025,13 @@
         <v>0.003416</v>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1" s="95">
+    <row r="137" ht="15" customHeight="1" s="96">
       <c r="A137" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_ResidualFuel</t>
         </is>
       </c>
-      <c r="B137" s="110" t="inlineStr">
+      <c r="B137" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -17133,13 +17133,13 @@
         <v>0.001687</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1" s="95">
+    <row r="138" ht="15" customHeight="1" s="96">
       <c r="A138" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_Petrochemical</t>
         </is>
       </c>
-      <c r="B138" s="110" t="inlineStr">
+      <c r="B138" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Petrochemical Feedstocks</t>
         </is>
@@ -17241,13 +17241,13 @@
         <v>0.004002</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1" s="95">
+    <row r="139" ht="15" customHeight="1" s="96">
       <c r="A139" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_OtherPetroleu</t>
         </is>
       </c>
-      <c r="B139" s="110" t="inlineStr">
+      <c r="B139" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Petroleum 17/</t>
         </is>
@@ -17349,13 +17349,13 @@
         <v>0.00492</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1" s="95">
+    <row r="140" ht="15" customHeight="1" s="96">
       <c r="A140" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_PetroleumSubt</t>
         </is>
       </c>
-      <c r="B140" s="110" t="inlineStr">
+      <c r="B140" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Petroleum and Other Liquids Subtotal</t>
         </is>
@@ -17457,13 +17457,13 @@
         <v>0.006262</v>
       </c>
     </row>
-    <row r="141" ht="14.5" customHeight="1" s="95">
+    <row r="141" ht="14.5" customHeight="1" s="96">
       <c r="A141" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_NaturalGas</t>
         </is>
       </c>
-      <c r="B141" s="110" t="inlineStr">
+      <c r="B141" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -17565,13 +17565,13 @@
         <v>0.009520000000000001</v>
       </c>
     </row>
-    <row r="142" ht="14.5" customHeight="1" s="95">
+    <row r="142" ht="14.5" customHeight="1" s="96">
       <c r="A142" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_NGastoLiquids</t>
         </is>
       </c>
-      <c r="B142" s="110" t="inlineStr">
+      <c r="B142" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural-Gas-to-Liquids Heat and Power</t>
         </is>
@@ -17675,13 +17675,13 @@
         </is>
       </c>
     </row>
-    <row r="143" ht="14.5" customHeight="1" s="95">
+    <row r="143" ht="14.5" customHeight="1" s="96">
       <c r="A143" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_LeaseandPlant</t>
         </is>
       </c>
-      <c r="B143" s="110" t="inlineStr">
+      <c r="B143" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Lease and Plant Fuel 8/</t>
         </is>
@@ -17783,13 +17783,13 @@
         <v>0.016729</v>
       </c>
     </row>
-    <row r="144" ht="14.5" customHeight="1" s="95">
+    <row r="144" ht="14.5" customHeight="1" s="96">
       <c r="A144" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_liquefactexp</t>
         </is>
       </c>
-      <c r="B144" s="110" t="inlineStr">
+      <c r="B144" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas to Liquefy Gas for Export 9/</t>
         </is>
@@ -17891,13 +17891,13 @@
         <v>0.041444</v>
       </c>
     </row>
-    <row r="145" ht="14.5" customHeight="1" s="95">
+    <row r="145" ht="14.5" customHeight="1" s="96">
       <c r="A145" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_PipelineNatur</t>
         </is>
       </c>
-      <c r="B145" s="110" t="inlineStr">
+      <c r="B145" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Pipeline and Distribution Fuel Natural Gas</t>
         </is>
@@ -17999,13 +17999,13 @@
         <v>0.003523</v>
       </c>
     </row>
-    <row r="146" ht="14.5" customHeight="1" s="95">
+    <row r="146" ht="14.5" customHeight="1" s="96">
       <c r="A146" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_NaturalGasSub</t>
         </is>
       </c>
-      <c r="B146" s="110" t="inlineStr">
+      <c r="B146" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Natural Gas Subtotal</t>
         </is>
@@ -18107,13 +18107,13 @@
         <v>0.010443</v>
       </c>
     </row>
-    <row r="147" ht="14.5" customHeight="1" s="95">
+    <row r="147" ht="14.5" customHeight="1" s="96">
       <c r="A147" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_Metallurgical</t>
         </is>
       </c>
-      <c r="B147" s="110" t="inlineStr">
+      <c r="B147" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal</t>
         </is>
@@ -18215,13 +18215,13 @@
         <v>0.001015</v>
       </c>
     </row>
-    <row r="148" ht="14.5" customHeight="1" s="95">
+    <row r="148" ht="14.5" customHeight="1" s="96">
       <c r="A148" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_SteamCoal</t>
         </is>
       </c>
-      <c r="B148" s="110" t="inlineStr">
+      <c r="B148" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Coal</t>
         </is>
@@ -18323,13 +18323,13 @@
         <v>-0.02271</v>
       </c>
     </row>
-    <row r="149" ht="14.5" customHeight="1" s="95">
+    <row r="149" ht="14.5" customHeight="1" s="96">
       <c r="A149" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_CoaltoLiquids</t>
         </is>
       </c>
-      <c r="B149" s="110" t="inlineStr">
+      <c r="B149" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal-to-Liquids Heat and Power</t>
         </is>
@@ -18433,13 +18433,13 @@
         </is>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1" s="95">
+    <row r="150" ht="15" customHeight="1" s="96">
       <c r="A150" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_NetCoalCokeIm</t>
         </is>
       </c>
-      <c r="B150" s="110" t="inlineStr">
+      <c r="B150" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Net Coal Coke Imports</t>
         </is>
@@ -18541,13 +18541,13 @@
         <v>-0.011535</v>
       </c>
     </row>
-    <row r="151" ht="15" customHeight="1" s="95">
+    <row r="151" ht="15" customHeight="1" s="96">
       <c r="A151" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_CoalSubtotal</t>
         </is>
       </c>
-      <c r="B151" s="110" t="inlineStr">
+      <c r="B151" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Coal Subtotal</t>
         </is>
@@ -18649,7 +18649,7 @@
         <v>-0.021002</v>
       </c>
     </row>
-    <row r="152" ht="15" customHeight="1" s="95">
+    <row r="152" ht="15" customHeight="1" s="96">
       <c r="A152" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_NuclearPower</t>
@@ -18757,13 +18757,13 @@
         <v>-0.027078</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1" s="95">
+    <row r="153" ht="15" customHeight="1" s="96">
       <c r="A153" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_BiofuelsHeat</t>
         </is>
       </c>
-      <c r="B153" s="110" t="inlineStr">
+      <c r="B153" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Biofuels Heat and Coproducts</t>
         </is>
@@ -18865,13 +18865,13 @@
         <v>0.006056</v>
       </c>
     </row>
-    <row r="154" ht="15" customHeight="1" s="95">
+    <row r="154" ht="15" customHeight="1" s="96">
       <c r="A154" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_RenewableEner</t>
         </is>
       </c>
-      <c r="B154" s="110" t="inlineStr">
+      <c r="B154" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Renewable Energy 22/</t>
         </is>
@@ -18973,13 +18973,13 @@
         <v>0.021248</v>
       </c>
     </row>
-    <row r="155" ht="15" customHeight="1" s="95">
+    <row r="155" ht="15" customHeight="1" s="96">
       <c r="A155" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_LiquidHydroge</t>
         </is>
       </c>
-      <c r="B155" s="110" t="inlineStr">
+      <c r="B155" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Hydrogen</t>
         </is>
@@ -19081,13 +19081,13 @@
         <v>0.08338</v>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1" s="95">
+    <row r="156" ht="15" customHeight="1" s="96">
       <c r="A156" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_non-bio_mun</t>
         </is>
       </c>
-      <c r="B156" s="110" t="inlineStr">
+      <c r="B156" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Non-biogenic Municipal Waste</t>
         </is>
@@ -19189,13 +19189,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1" s="95">
+    <row r="157" ht="15" customHeight="1" s="96">
       <c r="A157" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_ElectricityIm</t>
         </is>
       </c>
-      <c r="B157" s="110" t="inlineStr">
+      <c r="B157" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity Imports</t>
         </is>
@@ -19297,7 +19297,7 @@
         <v>-0.000913</v>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1" s="95">
+    <row r="158" ht="15" customHeight="1" s="96">
       <c r="A158" s="10" t="inlineStr">
         <is>
           <t>QUA000:ia_Total</t>
@@ -19405,20 +19405,20 @@
         <v>0.005875</v>
       </c>
     </row>
-    <row r="160" ht="15" customHeight="1" s="95">
+    <row r="160" ht="15" customHeight="1" s="96">
       <c r="B160" s="15" t="inlineStr">
         <is>
           <t>Energy Use &amp; Related Statistics</t>
         </is>
       </c>
     </row>
-    <row r="161" ht="15" customHeight="1" s="95">
+    <row r="161" ht="15" customHeight="1" s="96">
       <c r="A161" s="10" t="inlineStr">
         <is>
           <t>QUA000:ka_DeliveredEner</t>
         </is>
       </c>
-      <c r="B161" s="110" t="inlineStr">
+      <c r="B161" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">  Delivered Energy Use</t>
         </is>
@@ -19520,13 +19520,13 @@
         <v>0.007794</v>
       </c>
     </row>
-    <row r="162" ht="15" customHeight="1" s="95">
+    <row r="162" ht="15" customHeight="1" s="96">
       <c r="A162" s="10" t="inlineStr">
         <is>
           <t>QUA000:ka_TotalEnergyUs</t>
         </is>
       </c>
-      <c r="B162" s="110" t="inlineStr">
+      <c r="B162" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">  Total Energy Use</t>
         </is>
@@ -19628,13 +19628,13 @@
         <v>0.005875</v>
       </c>
     </row>
-    <row r="163" ht="15" customHeight="1" s="95">
+    <row r="163" ht="15" customHeight="1" s="96">
       <c r="A163" s="10" t="inlineStr">
         <is>
           <t>QUA000:ka_TotalEthanol</t>
         </is>
       </c>
-      <c r="B163" s="110" t="inlineStr">
+      <c r="B163" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">  Ethanol Consumed in Motor Gasoline and E85</t>
         </is>
@@ -19736,13 +19736,13 @@
         <v>0.006585</v>
       </c>
     </row>
-    <row r="164" ht="15" customHeight="1" s="95">
+    <row r="164" ht="15" customHeight="1" s="96">
       <c r="A164" s="10" t="inlineStr">
         <is>
           <t>QUA000:ka_Population(mi</t>
         </is>
       </c>
-      <c r="B164" s="110" t="inlineStr">
+      <c r="B164" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">  Population (millions)</t>
         </is>
@@ -19844,13 +19844,13 @@
         <v>0.005211</v>
       </c>
     </row>
-    <row r="165" ht="14.5" customHeight="1" s="95">
+    <row r="165" ht="14.5" customHeight="1" s="96">
       <c r="A165" s="10" t="inlineStr">
         <is>
           <t>QUA000:ka_USGDP(billion</t>
         </is>
       </c>
-      <c r="B165" s="110" t="inlineStr">
+      <c r="B165" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">  Gross Domestic Product (billion 2012 dollars)</t>
         </is>
@@ -19952,20 +19952,20 @@
         <v>0.021506</v>
       </c>
     </row>
-    <row r="166" ht="15" customHeight="1" s="95">
+    <row r="166" ht="15" customHeight="1" s="96">
       <c r="B166" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">  Carbon Dioxide Emissions (million metric</t>
         </is>
       </c>
     </row>
-    <row r="167" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="167" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="A167" s="10" t="inlineStr">
         <is>
           <t>QUA000:ka_tonscarbon_dd</t>
         </is>
       </c>
-      <c r="B167" s="110" t="inlineStr">
+      <c r="B167" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   tons carbon dioxide)</t>
         </is>
@@ -20067,298 +20067,298 @@
         <v>0.00337</v>
       </c>
     </row>
-    <row r="168" ht="15" customHeight="1" s="95">
-      <c r="B168" s="108" t="inlineStr">
+    <row r="168" ht="15" customHeight="1" s="96">
+      <c r="B168" s="109" t="inlineStr">
         <is>
           <t>1/ Includes residential use of kerosene.</t>
         </is>
       </c>
-      <c r="C168" s="109" t="n"/>
-      <c r="D168" s="109" t="n"/>
-      <c r="E168" s="109" t="n"/>
-      <c r="F168" s="109" t="n"/>
-      <c r="G168" s="109" t="n"/>
-      <c r="H168" s="109" t="n"/>
-      <c r="I168" s="109" t="n"/>
-      <c r="J168" s="109" t="n"/>
-      <c r="K168" s="109" t="n"/>
-      <c r="L168" s="109" t="n"/>
-      <c r="M168" s="109" t="n"/>
-      <c r="N168" s="109" t="n"/>
-      <c r="O168" s="109" t="n"/>
-      <c r="P168" s="109" t="n"/>
-      <c r="Q168" s="109" t="n"/>
-      <c r="R168" s="109" t="n"/>
-      <c r="S168" s="109" t="n"/>
-      <c r="T168" s="109" t="n"/>
-      <c r="U168" s="109" t="n"/>
-      <c r="V168" s="109" t="n"/>
-      <c r="W168" s="109" t="n"/>
-      <c r="X168" s="109" t="n"/>
-      <c r="Y168" s="109" t="n"/>
-      <c r="Z168" s="109" t="n"/>
-      <c r="AA168" s="109" t="n"/>
-      <c r="AB168" s="109" t="n"/>
-      <c r="AC168" s="109" t="n"/>
-      <c r="AD168" s="109" t="n"/>
-      <c r="AE168" s="109" t="n"/>
-      <c r="AF168" s="109" t="n"/>
-      <c r="AG168" s="109" t="n"/>
+      <c r="C168" s="110" t="n"/>
+      <c r="D168" s="110" t="n"/>
+      <c r="E168" s="110" t="n"/>
+      <c r="F168" s="110" t="n"/>
+      <c r="G168" s="110" t="n"/>
+      <c r="H168" s="110" t="n"/>
+      <c r="I168" s="110" t="n"/>
+      <c r="J168" s="110" t="n"/>
+      <c r="K168" s="110" t="n"/>
+      <c r="L168" s="110" t="n"/>
+      <c r="M168" s="110" t="n"/>
+      <c r="N168" s="110" t="n"/>
+      <c r="O168" s="110" t="n"/>
+      <c r="P168" s="110" t="n"/>
+      <c r="Q168" s="110" t="n"/>
+      <c r="R168" s="110" t="n"/>
+      <c r="S168" s="110" t="n"/>
+      <c r="T168" s="110" t="n"/>
+      <c r="U168" s="110" t="n"/>
+      <c r="V168" s="110" t="n"/>
+      <c r="W168" s="110" t="n"/>
+      <c r="X168" s="110" t="n"/>
+      <c r="Y168" s="110" t="n"/>
+      <c r="Z168" s="110" t="n"/>
+      <c r="AA168" s="110" t="n"/>
+      <c r="AB168" s="110" t="n"/>
+      <c r="AC168" s="110" t="n"/>
+      <c r="AD168" s="110" t="n"/>
+      <c r="AE168" s="110" t="n"/>
+      <c r="AF168" s="110" t="n"/>
+      <c r="AG168" s="110" t="n"/>
       <c r="AH168" s="89" t="n"/>
     </row>
-    <row r="169" ht="15" customHeight="1" s="95">
+    <row r="169" ht="15" customHeight="1" s="96">
       <c r="B169" s="20" t="inlineStr">
         <is>
           <t>2/ Includes wood used for residential heating. See Table 4 and/or Table 17 for estimates of nonmarketed renewable energy consumption for</t>
         </is>
       </c>
     </row>
-    <row r="170" ht="15" customHeight="1" s="95">
+    <row r="170" ht="15" customHeight="1" s="96">
       <c r="B170" s="20" t="inlineStr">
         <is>
           <t>geothermal heat pumps, solar thermal water heating, and electricity generation from wind and solar photovoltaic sources.</t>
         </is>
       </c>
     </row>
-    <row r="171" ht="15" customHeight="1" s="95">
+    <row r="171" ht="15" customHeight="1" s="96">
       <c r="B171" s="20" t="inlineStr">
         <is>
           <t>3/ Includes ethanol and ethers blended into gasoline.</t>
         </is>
       </c>
     </row>
-    <row r="172" ht="15" customHeight="1" s="95">
+    <row r="172" ht="15" customHeight="1" s="96">
       <c r="B172" s="20" t="inlineStr">
         <is>
           <t>4/ Excludes ethanol.  Includes commercial sector consumption of wood and wood waste, landfill gas, municipal waste, and other biomass for</t>
         </is>
       </c>
     </row>
-    <row r="173" ht="15" customHeight="1" s="95">
+    <row r="173" ht="15" customHeight="1" s="96">
       <c r="B173" s="20" t="inlineStr">
         <is>
           <t>combined heat and power.  See Table 5 and/or Table 17 for estimates of nonmarketed renewable energy consumption for solar thermal water</t>
         </is>
       </c>
     </row>
-    <row r="174" ht="15" customHeight="1" s="95">
+    <row r="174" ht="15" customHeight="1" s="96">
       <c r="B174" s="20" t="inlineStr">
         <is>
           <t>heating and electricity generation from wind and solar photovoltaic sources.</t>
         </is>
       </c>
     </row>
-    <row r="175" ht="15" customHeight="1" s="95">
+    <row r="175" ht="15" customHeight="1" s="96">
       <c r="B175" s="20" t="inlineStr">
         <is>
           <t>5/ Includes energy for combined heat and power plants that have a non-regulatory status, and small on-site generating systems.</t>
         </is>
       </c>
     </row>
-    <row r="176" ht="15" customHeight="1" s="95">
+    <row r="176" ht="15" customHeight="1" s="96">
       <c r="B176" s="20" t="inlineStr">
         <is>
           <t>6/ Includes ethane, natural gasoline, and refinery olefins.</t>
         </is>
       </c>
     </row>
-    <row r="177" ht="15" customHeight="1" s="95">
+    <row r="177" ht="15" customHeight="1" s="96">
       <c r="B177" s="20" t="inlineStr">
         <is>
           <t>7/ Includes petroleum coke, asphalt, road oil, lubricants, still gas, and miscellaneous petroleum products.</t>
         </is>
       </c>
     </row>
-    <row r="178" ht="15" customHeight="1" s="95">
+    <row r="178" ht="15" customHeight="1" s="96">
       <c r="B178" s="20" t="inlineStr">
         <is>
           <t>8/ Represents natural gas used in well, field, and lease operations, and in natural gas processing plant machinery.</t>
         </is>
       </c>
     </row>
-    <row r="179" ht="15" customHeight="1" s="95">
+    <row r="179" ht="15" customHeight="1" s="96">
       <c r="B179" s="20" t="inlineStr">
         <is>
           <t>9/ Fuel used in facilities that liquefy natural gas for export.</t>
         </is>
       </c>
     </row>
-    <row r="180" ht="12" customHeight="1" s="95">
+    <row r="180" ht="12" customHeight="1" s="96">
       <c r="B180" s="20" t="inlineStr">
         <is>
           <t>10/ Includes consumption of energy produced from conventional hydroelectric, wood and wood waste, municipal waste, and other biomass sources.</t>
         </is>
       </c>
     </row>
-    <row r="181" ht="15" customHeight="1" s="95">
+    <row r="181" ht="15" customHeight="1" s="96">
       <c r="B181" s="20" t="inlineStr">
         <is>
           <t>Excludes ethanol in motor gasoline.</t>
         </is>
       </c>
     </row>
-    <row r="182" ht="15" customHeight="1" s="95">
+    <row r="182" ht="15" customHeight="1" s="96">
       <c r="B182" s="20" t="inlineStr">
         <is>
           <t>11/ E85 refers to a blend of 85 percent ethanol (renewable) and 15 percent motor gasoline (nonrenewable).  To address cold starting issues,</t>
         </is>
       </c>
     </row>
-    <row r="183" ht="15" customHeight="1" s="95">
+    <row r="183" ht="15" customHeight="1" s="96">
       <c r="B183" s="20" t="inlineStr">
         <is>
           <t>the percentage of ethanol varies seasonally.  The annual average ethanol content of 74 percent is used for these projections.</t>
         </is>
       </c>
     </row>
-    <row r="184" ht="15" customHeight="1" s="95">
+    <row r="184" ht="15" customHeight="1" s="96">
       <c r="B184" s="20" t="inlineStr">
         <is>
           <t>12/ Includes only kerosene type.</t>
         </is>
       </c>
     </row>
-    <row r="185" ht="15" customHeight="1" s="95">
+    <row r="185" ht="15" customHeight="1" s="96">
       <c r="B185" s="20" t="inlineStr">
         <is>
           <t>13/ Diesel fuel for on- and off- road use.</t>
         </is>
       </c>
     </row>
-    <row r="186" ht="15" customHeight="1" s="95">
+    <row r="186" ht="15" customHeight="1" s="96">
       <c r="B186" s="20" t="inlineStr">
         <is>
           <t>14/ Includes aviation gasoline and lubricants.</t>
         </is>
       </c>
     </row>
-    <row r="187" ht="15" customHeight="1" s="95">
+    <row r="187" ht="15" customHeight="1" s="96">
       <c r="B187" s="20" t="inlineStr">
         <is>
           <t>15/ Represents consumption unattributed to the sectors above.</t>
         </is>
       </c>
     </row>
-    <row r="188" ht="15" customHeight="1" s="95">
+    <row r="188" ht="15" customHeight="1" s="96">
       <c r="B188" s="20" t="inlineStr">
         <is>
           <t>16/ Does not include residential use of kerosene.</t>
         </is>
       </c>
     </row>
-    <row r="189" ht="15" customHeight="1" s="95">
+    <row r="189" ht="15" customHeight="1" s="96">
       <c r="B189" s="20" t="inlineStr">
         <is>
           <t>17/ Includes aviation gasoline, petroleum coke, asphalt, road oil, lubricants, still gas, and miscellaneous petroleum products.</t>
         </is>
       </c>
     </row>
-    <row r="190" ht="15" customHeight="1" s="95">
+    <row r="190" ht="15" customHeight="1" s="96">
       <c r="B190" s="20" t="inlineStr">
         <is>
           <t>18/ Includes electricity generated for sale to the grid and for own use from renewable sources, and non-electric energy from renewable sources.</t>
         </is>
       </c>
     </row>
-    <row r="191" ht="15" customHeight="1" s="95">
+    <row r="191" ht="15" customHeight="1" s="96">
       <c r="B191" s="20" t="inlineStr">
         <is>
           <t>Excludes ethanol and nonmarketed renewable energy consumption for geothermal heat pumps, buildings photovoltaic systems, and solar thermal water</t>
         </is>
       </c>
     </row>
-    <row r="192" ht="15" customHeight="1" s="95">
+    <row r="192" ht="15" customHeight="1" s="96">
       <c r="B192" s="20" t="inlineStr">
         <is>
           <t>heaters.</t>
         </is>
       </c>
     </row>
-    <row r="193" ht="15" customHeight="1" s="95">
+    <row r="193" ht="15" customHeight="1" s="96">
       <c r="B193" s="20" t="inlineStr">
         <is>
           <t>19/ Includes consumption of energy by electricity-only and combined heat and power plants that have a regulatory status.</t>
         </is>
       </c>
     </row>
-    <row r="194" ht="15" customHeight="1" s="95">
+    <row r="194" ht="15" customHeight="1" s="96">
       <c r="B194" s="20" t="inlineStr">
         <is>
           <t>20/ These values represent the energy obtained from uranium when it is used in light water reactors.  The total energy content of uranium</t>
         </is>
       </c>
     </row>
-    <row r="195" ht="15" customHeight="1" s="95">
+    <row r="195" ht="15" customHeight="1" s="96">
       <c r="B195" s="20" t="inlineStr">
         <is>
           <t>is much larger, but alternative processes are required to take advantage of it.</t>
         </is>
       </c>
     </row>
-    <row r="196" ht="15" customHeight="1" s="95">
+    <row r="196" ht="15" customHeight="1" s="96">
       <c r="B196" s="20" t="inlineStr">
         <is>
           <t>21/ Includes conventional hydroelectric, geothermal, wood and wood waste, biogenic municipal waste, other biomass, wind, photovoltaic, and</t>
         </is>
       </c>
     </row>
-    <row r="197" ht="15" customHeight="1" s="95">
+    <row r="197" ht="15" customHeight="1" s="96">
       <c r="B197" s="20" t="inlineStr">
         <is>
           <t>solar thermal sources.  Excludes net electricity imports.</t>
         </is>
       </c>
     </row>
-    <row r="198" ht="15" customHeight="1" s="95">
+    <row r="198" ht="15" customHeight="1" s="96">
       <c r="B198" s="20" t="inlineStr">
         <is>
           <t>22/ Includes conventional hydroelectric, geothermal, wood and wood waste, biogenic municipal waste, other biomass, wind, photovoltaic, and</t>
         </is>
       </c>
     </row>
-    <row r="199" ht="15" customHeight="1" s="95">
+    <row r="199" ht="15" customHeight="1" s="96">
       <c r="B199" s="20" t="inlineStr">
         <is>
           <t>solar thermal sources.  Excludes ethanol, net electricity imports, and nonmarketed renewable energy consumption for geothermal heat pumps,</t>
         </is>
       </c>
     </row>
-    <row r="200" ht="15" customHeight="1" s="95">
+    <row r="200" ht="15" customHeight="1" s="96">
       <c r="B200" s="20" t="inlineStr">
         <is>
           <t>buildings photovoltaic systems, and solar thermal water heaters.</t>
         </is>
       </c>
     </row>
-    <row r="201" ht="15" customHeight="1" s="95">
+    <row r="201" ht="15" customHeight="1" s="96">
       <c r="B201" s="20" t="inlineStr">
         <is>
           <t>Btu = British thermal unit.</t>
         </is>
       </c>
     </row>
-    <row r="202" ht="15" customHeight="1" s="95">
+    <row r="202" ht="15" customHeight="1" s="96">
       <c r="B202" s="20" t="inlineStr">
         <is>
           <t>- - = Not applicable.</t>
         </is>
       </c>
     </row>
-    <row r="203" ht="15" customHeight="1" s="95">
+    <row r="203" ht="15" customHeight="1" s="96">
       <c r="B203" s="20" t="inlineStr">
         <is>
           <t>Note:  Includes estimated consumption for petroleum and other liquids.  Totals may not equal sum of components due to independent rounding.</t>
         </is>
       </c>
     </row>
-    <row r="204" ht="15" customHeight="1" s="95">
+    <row r="204" ht="15" customHeight="1" s="96">
       <c r="B204" s="20" t="inlineStr">
         <is>
           <t>Sources:  2020:  U.S. Energy Information Administration (EIA), Short-Term Energy Outlook, October 2020 and EIA, AEO2021</t>
         </is>
       </c>
     </row>
-    <row r="205" ht="12" customHeight="1" s="95">
+    <row r="205" ht="12" customHeight="1" s="96">
       <c r="B205" s="20" t="inlineStr">
         <is>
           <t>National Energy Modeling System run highogs.d120120a.  Projections:  EIA, AEO2021 National Energy Modeling System run highogs.d120120a.</t>
@@ -20390,17 +20390,17 @@
       <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
-    <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
+    <col hidden="1" width="22.5" customWidth="1" style="113" min="1" max="1"/>
+    <col width="49" customWidth="1" style="113" min="2" max="2"/>
+    <col width="9.1796875" customWidth="1" style="113" min="3" max="33"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" style="113" min="34" max="34"/>
+    <col width="9.1796875" customWidth="1" style="113" min="35" max="35"/>
+    <col width="9.1796875" customWidth="1" style="113" min="36" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="1" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="B1" s="6" t="inlineStr">
         <is>
           <t>highogs.d120120a</t>
@@ -20500,8 +20500,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="95" thickTop="1"/>
-    <row r="3" ht="15" customHeight="1" s="95">
+    <row r="2" ht="15" customHeight="1" s="96" thickTop="1"/>
+    <row r="3" ht="15" customHeight="1" s="96">
       <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Report</t>
@@ -20517,7 +20517,7 @@
       <c r="G3" s="9" t="n"/>
       <c r="H3" s="9" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1" s="95">
+    <row r="4" ht="15" customHeight="1" s="96">
       <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Scenario</t>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="H4" s="9" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="95">
+    <row r="5" ht="15" customHeight="1" s="96">
       <c r="C5" s="8" t="inlineStr">
         <is>
           <t>Datekey</t>
@@ -20553,7 +20553,7 @@
       <c r="G5" s="9" t="n"/>
       <c r="H5" s="9" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="95">
+    <row r="6" ht="15" customHeight="1" s="96">
       <c r="C6" s="8" t="inlineStr">
         <is>
           <t>Release Date</t>
@@ -20569,7 +20569,7 @@
       <c r="G6" s="9" t="n"/>
       <c r="H6" s="9" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="95">
+    <row r="7" ht="15" customHeight="1" s="96">
       <c r="C7" s="9" t="n"/>
       <c r="D7" s="9" t="n"/>
       <c r="E7" s="9" t="n"/>
@@ -20577,9 +20577,9 @@
       <c r="G7" s="9" t="n"/>
       <c r="H7" s="9" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="95"/>
-    <row r="9" ht="12" customHeight="1" s="95"/>
-    <row r="10" ht="15" customHeight="1" s="95">
+    <row r="8" ht="12" customHeight="1" s="96"/>
+    <row r="9" ht="12" customHeight="1" s="96"/>
+    <row r="10" ht="15" customHeight="1" s="96">
       <c r="A10" s="10" t="inlineStr">
         <is>
           <t>PRC000</t>
@@ -20596,7 +20596,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="95">
+    <row r="11" ht="15" customHeight="1" s="96">
       <c r="B11" s="6" t="inlineStr">
         <is>
           <t>(2020 dollars per million Btu, unless otherwise noted)</t>
@@ -20608,7 +20608,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="95">
+    <row r="12" ht="15" customHeight="1" s="96">
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="13" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sector and Source</t>
@@ -20752,21 +20752,21 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="95" thickTop="1"/>
-    <row r="15" ht="15" customHeight="1" s="95">
+    <row r="14" ht="15" customHeight="1" s="96" thickTop="1"/>
+    <row r="15" ht="15" customHeight="1" s="96">
       <c r="B15" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Residential</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="95">
+    <row r="16" ht="15" customHeight="1" s="96">
       <c r="A16" s="10" t="inlineStr">
         <is>
           <t>PRC000:ba_LiquefiedPetr</t>
         </is>
       </c>
-      <c r="B16" s="110" t="inlineStr">
+      <c r="B16" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -20868,13 +20868,13 @@
         <v>0.008451</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="95">
+    <row r="17" ht="15" customHeight="1" s="96">
       <c r="A17" s="10" t="inlineStr">
         <is>
           <t>PRC000:ba_DistillateFue</t>
         </is>
       </c>
-      <c r="B17" s="110" t="inlineStr">
+      <c r="B17" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -20976,13 +20976,13 @@
         <v>0.011919</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="95">
+    <row r="18" ht="15" customHeight="1" s="96">
       <c r="A18" s="10" t="inlineStr">
         <is>
           <t>PRC000:ba_NaturalGas</t>
         </is>
       </c>
-      <c r="B18" s="110" t="inlineStr">
+      <c r="B18" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -21084,13 +21084,13 @@
         <v>0.002282</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="95">
+    <row r="19" ht="15" customHeight="1" s="96">
       <c r="A19" s="10" t="inlineStr">
         <is>
           <t>PRC000:ba_Electricity</t>
         </is>
       </c>
-      <c r="B19" s="110" t="inlineStr">
+      <c r="B19" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -21192,20 +21192,20 @@
         <v>-0.002426</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="95">
+    <row r="21" ht="15" customHeight="1" s="96">
       <c r="B21" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commercial</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="95">
+    <row r="22" ht="15" customHeight="1" s="96">
       <c r="A22" s="10" t="inlineStr">
         <is>
           <t>PRC000:ca_LiquefiedGas</t>
         </is>
       </c>
-      <c r="B22" s="110" t="inlineStr">
+      <c r="B22" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -21307,13 +21307,13 @@
         <v>0.011311</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="95">
+    <row r="23" ht="15" customHeight="1" s="96">
       <c r="A23" s="10" t="inlineStr">
         <is>
           <t>PRC000:ca_DistillateFue</t>
         </is>
       </c>
-      <c r="B23" s="110" t="inlineStr">
+      <c r="B23" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -21415,13 +21415,13 @@
         <v>0.005153</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="95">
+    <row r="24" ht="15" customHeight="1" s="96">
       <c r="A24" s="10" t="inlineStr">
         <is>
           <t>PRC000:ca_ResidualFuel</t>
         </is>
       </c>
-      <c r="B24" s="110" t="inlineStr">
+      <c r="B24" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -21523,13 +21523,13 @@
         <v>0.029852</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="95">
+    <row r="25" ht="15" customHeight="1" s="96">
       <c r="A25" s="10" t="inlineStr">
         <is>
           <t>PRC000:ca_NaturalGas</t>
         </is>
       </c>
-      <c r="B25" s="110" t="inlineStr">
+      <c r="B25" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -21631,13 +21631,13 @@
         <v>0.002689</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="95">
+    <row r="26" ht="15" customHeight="1" s="96">
       <c r="A26" s="10" t="inlineStr">
         <is>
           <t>PRC000:ca_Electricity</t>
         </is>
       </c>
-      <c r="B26" s="110" t="inlineStr">
+      <c r="B26" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -21739,20 +21739,20 @@
         <v>-0.005763</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="95">
+    <row r="28" ht="15" customHeight="1" s="96">
       <c r="B28" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Industrial 1/</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="95">
+    <row r="29" ht="15" customHeight="1" s="96">
       <c r="A29" s="10" t="inlineStr">
         <is>
           <t>PRC000:da_LiquefiedPetr</t>
         </is>
       </c>
-      <c r="B29" s="110" t="inlineStr">
+      <c r="B29" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -21854,13 +21854,13 @@
         <v>0.016316</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="95">
+    <row r="30" ht="15" customHeight="1" s="96">
       <c r="A30" s="10" t="inlineStr">
         <is>
           <t>PRC000:da_DistillateFue</t>
         </is>
       </c>
-      <c r="B30" s="110" t="inlineStr">
+      <c r="B30" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -21962,13 +21962,13 @@
         <v>0.004926</v>
       </c>
     </row>
-    <row r="31" ht="14.5" customHeight="1" s="95">
+    <row r="31" ht="14.5" customHeight="1" s="96">
       <c r="A31" s="10" t="inlineStr">
         <is>
           <t>PRC000:da_ResidualFuel</t>
         </is>
       </c>
-      <c r="B31" s="110" t="inlineStr">
+      <c r="B31" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -22070,13 +22070,13 @@
         <v>0.033402</v>
       </c>
     </row>
-    <row r="32" ht="14.5" customHeight="1" s="95">
+    <row r="32" ht="14.5" customHeight="1" s="96">
       <c r="A32" s="10" t="inlineStr">
         <is>
           <t>PRC000:da_NaturalGas</t>
         </is>
       </c>
-      <c r="B32" s="110" t="inlineStr">
+      <c r="B32" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas 2/</t>
         </is>
@@ -22178,13 +22178,13 @@
         <v>0.004137</v>
       </c>
     </row>
-    <row r="33" ht="14.5" customHeight="1" s="95">
+    <row r="33" ht="14.5" customHeight="1" s="96">
       <c r="A33" s="10" t="inlineStr">
         <is>
           <t>PRC000:da_Metallurgical</t>
         </is>
       </c>
-      <c r="B33" s="110" t="inlineStr">
+      <c r="B33" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal</t>
         </is>
@@ -22286,13 +22286,13 @@
         <v>-0.002027</v>
       </c>
     </row>
-    <row r="34" ht="14.5" customHeight="1" s="95">
+    <row r="34" ht="14.5" customHeight="1" s="96">
       <c r="A34" s="10" t="inlineStr">
         <is>
           <t>PRC000:da_SteamCoal</t>
         </is>
       </c>
-      <c r="B34" s="110" t="inlineStr">
+      <c r="B34" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Industrial Coal</t>
         </is>
@@ -22394,13 +22394,13 @@
         <v>0.000995</v>
       </c>
     </row>
-    <row r="35" ht="14.5" customHeight="1" s="95">
+    <row r="35" ht="14.5" customHeight="1" s="96">
       <c r="A35" s="10" t="inlineStr">
         <is>
           <t>PRC000:da_CoaltoLiquids</t>
         </is>
       </c>
-      <c r="B35" s="110" t="inlineStr">
+      <c r="B35" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal to Liquids</t>
         </is>
@@ -22566,13 +22566,13 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="14.5" customHeight="1" s="95">
+    <row r="36" ht="14.5" customHeight="1" s="96">
       <c r="A36" s="10" t="inlineStr">
         <is>
           <t>PRC000:da_Electricity</t>
         </is>
       </c>
-      <c r="B36" s="110" t="inlineStr">
+      <c r="B36" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -22674,21 +22674,21 @@
         <v>-0.006983</v>
       </c>
     </row>
-    <row r="37" ht="12" customHeight="1" s="95"/>
-    <row r="38" ht="12" customHeight="1" s="95">
+    <row r="37" ht="12" customHeight="1" s="96"/>
+    <row r="38" ht="12" customHeight="1" s="96">
       <c r="B38" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Transportation</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="14.5" customHeight="1" s="95">
+    <row r="39" ht="14.5" customHeight="1" s="96">
       <c r="A39" s="10" t="inlineStr">
         <is>
           <t>PRC000:ea_LiquefiedPetr</t>
         </is>
       </c>
-      <c r="B39" s="110" t="inlineStr">
+      <c r="B39" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -22790,13 +22790,13 @@
         <v>0.011308</v>
       </c>
     </row>
-    <row r="40" ht="14.5" customHeight="1" s="95">
+    <row r="40" ht="14.5" customHeight="1" s="96">
       <c r="A40" s="10" t="inlineStr">
         <is>
           <t>PRC000:ea_Ethanol(E85)</t>
         </is>
       </c>
-      <c r="B40" s="110" t="inlineStr">
+      <c r="B40" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   E85 3/</t>
         </is>
@@ -22898,13 +22898,13 @@
         <v>0.009032999999999999</v>
       </c>
     </row>
-    <row r="41" ht="14.5" customHeight="1" s="95">
+    <row r="41" ht="14.5" customHeight="1" s="96">
       <c r="A41" s="10" t="inlineStr">
         <is>
           <t>PRC000:ea_MotorGasoline</t>
         </is>
       </c>
-      <c r="B41" s="110" t="inlineStr">
+      <c r="B41" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline 4/</t>
         </is>
@@ -23006,13 +23006,13 @@
         <v>0.007688</v>
       </c>
     </row>
-    <row r="42" ht="14.5" customHeight="1" s="95">
+    <row r="42" ht="14.5" customHeight="1" s="96">
       <c r="A42" s="10" t="inlineStr">
         <is>
           <t>PRC000:ea_JetFuel</t>
         </is>
       </c>
-      <c r="B42" s="110" t="inlineStr">
+      <c r="B42" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Jet Fuel 5/</t>
         </is>
@@ -23114,13 +23114,13 @@
         <v>0.021433</v>
       </c>
     </row>
-    <row r="43" ht="14.5" customHeight="1" s="95">
+    <row r="43" ht="14.5" customHeight="1" s="96">
       <c r="A43" s="10" t="inlineStr">
         <is>
           <t>PRC000:ea_DistillateFue</t>
         </is>
       </c>
-      <c r="B43" s="110" t="inlineStr">
+      <c r="B43" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Diesel Fuel (distillate fuel oil) 6/</t>
         </is>
@@ -23222,13 +23222,13 @@
         <v>0.009934999999999999</v>
       </c>
     </row>
-    <row r="44" ht="14.5" customHeight="1" s="95">
+    <row r="44" ht="14.5" customHeight="1" s="96">
       <c r="A44" s="10" t="inlineStr">
         <is>
           <t>PRC000:ea_ResidualFuel</t>
         </is>
       </c>
-      <c r="B44" s="110" t="inlineStr">
+      <c r="B44" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -23330,13 +23330,13 @@
         <v>0.014856</v>
       </c>
     </row>
-    <row r="45" ht="14.5" customHeight="1" s="95">
+    <row r="45" ht="14.5" customHeight="1" s="96">
       <c r="A45" s="10" t="inlineStr">
         <is>
           <t>PRC000:ea_NaturalGas</t>
         </is>
       </c>
-      <c r="B45" s="110" t="inlineStr">
+      <c r="B45" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas 7/</t>
         </is>
@@ -23438,13 +23438,13 @@
         <v>-0.008588999999999999</v>
       </c>
     </row>
-    <row r="46" ht="14.5" customHeight="1" s="95">
+    <row r="46" ht="14.5" customHeight="1" s="96">
       <c r="A46" s="10" t="inlineStr">
         <is>
           <t>PRC000:ea_Electricity</t>
         </is>
       </c>
-      <c r="B46" s="110" t="inlineStr">
+      <c r="B46" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -23546,21 +23546,21 @@
         <v>-0.004376</v>
       </c>
     </row>
-    <row r="47" ht="12" customHeight="1" s="95"/>
-    <row r="48" ht="12" customHeight="1" s="95">
+    <row r="47" ht="12" customHeight="1" s="96"/>
+    <row r="48" ht="12" customHeight="1" s="96">
       <c r="B48" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Electric Power 8/</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="14.5" customHeight="1" s="95">
+    <row r="49" ht="14.5" customHeight="1" s="96">
       <c r="A49" s="10" t="inlineStr">
         <is>
           <t>PRC000:ga_DistillateFue</t>
         </is>
       </c>
-      <c r="B49" s="110" t="inlineStr">
+      <c r="B49" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -23662,13 +23662,13 @@
         <v>0.003905</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="95">
+    <row r="50" ht="15" customHeight="1" s="96">
       <c r="A50" s="10" t="inlineStr">
         <is>
           <t>PRC000:ga_ResidualFuel</t>
         </is>
       </c>
-      <c r="B50" s="110" t="inlineStr">
+      <c r="B50" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -23770,13 +23770,13 @@
         <v>0.020075</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="95">
+    <row r="51" ht="15" customHeight="1" s="96">
       <c r="A51" s="10" t="inlineStr">
         <is>
           <t>PRC000:ga_NaturalGas</t>
         </is>
       </c>
-      <c r="B51" s="110" t="inlineStr">
+      <c r="B51" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -23878,13 +23878,13 @@
         <v>0.004783</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" s="95">
+    <row r="52" ht="15" customHeight="1" s="96">
       <c r="A52" s="10" t="inlineStr">
         <is>
           <t>PRC000:ga_SteamCoal</t>
         </is>
       </c>
-      <c r="B52" s="110" t="inlineStr">
+      <c r="B52" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Steam Coal</t>
         </is>
@@ -23986,7 +23986,7 @@
         <v>-0.005326</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" s="95">
+    <row r="53" ht="15" customHeight="1" s="96">
       <c r="A53" s="10" t="inlineStr">
         <is>
           <t>PRC000:ga_uranium</t>
@@ -24094,20 +24094,20 @@
         <v>0.002452</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="95">
+    <row r="56" ht="15" customHeight="1" s="96">
       <c r="B56" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Average Price to All Users 9/</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" s="95">
+    <row r="57" ht="15" customHeight="1" s="96">
       <c r="A57" s="10" t="inlineStr">
         <is>
           <t>PRC000:ha_LiquefiedPetr</t>
         </is>
       </c>
-      <c r="B57" s="110" t="inlineStr">
+      <c r="B57" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -24209,13 +24209,13 @@
         <v>0.008015</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="95">
+    <row r="58" ht="15" customHeight="1" s="96">
       <c r="A58" s="10" t="inlineStr">
         <is>
           <t>PRC000:ha_Ethanol(E85)</t>
         </is>
       </c>
-      <c r="B58" s="110" t="inlineStr">
+      <c r="B58" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   E85 3/</t>
         </is>
@@ -24317,13 +24317,13 @@
         <v>0.009032999999999999</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" s="95">
+    <row r="59" ht="15" customHeight="1" s="96">
       <c r="A59" s="10" t="inlineStr">
         <is>
           <t>PRC000:ha_MotorGasoline</t>
         </is>
       </c>
-      <c r="B59" s="110" t="inlineStr">
+      <c r="B59" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline 4/</t>
         </is>
@@ -24425,13 +24425,13 @@
         <v>0.007722</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" s="95">
+    <row r="60" ht="15" customHeight="1" s="96">
       <c r="A60" s="10" t="inlineStr">
         <is>
           <t>PRC000:ha_JetFuel</t>
         </is>
       </c>
-      <c r="B60" s="110" t="inlineStr">
+      <c r="B60" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Jet Fuel 5/</t>
         </is>
@@ -24533,13 +24533,13 @@
         <v>0.021433</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" s="95">
+    <row r="61" ht="15" customHeight="1" s="96">
       <c r="A61" s="10" t="inlineStr">
         <is>
           <t>PRC000:ha_DistillateFue</t>
         </is>
       </c>
-      <c r="B61" s="110" t="inlineStr">
+      <c r="B61" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -24641,13 +24641,13 @@
         <v>0.008529</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" s="95">
+    <row r="62" ht="15" customHeight="1" s="96">
       <c r="A62" s="10" t="inlineStr">
         <is>
           <t>PRC000:ha_ResidualFuel</t>
         </is>
       </c>
-      <c r="B62" s="110" t="inlineStr">
+      <c r="B62" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -24749,13 +24749,13 @@
         <v>0.016289</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" s="95">
+    <row r="63" ht="15" customHeight="1" s="96">
       <c r="A63" s="10" t="inlineStr">
         <is>
           <t>PRC000:ha_NaturalGas</t>
         </is>
       </c>
-      <c r="B63" s="110" t="inlineStr">
+      <c r="B63" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -24857,13 +24857,13 @@
         <v>0.000692</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" s="95">
+    <row r="64" ht="15" customHeight="1" s="96">
       <c r="A64" s="10" t="inlineStr">
         <is>
           <t>PRC000:ha_Metallugical</t>
         </is>
       </c>
-      <c r="B64" s="110" t="inlineStr">
+      <c r="B64" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal</t>
         </is>
@@ -24965,13 +24965,13 @@
         <v>-0.002027</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="95">
+    <row r="65" ht="15" customHeight="1" s="96">
       <c r="A65" s="10" t="inlineStr">
         <is>
           <t>PRC000:ha_Coal</t>
         </is>
       </c>
-      <c r="B65" s="110" t="inlineStr">
+      <c r="B65" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Coal</t>
         </is>
@@ -25073,13 +25073,13 @@
         <v>-0.003205</v>
       </c>
     </row>
-    <row r="66" ht="14.5" customHeight="1" s="95">
+    <row r="66" ht="14.5" customHeight="1" s="96">
       <c r="A66" s="10" t="inlineStr">
         <is>
           <t>PRC000:ha_CoaltoLiquids</t>
         </is>
       </c>
-      <c r="B66" s="110" t="inlineStr">
+      <c r="B66" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal to Liquids</t>
         </is>
@@ -25245,13 +25245,13 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" s="95">
+    <row r="67" ht="15" customHeight="1" s="96">
       <c r="A67" s="10" t="inlineStr">
         <is>
           <t>PRC000:ha_Electricity</t>
         </is>
       </c>
-      <c r="B67" s="110" t="inlineStr">
+      <c r="B67" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -25353,27 +25353,27 @@
         <v>-0.004564</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" s="95">
+    <row r="69" ht="15" customHeight="1" s="96">
       <c r="B69" s="15" t="inlineStr">
         <is>
           <t>Non-Renewable Energy Expenditures by Sector</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" s="95">
+    <row r="70" ht="15" customHeight="1" s="96">
       <c r="B70" s="15" t="inlineStr">
         <is>
           <t>(billion 2020 dollars)</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="95">
+    <row r="71" ht="15" customHeight="1" s="96">
       <c r="A71" s="10" t="inlineStr">
         <is>
           <t>PRC000:ia_Residential</t>
         </is>
       </c>
-      <c r="B71" s="110" t="inlineStr">
+      <c r="B71" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> Residential</t>
         </is>
@@ -25475,13 +25475,13 @@
         <v>0.00396</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" s="95">
+    <row r="72" ht="15" customHeight="1" s="96">
       <c r="A72" s="10" t="inlineStr">
         <is>
           <t>PRC000:ia_Commercial</t>
         </is>
       </c>
-      <c r="B72" s="110" t="inlineStr">
+      <c r="B72" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commercial</t>
         </is>
@@ -25583,13 +25583,13 @@
         <v>0.00465</v>
       </c>
     </row>
-    <row r="73" ht="14.5" customHeight="1" s="95">
+    <row r="73" ht="14.5" customHeight="1" s="96">
       <c r="A73" s="10" t="inlineStr">
         <is>
           <t>PRC000:ia_Industrial</t>
         </is>
       </c>
-      <c r="B73" s="110" t="inlineStr">
+      <c r="B73" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> Industrial 1/</t>
         </is>
@@ -25691,13 +25691,13 @@
         <v>0.018423</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1" s="95">
+    <row r="74" ht="15" customHeight="1" s="96">
       <c r="A74" s="10" t="inlineStr">
         <is>
           <t>PRC000:ia_Transportatio</t>
         </is>
       </c>
-      <c r="B74" s="110" t="inlineStr">
+      <c r="B74" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> Transportation</t>
         </is>
@@ -25799,13 +25799,13 @@
         <v>0.013216</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" s="95">
+    <row r="75" ht="15" customHeight="1" s="96">
       <c r="A75" s="10" t="inlineStr">
         <is>
           <t>PRC000:ia_TotalNon-Rene</t>
         </is>
       </c>
-      <c r="B75" s="110" t="inlineStr">
+      <c r="B75" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Total Non-Renewable Expenditures</t>
         </is>
@@ -25907,13 +25907,13 @@
         <v>0.010611</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" s="95">
+    <row r="76" ht="15" customHeight="1" s="96">
       <c r="A76" s="10" t="inlineStr">
         <is>
           <t>PRC000:ja_Transportatio</t>
         </is>
       </c>
-      <c r="B76" s="110" t="inlineStr">
+      <c r="B76" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> Transportation Renewable Expenditures</t>
         </is>
@@ -26015,7 +26015,7 @@
         <v>0.011518</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" s="95">
+    <row r="77" ht="15" customHeight="1" s="96">
       <c r="A77" s="10" t="inlineStr">
         <is>
           <t>PRC000:ja_TotalExpendit</t>
@@ -26123,28 +26123,28 @@
         <v>0.010612</v>
       </c>
     </row>
-    <row r="79" ht="12" customHeight="1" s="95"/>
-    <row r="80" ht="15" customHeight="1" s="95">
+    <row r="79" ht="12" customHeight="1" s="96"/>
+    <row r="80" ht="15" customHeight="1" s="96">
       <c r="B80" s="15" t="inlineStr">
         <is>
           <t>Prices in Nominal Dollars</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="12" customHeight="1" s="95">
+    <row r="81" ht="12" customHeight="1" s="96">
       <c r="B81" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Residential</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1" s="95">
+    <row r="82" ht="15" customHeight="1" s="96">
       <c r="A82" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_R_LiquefiedP</t>
         </is>
       </c>
-      <c r="B82" s="110" t="inlineStr">
+      <c r="B82" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -26246,13 +26246,13 @@
         <v>0.032972</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1" s="95">
+    <row r="83" ht="15" customHeight="1" s="96">
       <c r="A83" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_R_Distillate</t>
         </is>
       </c>
-      <c r="B83" s="110" t="inlineStr">
+      <c r="B83" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -26354,13 +26354,13 @@
         <v>0.036524</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" s="95">
+    <row r="84" ht="15" customHeight="1" s="96">
       <c r="A84" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_R_NaturalGas</t>
         </is>
       </c>
-      <c r="B84" s="110" t="inlineStr">
+      <c r="B84" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -26462,13 +26462,13 @@
         <v>0.026653</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" s="95">
+    <row r="85" ht="15" customHeight="1" s="96">
       <c r="A85" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_R_Electricit</t>
         </is>
       </c>
-      <c r="B85" s="110" t="inlineStr">
+      <c r="B85" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -26570,20 +26570,20 @@
         <v>0.02183</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1" s="95">
+    <row r="87" ht="15" customHeight="1" s="96">
       <c r="B87" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commercial</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1" s="95">
+    <row r="88" ht="15" customHeight="1" s="96">
       <c r="A88" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_C_LiquefiedG</t>
         </is>
       </c>
-      <c r="B88" s="110" t="inlineStr">
+      <c r="B88" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -26685,13 +26685,13 @@
         <v>0.035901</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1" s="95">
+    <row r="89" ht="15" customHeight="1" s="96">
       <c r="A89" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_C_Distillate</t>
         </is>
       </c>
-      <c r="B89" s="110" t="inlineStr">
+      <c r="B89" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -26793,13 +26793,13 @@
         <v>0.029594</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1" s="95">
+    <row r="90" ht="15" customHeight="1" s="96">
       <c r="A90" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_C_ResidualFu</t>
         </is>
       </c>
-      <c r="B90" s="110" t="inlineStr">
+      <c r="B90" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -26901,13 +26901,13 @@
         <v>0.054893</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1" s="95">
+    <row r="91" ht="15" customHeight="1" s="96">
       <c r="A91" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_C_NaturalGas</t>
         </is>
       </c>
-      <c r="B91" s="110" t="inlineStr">
+      <c r="B91" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -27009,13 +27009,13 @@
         <v>0.02707</v>
       </c>
     </row>
-    <row r="92" ht="14.5" customHeight="1" s="95">
+    <row r="92" ht="14.5" customHeight="1" s="96">
       <c r="A92" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_C_Electricit</t>
         </is>
       </c>
-      <c r="B92" s="110" t="inlineStr">
+      <c r="B92" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -27117,20 +27117,20 @@
         <v>0.018412</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1" s="95">
+    <row r="94" ht="15" customHeight="1" s="96">
       <c r="B94" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Industrial 1/</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1" s="95">
+    <row r="95" ht="15" customHeight="1" s="96">
       <c r="A95" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_I_LiquefiedP</t>
         </is>
       </c>
-      <c r="B95" s="110" t="inlineStr">
+      <c r="B95" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -27232,13 +27232,13 @@
         <v>0.041029</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1" s="95">
+    <row r="96" ht="15" customHeight="1" s="96">
       <c r="A96" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_I_Distillate</t>
         </is>
       </c>
-      <c r="B96" s="110" t="inlineStr">
+      <c r="B96" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -27340,13 +27340,13 @@
         <v>0.029361</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1" s="95">
+    <row r="97" ht="15" customHeight="1" s="96">
       <c r="A97" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_I_ResidualFu</t>
         </is>
       </c>
-      <c r="B97" s="110" t="inlineStr">
+      <c r="B97" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -27448,13 +27448,13 @@
         <v>0.05853</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1" s="95">
+    <row r="98" ht="15" customHeight="1" s="96">
       <c r="A98" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_I_NaturalGas</t>
         </is>
       </c>
-      <c r="B98" s="110" t="inlineStr">
+      <c r="B98" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas 2/</t>
         </is>
@@ -27556,13 +27556,13 @@
         <v>0.028554</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1" s="95">
+    <row r="99" ht="15" customHeight="1" s="96">
       <c r="A99" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_I_Metallurgi</t>
         </is>
       </c>
-      <c r="B99" s="110" t="inlineStr">
+      <c r="B99" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal</t>
         </is>
@@ -27664,13 +27664,13 @@
         <v>0.02224</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1" s="95">
+    <row r="100" ht="15" customHeight="1" s="96">
       <c r="A100" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_I_SteamCoal</t>
         </is>
       </c>
-      <c r="B100" s="110" t="inlineStr">
+      <c r="B100" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Industrial Coal</t>
         </is>
@@ -27772,13 +27772,13 @@
         <v>0.025335</v>
       </c>
     </row>
-    <row r="101" ht="14.5" customHeight="1" s="95">
+    <row r="101" ht="14.5" customHeight="1" s="96">
       <c r="A101" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_I_CoaltoLiqu</t>
         </is>
       </c>
-      <c r="B101" s="110" t="inlineStr">
+      <c r="B101" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal to Liquids</t>
         </is>
@@ -27944,13 +27944,13 @@
         </is>
       </c>
     </row>
-    <row r="102" ht="14.5" customHeight="1" s="95">
+    <row r="102" ht="14.5" customHeight="1" s="96">
       <c r="A102" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_I_Electricit</t>
         </is>
       </c>
-      <c r="B102" s="110" t="inlineStr">
+      <c r="B102" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -28052,20 +28052,20 @@
         <v>0.017163</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1" s="95">
+    <row r="105" ht="15" customHeight="1" s="96">
       <c r="B105" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Transportation</t>
         </is>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1" s="95">
+    <row r="106" ht="15" customHeight="1" s="96">
       <c r="A106" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_T_LiquefiedP</t>
         </is>
       </c>
-      <c r="B106" s="110" t="inlineStr">
+      <c r="B106" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -28167,13 +28167,13 @@
         <v>0.035899</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1" s="95">
+    <row r="107" ht="15" customHeight="1" s="96">
       <c r="A107" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_T_Ethan(E85)</t>
         </is>
       </c>
-      <c r="B107" s="110" t="inlineStr">
+      <c r="B107" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   E85 3/</t>
         </is>
@@ -28275,13 +28275,13 @@
         <v>0.033568</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1" s="95">
+    <row r="108" ht="15" customHeight="1" s="96">
       <c r="A108" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_T_MotorGasol</t>
         </is>
       </c>
-      <c r="B108" s="110" t="inlineStr">
+      <c r="B108" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline 4/</t>
         </is>
@@ -28383,13 +28383,13 @@
         <v>0.032191</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1" s="95">
+    <row r="109" ht="15" customHeight="1" s="96">
       <c r="A109" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_T_JetFuel</t>
         </is>
       </c>
-      <c r="B109" s="110" t="inlineStr">
+      <c r="B109" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Jet Fuel 5/</t>
         </is>
@@ -28491,13 +28491,13 @@
         <v>0.04627</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1" s="95">
+    <row r="110" ht="15" customHeight="1" s="96">
       <c r="A110" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_T_Distillate</t>
         </is>
       </c>
-      <c r="B110" s="110" t="inlineStr">
+      <c r="B110" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Diesel Fuel (distillate fuel oil) 6/</t>
         </is>
@@ -28599,13 +28599,13 @@
         <v>0.034492</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1" s="95">
+    <row r="111" ht="15" customHeight="1" s="96">
       <c r="A111" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_T_ResidualFu</t>
         </is>
       </c>
-      <c r="B111" s="110" t="inlineStr">
+      <c r="B111" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -28707,57 +28707,57 @@
         <v>0.039533</v>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1" s="95">
+    <row r="112" ht="15" customHeight="1" s="96">
       <c r="A112" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_T_NaturalGas</t>
         </is>
       </c>
-      <c r="B112" s="110" t="inlineStr">
+      <c r="B112" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas 7/</t>
         </is>
       </c>
-      <c r="C112" s="111" t="n"/>
-      <c r="D112" s="111" t="n"/>
-      <c r="E112" s="111" t="n"/>
-      <c r="F112" s="111" t="n"/>
-      <c r="G112" s="111" t="n"/>
-      <c r="H112" s="111" t="n"/>
-      <c r="I112" s="111" t="n"/>
-      <c r="J112" s="111" t="n"/>
-      <c r="K112" s="111" t="n"/>
-      <c r="L112" s="111" t="n"/>
-      <c r="M112" s="111" t="n"/>
-      <c r="N112" s="111" t="n"/>
-      <c r="O112" s="111" t="n"/>
-      <c r="P112" s="111" t="n"/>
-      <c r="Q112" s="111" t="n"/>
-      <c r="R112" s="111" t="n"/>
-      <c r="S112" s="111" t="n"/>
-      <c r="T112" s="111" t="n"/>
-      <c r="U112" s="111" t="n"/>
-      <c r="V112" s="111" t="n"/>
-      <c r="W112" s="111" t="n"/>
-      <c r="X112" s="111" t="n"/>
-      <c r="Y112" s="111" t="n"/>
-      <c r="Z112" s="111" t="n"/>
-      <c r="AA112" s="111" t="n"/>
-      <c r="AB112" s="111" t="n"/>
-      <c r="AC112" s="111" t="n"/>
-      <c r="AD112" s="111" t="n"/>
-      <c r="AE112" s="111" t="n"/>
-      <c r="AF112" s="111" t="n"/>
-      <c r="AG112" s="111" t="n"/>
-      <c r="AH112" s="111" t="n"/>
-    </row>
-    <row r="113" ht="15" customHeight="1" s="95">
+      <c r="C112" s="112" t="n"/>
+      <c r="D112" s="112" t="n"/>
+      <c r="E112" s="112" t="n"/>
+      <c r="F112" s="112" t="n"/>
+      <c r="G112" s="112" t="n"/>
+      <c r="H112" s="112" t="n"/>
+      <c r="I112" s="112" t="n"/>
+      <c r="J112" s="112" t="n"/>
+      <c r="K112" s="112" t="n"/>
+      <c r="L112" s="112" t="n"/>
+      <c r="M112" s="112" t="n"/>
+      <c r="N112" s="112" t="n"/>
+      <c r="O112" s="112" t="n"/>
+      <c r="P112" s="112" t="n"/>
+      <c r="Q112" s="112" t="n"/>
+      <c r="R112" s="112" t="n"/>
+      <c r="S112" s="112" t="n"/>
+      <c r="T112" s="112" t="n"/>
+      <c r="U112" s="112" t="n"/>
+      <c r="V112" s="112" t="n"/>
+      <c r="W112" s="112" t="n"/>
+      <c r="X112" s="112" t="n"/>
+      <c r="Y112" s="112" t="n"/>
+      <c r="Z112" s="112" t="n"/>
+      <c r="AA112" s="112" t="n"/>
+      <c r="AB112" s="112" t="n"/>
+      <c r="AC112" s="112" t="n"/>
+      <c r="AD112" s="112" t="n"/>
+      <c r="AE112" s="112" t="n"/>
+      <c r="AF112" s="112" t="n"/>
+      <c r="AG112" s="112" t="n"/>
+      <c r="AH112" s="112" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="96">
       <c r="A113" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_T_Electricit</t>
         </is>
       </c>
-      <c r="B113" s="110" t="inlineStr">
+      <c r="B113" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -28859,20 +28859,20 @@
         <v>0.019834</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1" s="95">
+    <row r="115" ht="15" customHeight="1" s="96">
       <c r="B115" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Electric Power 8/</t>
         </is>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1" s="95">
+    <row r="116" ht="15" customHeight="1" s="96">
       <c r="A116" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_E_Distillate</t>
         </is>
       </c>
-      <c r="B116" s="110" t="inlineStr">
+      <c r="B116" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -28974,13 +28974,13 @@
         <v>0.028315</v>
       </c>
     </row>
-    <row r="117" ht="15" customHeight="1" s="95">
+    <row r="117" ht="15" customHeight="1" s="96">
       <c r="A117" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_E_ResidualFu</t>
         </is>
       </c>
-      <c r="B117" s="110" t="inlineStr">
+      <c r="B117" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -29082,13 +29082,13 @@
         <v>0.044878</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1" s="95">
+    <row r="118" ht="15" customHeight="1" s="96">
       <c r="A118" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_E_NaturalGas</t>
         </is>
       </c>
-      <c r="B118" s="110" t="inlineStr">
+      <c r="B118" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -29190,13 +29190,13 @@
         <v>0.029215</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1" s="95">
+    <row r="119" ht="15" customHeight="1" s="96">
       <c r="A119" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_E_SteamCoal</t>
         </is>
       </c>
-      <c r="B119" s="110" t="inlineStr">
+      <c r="B119" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Steam Coal</t>
         </is>
@@ -29298,13 +29298,13 @@
         <v>0.01886</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1" s="95">
+    <row r="120" ht="15" customHeight="1" s="96">
       <c r="A120" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_E_uranium</t>
         </is>
       </c>
-      <c r="B120" s="110" t="inlineStr">
+      <c r="B120" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Uranium</t>
         </is>
@@ -29406,20 +29406,20 @@
         <v>0.026828</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1" s="95">
+    <row r="122" ht="15" customHeight="1" s="96">
       <c r="B122" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Average Price to All Users 9/</t>
         </is>
       </c>
     </row>
-    <row r="123" ht="15" customHeight="1" s="95">
+    <row r="123" ht="15" customHeight="1" s="96">
       <c r="A123" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Avg_Liquefie</t>
         </is>
       </c>
-      <c r="B123" s="110" t="inlineStr">
+      <c r="B123" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -29521,13 +29521,13 @@
         <v>0.032526</v>
       </c>
     </row>
-    <row r="124" ht="15" customHeight="1" s="95">
+    <row r="124" ht="15" customHeight="1" s="96">
       <c r="A124" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Avg_E85_E85</t>
         </is>
       </c>
-      <c r="B124" s="110" t="inlineStr">
+      <c r="B124" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   E85 3/</t>
         </is>
@@ -29629,13 +29629,13 @@
         <v>0.033568</v>
       </c>
     </row>
-    <row r="125" ht="15" customHeight="1" s="95">
+    <row r="125" ht="15" customHeight="1" s="96">
       <c r="A125" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Avg_MotorGas</t>
         </is>
       </c>
-      <c r="B125" s="110" t="inlineStr">
+      <c r="B125" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline 4/</t>
         </is>
@@ -29737,13 +29737,13 @@
         <v>0.032225</v>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1" s="95">
+    <row r="126" ht="15" customHeight="1" s="96">
       <c r="A126" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Avg_JetFuel</t>
         </is>
       </c>
-      <c r="B126" s="110" t="inlineStr">
+      <c r="B126" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Jet Fuel 5/</t>
         </is>
@@ -29845,13 +29845,13 @@
         <v>0.04627</v>
       </c>
     </row>
-    <row r="127" ht="15" customHeight="1" s="95">
+    <row r="127" ht="15" customHeight="1" s="96">
       <c r="A127" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Avg_Distilla</t>
         </is>
       </c>
-      <c r="B127" s="110" t="inlineStr">
+      <c r="B127" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -29953,13 +29953,13 @@
         <v>0.033052</v>
       </c>
     </row>
-    <row r="128" ht="15" customHeight="1" s="95">
+    <row r="128" ht="15" customHeight="1" s="96">
       <c r="A128" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Avg_Residual</t>
         </is>
       </c>
-      <c r="B128" s="110" t="inlineStr">
+      <c r="B128" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -30061,13 +30061,13 @@
         <v>0.041001</v>
       </c>
     </row>
-    <row r="129" ht="15" customHeight="1" s="95">
+    <row r="129" ht="15" customHeight="1" s="96">
       <c r="A129" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Avg_NaturalG</t>
         </is>
       </c>
-      <c r="B129" s="110" t="inlineStr">
+      <c r="B129" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas</t>
         </is>
@@ -30169,13 +30169,13 @@
         <v>0.025025</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1" s="95">
+    <row r="130" ht="15" customHeight="1" s="96">
       <c r="A130" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Avg_Metallug</t>
         </is>
       </c>
-      <c r="B130" s="110" t="inlineStr">
+      <c r="B130" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal</t>
         </is>
@@ -30277,13 +30277,13 @@
         <v>0.02224</v>
       </c>
     </row>
-    <row r="131" ht="15" customHeight="1" s="95">
+    <row r="131" ht="15" customHeight="1" s="96">
       <c r="A131" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Avg_Coal</t>
         </is>
       </c>
-      <c r="B131" s="110" t="inlineStr">
+      <c r="B131" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Coal</t>
         </is>
@@ -30385,13 +30385,13 @@
         <v>0.021033</v>
       </c>
     </row>
-    <row r="132" ht="15" customHeight="1" s="95">
+    <row r="132" ht="15" customHeight="1" s="96">
       <c r="A132" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Avg_CoaltoLi</t>
         </is>
       </c>
-      <c r="B132" s="110" t="inlineStr">
+      <c r="B132" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal to Liquids</t>
         </is>
@@ -30557,13 +30557,13 @@
         </is>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1" s="95">
+    <row r="133" ht="15" customHeight="1" s="96">
       <c r="A133" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Avg_Electric</t>
         </is>
       </c>
-      <c r="B133" s="110" t="inlineStr">
+      <c r="B133" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -30665,27 +30665,27 @@
         <v>0.01964</v>
       </c>
     </row>
-    <row r="135" ht="15" customHeight="1" s="95">
+    <row r="135" ht="15" customHeight="1" s="96">
       <c r="B135" s="15" t="inlineStr">
         <is>
           <t>Non-Renewable Energy Expenditures by Sector</t>
         </is>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1" s="95">
+    <row r="136" ht="15" customHeight="1" s="96">
       <c r="B136" s="15" t="inlineStr">
         <is>
           <t>(billion nominal dollars)</t>
         </is>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1" s="95">
+    <row r="137" ht="15" customHeight="1" s="96">
       <c r="A137" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Residential</t>
         </is>
       </c>
-      <c r="B137" s="110" t="inlineStr">
+      <c r="B137" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> Residential</t>
         </is>
@@ -30787,13 +30787,13 @@
         <v>0.028372</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1" s="95">
+    <row r="138" ht="15" customHeight="1" s="96">
       <c r="A138" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Commercial</t>
         </is>
       </c>
-      <c r="B138" s="110" t="inlineStr">
+      <c r="B138" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commercial</t>
         </is>
@@ -30895,13 +30895,13 @@
         <v>0.029078</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1" s="95">
+    <row r="139" ht="15" customHeight="1" s="96">
       <c r="A139" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_Industrial</t>
         </is>
       </c>
-      <c r="B139" s="110" t="inlineStr">
+      <c r="B139" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> Industrial 1/</t>
         </is>
@@ -31003,13 +31003,13 @@
         <v>0.043186</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1" s="95">
+    <row r="140" ht="15" customHeight="1" s="96">
       <c r="A140" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_TransNonRenw</t>
         </is>
       </c>
-      <c r="B140" s="110" t="inlineStr">
+      <c r="B140" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> Transportation</t>
         </is>
@@ -31111,13 +31111,13 @@
         <v>0.037853</v>
       </c>
     </row>
-    <row r="141" ht="14.5" customHeight="1" s="95">
+    <row r="141" ht="14.5" customHeight="1" s="96">
       <c r="A141" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_TotalNon-Ren</t>
         </is>
       </c>
-      <c r="B141" s="110" t="inlineStr">
+      <c r="B141" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Total Non-Renewable Expenditures</t>
         </is>
@@ -31219,13 +31219,13 @@
         <v>0.035185</v>
       </c>
     </row>
-    <row r="142" ht="14.5" customHeight="1" s="95">
+    <row r="142" ht="14.5" customHeight="1" s="96">
       <c r="A142" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_TransRenewEx</t>
         </is>
       </c>
-      <c r="B142" s="110" t="inlineStr">
+      <c r="B142" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> Transportation Renewable Expenditures</t>
         </is>
@@ -31327,7 +31327,7 @@
         <v>0.036114</v>
       </c>
     </row>
-    <row r="143" ht="12" customHeight="1" s="95">
+    <row r="143" ht="12" customHeight="1" s="96">
       <c r="A143" s="10" t="inlineStr">
         <is>
           <t>PRC000:nom_TotalExpendi</t>
@@ -31435,208 +31435,220 @@
         <v>0.035185</v>
       </c>
     </row>
-    <row r="144" ht="12" customHeight="1" s="95"/>
-    <row r="145" ht="12.5" customHeight="1" s="95" thickBot="1"/>
-    <row r="146" ht="12" customHeight="1" s="95">
-      <c r="B146" s="108" t="inlineStr">
+    <row r="144" ht="12" customHeight="1" s="96"/>
+    <row r="145" ht="12.5" customHeight="1" s="96" thickBot="1"/>
+    <row r="146" ht="12" customHeight="1" s="96">
+      <c r="B146" s="109" t="inlineStr">
         <is>
           <t>1/ Includes energy for combined heat and power plants that have a non-regulatory status, and small on-site generating systems.</t>
         </is>
       </c>
-      <c r="C146" s="109" t="n"/>
-      <c r="D146" s="109" t="n"/>
-      <c r="E146" s="109" t="n"/>
-      <c r="F146" s="109" t="n"/>
-      <c r="G146" s="109" t="n"/>
-      <c r="H146" s="109" t="n"/>
-      <c r="I146" s="109" t="n"/>
-      <c r="J146" s="109" t="n"/>
-      <c r="K146" s="109" t="n"/>
-      <c r="L146" s="109" t="n"/>
-      <c r="M146" s="109" t="n"/>
-      <c r="N146" s="109" t="n"/>
-      <c r="O146" s="109" t="n"/>
-      <c r="P146" s="109" t="n"/>
-      <c r="Q146" s="109" t="n"/>
-      <c r="R146" s="109" t="n"/>
-      <c r="S146" s="109" t="n"/>
-      <c r="T146" s="109" t="n"/>
-      <c r="U146" s="109" t="n"/>
-      <c r="V146" s="109" t="n"/>
-      <c r="W146" s="109" t="n"/>
-      <c r="X146" s="109" t="n"/>
-      <c r="Y146" s="109" t="n"/>
-      <c r="Z146" s="109" t="n"/>
-      <c r="AA146" s="109" t="n"/>
-      <c r="AB146" s="109" t="n"/>
-      <c r="AC146" s="109" t="n"/>
-      <c r="AD146" s="109" t="n"/>
-      <c r="AE146" s="109" t="n"/>
-      <c r="AF146" s="109" t="n"/>
-      <c r="AG146" s="109" t="n"/>
+      <c r="C146" s="110" t="n"/>
+      <c r="D146" s="110" t="n"/>
+      <c r="E146" s="110" t="n"/>
+      <c r="F146" s="110" t="n"/>
+      <c r="G146" s="110" t="n"/>
+      <c r="H146" s="110" t="n"/>
+      <c r="I146" s="110" t="n"/>
+      <c r="J146" s="110" t="n"/>
+      <c r="K146" s="110" t="n"/>
+      <c r="L146" s="110" t="n"/>
+      <c r="M146" s="110" t="n"/>
+      <c r="N146" s="110" t="n"/>
+      <c r="O146" s="110" t="n"/>
+      <c r="P146" s="110" t="n"/>
+      <c r="Q146" s="110" t="n"/>
+      <c r="R146" s="110" t="n"/>
+      <c r="S146" s="110" t="n"/>
+      <c r="T146" s="110" t="n"/>
+      <c r="U146" s="110" t="n"/>
+      <c r="V146" s="110" t="n"/>
+      <c r="W146" s="110" t="n"/>
+      <c r="X146" s="110" t="n"/>
+      <c r="Y146" s="110" t="n"/>
+      <c r="Z146" s="110" t="n"/>
+      <c r="AA146" s="110" t="n"/>
+      <c r="AB146" s="110" t="n"/>
+      <c r="AC146" s="110" t="n"/>
+      <c r="AD146" s="110" t="n"/>
+      <c r="AE146" s="110" t="n"/>
+      <c r="AF146" s="110" t="n"/>
+      <c r="AG146" s="110" t="n"/>
       <c r="AH146" s="89" t="n"/>
     </row>
-    <row r="147" ht="12" customHeight="1" s="95">
+    <row r="147" ht="12" customHeight="1" s="96">
       <c r="B147" s="20" t="inlineStr">
         <is>
           <t>2/ Excludes use for lease and plant fuel and fuel used for liquefaction in export facilities.</t>
         </is>
       </c>
     </row>
-    <row r="148" ht="12" customHeight="1" s="95">
+    <row r="148" ht="12" customHeight="1" s="96">
       <c r="B148" s="20" t="inlineStr">
         <is>
           <t>3/ E85 refers to a blend of 85 percent ethanol (renewable) and 15 percent motor gasoline (nonrenewable).  To address cold starting issues,</t>
         </is>
       </c>
     </row>
-    <row r="149" ht="12" customHeight="1" s="95">
+    <row r="149" ht="12" customHeight="1" s="96">
       <c r="B149" s="20" t="inlineStr">
         <is>
           <t>the percentage of ethanol varies seasonally.  The annual average ethanol content of 74 percent is used for these projections.</t>
         </is>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1" s="95">
+    <row r="150" ht="15" customHeight="1" s="96">
       <c r="B150" s="20" t="inlineStr">
         <is>
           <t>4/ Sales weighted-average price for all grades.  Includes Federal, State, and local taxes.</t>
         </is>
       </c>
     </row>
-    <row r="151" ht="15" customHeight="1" s="95">
+    <row r="151" ht="15" customHeight="1" s="96">
       <c r="B151" s="20" t="inlineStr">
         <is>
           <t>5/ Kerosene-type jet fuel.  Includes Federal and State taxes while excluding county and local taxes.</t>
         </is>
       </c>
     </row>
-    <row r="152" ht="15" customHeight="1" s="95">
+    <row r="152" ht="15" customHeight="1" s="96">
       <c r="B152" s="20" t="inlineStr">
         <is>
           <t>6/ Diesel fuel for on-road use.  Includes Federal and State taxes while excluding county and local taxes.</t>
         </is>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1" s="95">
+    <row r="153" ht="15" customHeight="1" s="96">
       <c r="B153" s="20" t="inlineStr">
         <is>
           <t>7/ Natural gas used as fuel in motor vehicles, trains, and ships.  Price includes estimated motor vehicle fuel taxes</t>
         </is>
       </c>
     </row>
-    <row r="154" ht="15" customHeight="1" s="95">
+    <row r="154" ht="15" customHeight="1" s="96">
       <c r="B154" s="20" t="inlineStr">
         <is>
           <t>and estimated dispensing costs or charges.</t>
         </is>
       </c>
     </row>
-    <row r="155" ht="15" customHeight="1" s="95">
+    <row r="155" ht="15" customHeight="1" s="96">
       <c r="B155" s="20" t="inlineStr">
         <is>
           <t>8/ Includes electricity-only and combined heat and power plants that have a regulatory status.</t>
         </is>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1" s="95">
+    <row r="156" ht="15" customHeight="1" s="96">
       <c r="B156" s="20" t="inlineStr">
         <is>
           <t>9/ Weighted averages of end-use fuel prices are derived from the prices shown in each sector and the corresponding sectoral consumption.</t>
         </is>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1" s="95">
+    <row r="157" ht="15" customHeight="1" s="96">
       <c r="B157" s="20" t="inlineStr">
         <is>
           <t>Btu = British thermal unit.</t>
         </is>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1" s="95">
+    <row r="158" ht="15" customHeight="1" s="96">
       <c r="B158" s="20" t="inlineStr">
         <is>
           <t>- - = Not applicable.</t>
         </is>
       </c>
     </row>
-    <row r="159" ht="15" customHeight="1" s="95">
+    <row r="159" ht="15" customHeight="1" s="96">
       <c r="B159" s="20" t="inlineStr">
         <is>
           <t>Sources:  2020:  U.S. Energy Information Administration (EIA), Short-Term Energy Outlook, October 2020 and EIA, AEO2021</t>
         </is>
       </c>
     </row>
-    <row r="160" ht="15" customHeight="1" s="95">
+    <row r="160" ht="15" customHeight="1" s="96">
       <c r="B160" s="20" t="inlineStr">
         <is>
           <t>National Energy Modeling System run highogs.d120120a.  Projections:  EIA, AEO2021 National Energy Modeling System run highogs.d120120a.</t>
         </is>
       </c>
     </row>
-    <row r="165" ht="12" customHeight="1" s="95"/>
-    <row r="180" ht="12" customHeight="1" s="95"/>
-    <row r="205" ht="12" customHeight="1" s="95"/>
-    <row r="206" ht="12" customHeight="1" s="95"/>
-    <row r="308" ht="15" customHeight="1" s="95">
-      <c r="B308" s="112" t="n"/>
-    </row>
-    <row r="511" ht="15" customHeight="1" s="95">
-      <c r="B511" s="112" t="n"/>
-    </row>
-    <row r="712" ht="15" customHeight="1" s="95">
-      <c r="B712" s="112" t="n"/>
-    </row>
-    <row r="887" ht="15" customHeight="1" s="95">
-      <c r="B887" s="112" t="n"/>
-    </row>
-    <row r="1100" ht="15" customHeight="1" s="95">
-      <c r="B1100" s="112" t="n"/>
-    </row>
-    <row r="1227" ht="15" customHeight="1" s="95">
-      <c r="B1227" s="112" t="n"/>
-    </row>
-    <row r="1390" ht="15" customHeight="1" s="95">
-      <c r="B1390" s="112" t="n"/>
-    </row>
-    <row r="1502" ht="15" customHeight="1" s="95">
-      <c r="B1502" s="112" t="n"/>
-    </row>
-    <row r="1604" ht="15" customHeight="1" s="95">
-      <c r="B1604" s="112" t="n"/>
-    </row>
-    <row r="1698" ht="15" customHeight="1" s="95">
-      <c r="B1698" s="112" t="n"/>
-    </row>
-    <row r="1945" ht="15" customHeight="1" s="95">
-      <c r="B1945" s="112" t="n"/>
-    </row>
-    <row r="2031" ht="15" customHeight="1" s="95">
-      <c r="B2031" s="112" t="n"/>
-    </row>
-    <row r="2153" ht="15" customHeight="1" s="95">
-      <c r="B2153" s="112" t="n"/>
-    </row>
-    <row r="2317" ht="15" customHeight="1" s="95">
-      <c r="B2317" s="112" t="n"/>
-    </row>
-    <row r="2419" ht="15" customHeight="1" s="95">
-      <c r="B2419" s="112" t="n"/>
-    </row>
-    <row r="2509" ht="15" customHeight="1" s="95">
-      <c r="B2509" s="112" t="n"/>
-    </row>
-    <row r="2598" ht="15" customHeight="1" s="95">
-      <c r="B2598" s="112" t="n"/>
-    </row>
-    <row r="2719" ht="15" customHeight="1" s="95">
-      <c r="B2719" s="112" t="n"/>
-    </row>
-    <row r="2837" ht="15" customHeight="1" s="95">
-      <c r="B2837" s="112" t="n"/>
+    <row r="165" ht="12" customHeight="1" s="96"/>
+    <row r="180" ht="12" customHeight="1" s="96"/>
+    <row r="205" ht="12" customHeight="1" s="96"/>
+    <row r="206" ht="12" customHeight="1" s="96"/>
+    <row r="308" ht="15" customHeight="1" s="96">
+      <c r="B308" s="113" t="n"/>
+    </row>
+    <row r="511" ht="15" customHeight="1" s="96">
+      <c r="B511" s="113" t="n"/>
+    </row>
+    <row r="712" ht="15" customHeight="1" s="96">
+      <c r="B712" s="113" t="n"/>
+    </row>
+    <row r="887" ht="15" customHeight="1" s="96">
+      <c r="B887" s="113" t="n"/>
+    </row>
+    <row r="1100" ht="15" customHeight="1" s="96">
+      <c r="B1100" s="113" t="n"/>
+    </row>
+    <row r="1227" ht="15" customHeight="1" s="96">
+      <c r="B1227" s="113" t="n"/>
+    </row>
+    <row r="1390" ht="15" customHeight="1" s="96">
+      <c r="B1390" s="113" t="n"/>
+    </row>
+    <row r="1502" ht="15" customHeight="1" s="96">
+      <c r="B1502" s="113" t="n"/>
+    </row>
+    <row r="1604" ht="15" customHeight="1" s="96">
+      <c r="B1604" s="113" t="n"/>
+    </row>
+    <row r="1698" ht="15" customHeight="1" s="96">
+      <c r="B1698" s="113" t="n"/>
+    </row>
+    <row r="1945" ht="15" customHeight="1" s="96">
+      <c r="B1945" s="113" t="n"/>
+    </row>
+    <row r="2031" ht="15" customHeight="1" s="96">
+      <c r="B2031" s="113" t="n"/>
+    </row>
+    <row r="2153" ht="15" customHeight="1" s="96">
+      <c r="B2153" s="113" t="n"/>
+    </row>
+    <row r="2317" ht="15" customHeight="1" s="96">
+      <c r="B2317" s="113" t="n"/>
+    </row>
+    <row r="2419" ht="15" customHeight="1" s="96">
+      <c r="B2419" s="113" t="n"/>
+    </row>
+    <row r="2509" ht="15" customHeight="1" s="96">
+      <c r="B2509" s="113" t="n"/>
+    </row>
+    <row r="2598" ht="15" customHeight="1" s="96">
+      <c r="B2598" s="113" t="n"/>
+    </row>
+    <row r="2719" ht="15" customHeight="1" s="96">
+      <c r="B2719" s="113" t="n"/>
+    </row>
+    <row r="2837" ht="15" customHeight="1" s="96">
+      <c r="B2837" s="113" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B2837:AH2837"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2153:AH2153"/>
+    <mergeCell ref="B2317:AH2317"/>
+    <mergeCell ref="B2419:AH2419"/>
+    <mergeCell ref="B2509:AH2509"/>
+    <mergeCell ref="B2598:AH2598"/>
     <mergeCell ref="B1604:AH1604"/>
     <mergeCell ref="B1698:AH1698"/>
     <mergeCell ref="B146:AG146"/>
@@ -31646,18 +31658,6 @@
     <mergeCell ref="B1227:AH1227"/>
     <mergeCell ref="B1390:AH1390"/>
     <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B2837:AH2837"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2153:AH2153"/>
-    <mergeCell ref="B2317:AH2317"/>
-    <mergeCell ref="B2419:AH2419"/>
-    <mergeCell ref="B2509:AH2509"/>
-    <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -31679,17 +31679,17 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
-    <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
+    <col hidden="1" width="22.5" customWidth="1" style="113" min="1" max="1"/>
+    <col width="49" customWidth="1" style="113" min="2" max="2"/>
+    <col width="9.1796875" customWidth="1" style="113" min="3" max="33"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" style="113" min="34" max="34"/>
+    <col width="9.1796875" customWidth="1" style="113" min="35" max="35"/>
+    <col width="9.1796875" customWidth="1" style="113" min="36" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="1" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="B1" s="6" t="inlineStr">
         <is>
           <t>highogs.d120120a</t>
@@ -31789,8 +31789,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="95" thickTop="1"/>
-    <row r="3" ht="15" customHeight="1" s="95">
+    <row r="2" ht="15" customHeight="1" s="96" thickTop="1"/>
+    <row r="3" ht="15" customHeight="1" s="96">
       <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Report</t>
@@ -31806,7 +31806,7 @@
       <c r="G3" s="9" t="n"/>
       <c r="H3" s="9" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1" s="95">
+    <row r="4" ht="15" customHeight="1" s="96">
       <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Scenario</t>
@@ -31826,7 +31826,7 @@
       </c>
       <c r="H4" s="9" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="95">
+    <row r="5" ht="15" customHeight="1" s="96">
       <c r="C5" s="8" t="inlineStr">
         <is>
           <t>Datekey</t>
@@ -31842,7 +31842,7 @@
       <c r="G5" s="9" t="n"/>
       <c r="H5" s="9" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="95">
+    <row r="6" ht="15" customHeight="1" s="96">
       <c r="C6" s="8" t="inlineStr">
         <is>
           <t>Release Date</t>
@@ -31858,7 +31858,7 @@
       <c r="G6" s="9" t="n"/>
       <c r="H6" s="9" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="95">
+    <row r="7" ht="15" customHeight="1" s="96">
       <c r="C7" s="9" t="n"/>
       <c r="D7" s="9" t="n"/>
       <c r="E7" s="9" t="n"/>
@@ -31866,9 +31866,9 @@
       <c r="G7" s="9" t="n"/>
       <c r="H7" s="9" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="95"/>
-    <row r="9" ht="12" customHeight="1" s="95"/>
-    <row r="10" ht="15" customHeight="1" s="95">
+    <row r="8" ht="12" customHeight="1" s="96"/>
+    <row r="9" ht="12" customHeight="1" s="96"/>
+    <row r="10" ht="15" customHeight="1" s="96">
       <c r="A10" s="10" t="inlineStr">
         <is>
           <t>IKI000</t>
@@ -31885,7 +31885,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="95">
+    <row r="11" ht="15" customHeight="1" s="96">
       <c r="B11" s="6" t="n"/>
       <c r="AH11" s="12" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="95">
+    <row r="12" ht="15" customHeight="1" s="96">
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -31932,7 +31932,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="13" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Shipments, Prices, and Consumption</t>
@@ -32037,28 +32037,28 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="95" thickTop="1"/>
-    <row r="15" ht="15" customHeight="1" s="95">
+    <row r="14" ht="15" customHeight="1" s="96" thickTop="1"/>
+    <row r="15" ht="15" customHeight="1" s="96">
       <c r="B15" s="15" t="inlineStr">
         <is>
           <t>Value of Shipments</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="95">
+    <row r="16" ht="15" customHeight="1" s="96">
       <c r="B16" s="15" t="inlineStr">
         <is>
           <t>(billion 2012 dollars)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="95">
+    <row r="17" ht="15" customHeight="1" s="96">
       <c r="A17" s="10" t="inlineStr">
         <is>
           <t>IKI000:ba_Manufacturing</t>
         </is>
       </c>
-      <c r="B17" s="110" t="inlineStr">
+      <c r="B17" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Manufacturing</t>
         </is>
@@ -32160,13 +32160,13 @@
         <v>0.016567</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="95">
+    <row r="18" ht="15" customHeight="1" s="96">
       <c r="A18" s="10" t="inlineStr">
         <is>
           <t>IKI000:ba_Nonmanufactur</t>
         </is>
       </c>
-      <c r="B18" s="110" t="inlineStr">
+      <c r="B18" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Agriculture, Mining, and Construction</t>
         </is>
@@ -32268,7 +32268,7 @@
         <v>0.015735</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="95">
+    <row r="19" ht="15" customHeight="1" s="96">
       <c r="A19" s="10" t="inlineStr">
         <is>
           <t>IKI000:ba_Total</t>
@@ -32376,27 +32376,27 @@
         <v>0.016311</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="95">
+    <row r="21" ht="15" customHeight="1" s="96">
       <c r="B21" s="15" t="inlineStr">
         <is>
           <t>Energy Prices</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="95">
+    <row r="22" ht="15" customHeight="1" s="96">
       <c r="B22" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">  (2020 dollars per million Btu)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="95">
+    <row r="23" ht="15" customHeight="1" s="96">
       <c r="A23" s="10" t="inlineStr">
         <is>
           <t>IKI000:ca_LiquefiedPetr</t>
         </is>
       </c>
-      <c r="B23" s="110" t="inlineStr">
+      <c r="B23" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -32498,13 +32498,13 @@
         <v>0.016316</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="95">
+    <row r="24" ht="15" customHeight="1" s="96">
       <c r="A24" s="10" t="inlineStr">
         <is>
           <t>IKI000:ca_MotorGasoline</t>
         </is>
       </c>
-      <c r="B24" s="110" t="inlineStr">
+      <c r="B24" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline</t>
         </is>
@@ -32606,13 +32606,13 @@
         <v>0.007715</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="95">
+    <row r="25" ht="15" customHeight="1" s="96">
       <c r="A25" s="10" t="inlineStr">
         <is>
           <t>IKI000:ca_DistillateOil</t>
         </is>
       </c>
-      <c r="B25" s="110" t="inlineStr">
+      <c r="B25" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -32714,13 +32714,13 @@
         <v>0.004926</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="95">
+    <row r="26" ht="15" customHeight="1" s="96">
       <c r="A26" s="10" t="inlineStr">
         <is>
           <t>IKI000:ca_ResidualOil</t>
         </is>
       </c>
-      <c r="B26" s="110" t="inlineStr">
+      <c r="B26" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -32822,13 +32822,13 @@
         <v>0.033402</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="95">
+    <row r="27" ht="15" customHeight="1" s="96">
       <c r="A27" s="10" t="inlineStr">
         <is>
           <t>IKI000:ca_Asphalt</t>
         </is>
       </c>
-      <c r="B27" s="110" t="inlineStr">
+      <c r="B27" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Asphalt and Road Oil</t>
         </is>
@@ -32930,13 +32930,13 @@
         <v>0.025416</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="95">
+    <row r="28" ht="15" customHeight="1" s="96">
       <c r="A28" s="10" t="inlineStr">
         <is>
           <t>IKI000:ca_NaturalGasHP</t>
         </is>
       </c>
-      <c r="B28" s="110" t="inlineStr">
+      <c r="B28" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Heat and Power</t>
         </is>
@@ -33038,13 +33038,13 @@
         <v>0.004412</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="95">
+    <row r="29" ht="15" customHeight="1" s="96">
       <c r="A29" s="10" t="inlineStr">
         <is>
           <t>IKI000:ca_NaturalGasFd</t>
         </is>
       </c>
-      <c r="B29" s="110" t="inlineStr">
+      <c r="B29" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Feedstocks</t>
         </is>
@@ -33146,13 +33146,13 @@
         <v>0.003932</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="95">
+    <row r="30" ht="15" customHeight="1" s="96">
       <c r="A30" s="10" t="inlineStr">
         <is>
           <t>IKI000:ca_Metallurgical</t>
         </is>
       </c>
-      <c r="B30" s="110" t="inlineStr">
+      <c r="B30" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal</t>
         </is>
@@ -33254,13 +33254,13 @@
         <v>-0.002027</v>
       </c>
     </row>
-    <row r="31" ht="14.5" customHeight="1" s="95">
+    <row r="31" ht="14.5" customHeight="1" s="96">
       <c r="A31" s="10" t="inlineStr">
         <is>
           <t>IKI000:ca_SteamCoal</t>
         </is>
       </c>
-      <c r="B31" s="110" t="inlineStr">
+      <c r="B31" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Industrial Coal</t>
         </is>
@@ -33362,13 +33362,13 @@
         <v>0.000995</v>
       </c>
     </row>
-    <row r="32" ht="14.5" customHeight="1" s="95">
+    <row r="32" ht="14.5" customHeight="1" s="96">
       <c r="A32" s="10" t="inlineStr">
         <is>
           <t>IKI000:ca_CoaltoLiquids</t>
         </is>
       </c>
-      <c r="B32" s="110" t="inlineStr">
+      <c r="B32" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal to Liquids</t>
         </is>
@@ -33534,13 +33534,13 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="14.5" customHeight="1" s="95">
+    <row r="33" ht="14.5" customHeight="1" s="96">
       <c r="A33" s="10" t="inlineStr">
         <is>
           <t>IKI000:ca_Electricity</t>
         </is>
       </c>
-      <c r="B33" s="110" t="inlineStr">
+      <c r="B33" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -33642,20 +33642,20 @@
         <v>-0.006983</v>
       </c>
     </row>
-    <row r="34" ht="12" customHeight="1" s="95">
+    <row r="34" ht="12" customHeight="1" s="96">
       <c r="B34" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">  (nominal dollars per million Btu)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="14.5" customHeight="1" s="95">
+    <row r="35" ht="14.5" customHeight="1" s="96">
       <c r="A35" s="10" t="inlineStr">
         <is>
           <t>IKI000:nom_LiquefiedPet</t>
         </is>
       </c>
-      <c r="B35" s="110" t="inlineStr">
+      <c r="B35" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane</t>
         </is>
@@ -33757,13 +33757,13 @@
         <v>0.041029</v>
       </c>
     </row>
-    <row r="36" ht="14.5" customHeight="1" s="95">
+    <row r="36" ht="14.5" customHeight="1" s="96">
       <c r="A36" s="10" t="inlineStr">
         <is>
           <t>IKI000:nom_MotorGasolin</t>
         </is>
       </c>
-      <c r="B36" s="110" t="inlineStr">
+      <c r="B36" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline</t>
         </is>
@@ -33865,13 +33865,13 @@
         <v>0.032218</v>
       </c>
     </row>
-    <row r="37" ht="14.5" customHeight="1" s="95">
+    <row r="37" ht="14.5" customHeight="1" s="96">
       <c r="A37" s="10" t="inlineStr">
         <is>
           <t>IKI000:nom_DistillateOi</t>
         </is>
       </c>
-      <c r="B37" s="110" t="inlineStr">
+      <c r="B37" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -33973,13 +33973,13 @@
         <v>0.029361</v>
       </c>
     </row>
-    <row r="38" ht="14.5" customHeight="1" s="95">
+    <row r="38" ht="14.5" customHeight="1" s="96">
       <c r="A38" s="10" t="inlineStr">
         <is>
           <t>IKI000:nom_ResidualOil</t>
         </is>
       </c>
-      <c r="B38" s="110" t="inlineStr">
+      <c r="B38" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -34081,13 +34081,13 @@
         <v>0.05853</v>
       </c>
     </row>
-    <row r="39" ht="14.5" customHeight="1" s="95">
+    <row r="39" ht="14.5" customHeight="1" s="96">
       <c r="A39" s="10" t="inlineStr">
         <is>
           <t>IKI000:nom_Asphalt</t>
         </is>
       </c>
-      <c r="B39" s="110" t="inlineStr">
+      <c r="B39" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Asphalt and Road Oil</t>
         </is>
@@ -34189,13 +34189,13 @@
         <v>0.050349</v>
       </c>
     </row>
-    <row r="40" ht="14.5" customHeight="1" s="95">
+    <row r="40" ht="14.5" customHeight="1" s="96">
       <c r="A40" s="10" t="inlineStr">
         <is>
           <t>IKI000:nom_NaturalGasHP</t>
         </is>
       </c>
-      <c r="B40" s="110" t="inlineStr">
+      <c r="B40" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Heat and Power</t>
         </is>
@@ -34297,13 +34297,13 @@
         <v>0.028835</v>
       </c>
     </row>
-    <row r="41" ht="14.5" customHeight="1" s="95">
+    <row r="41" ht="14.5" customHeight="1" s="96">
       <c r="A41" s="10" t="inlineStr">
         <is>
           <t>IKI000:nom_NaturalGasFd</t>
         </is>
       </c>
-      <c r="B41" s="110" t="inlineStr">
+      <c r="B41" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Feedstocks</t>
         </is>
@@ -34405,13 +34405,13 @@
         <v>0.028343</v>
       </c>
     </row>
-    <row r="42" ht="14.5" customHeight="1" s="95">
+    <row r="42" ht="14.5" customHeight="1" s="96">
       <c r="A42" s="10" t="inlineStr">
         <is>
           <t>IKI000:nom_Metallurgica</t>
         </is>
       </c>
-      <c r="B42" s="110" t="inlineStr">
+      <c r="B42" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal</t>
         </is>
@@ -34513,13 +34513,13 @@
         <v>0.02224</v>
       </c>
     </row>
-    <row r="43" ht="14.5" customHeight="1" s="95">
+    <row r="43" ht="14.5" customHeight="1" s="96">
       <c r="A43" s="10" t="inlineStr">
         <is>
           <t>IKI000:nom_SteamCoal</t>
         </is>
       </c>
-      <c r="B43" s="110" t="inlineStr">
+      <c r="B43" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Industrial Coal</t>
         </is>
@@ -34621,13 +34621,13 @@
         <v>0.025335</v>
       </c>
     </row>
-    <row r="44" ht="14.5" customHeight="1" s="95">
+    <row r="44" ht="14.5" customHeight="1" s="96">
       <c r="A44" s="10" t="inlineStr">
         <is>
           <t>IKI000:nom_CoaltoLiquid</t>
         </is>
       </c>
-      <c r="B44" s="110" t="inlineStr">
+      <c r="B44" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal to Liquids</t>
         </is>
@@ -34793,13 +34793,13 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="14.5" customHeight="1" s="95">
+    <row r="45" ht="14.5" customHeight="1" s="96">
       <c r="A45" s="10" t="inlineStr">
         <is>
           <t>IKI000:nom_Electricity</t>
         </is>
       </c>
-      <c r="B45" s="110" t="inlineStr">
+      <c r="B45" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity</t>
         </is>
@@ -34901,29 +34901,29 @@
         <v>0.017163</v>
       </c>
     </row>
-    <row r="46" ht="12" customHeight="1" s="95"/>
-    <row r="47" ht="12" customHeight="1" s="95"/>
-    <row r="48" ht="12" customHeight="1" s="95">
+    <row r="46" ht="12" customHeight="1" s="96"/>
+    <row r="47" ht="12" customHeight="1" s="96"/>
+    <row r="48" ht="12" customHeight="1" s="96">
       <c r="B48" s="15" t="inlineStr">
         <is>
           <t>Energy Consumption 1/ (quadrillion Btu)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="12" customHeight="1" s="95">
+    <row r="49" ht="12" customHeight="1" s="96">
       <c r="B49" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Industrial Consumption Excluding Refining</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="95">
+    <row r="50" ht="15" customHeight="1" s="96">
       <c r="A50" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_LiqPetGasHeat</t>
         </is>
       </c>
-      <c r="B50" s="110" t="inlineStr">
+      <c r="B50" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Propane Heat and Power</t>
         </is>
@@ -35025,13 +35025,13 @@
         <v>0.021248</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="95">
+    <row r="51" ht="15" customHeight="1" s="96">
       <c r="A51" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_LiqPetGasFeed</t>
         </is>
       </c>
-      <c r="B51" s="110" t="inlineStr">
+      <c r="B51" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Hydrocarbon Gas Liquid Feedstocks 2/</t>
         </is>
@@ -35133,13 +35133,13 @@
         <v>0.020879</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" s="95">
+    <row r="52" ht="15" customHeight="1" s="96">
       <c r="A52" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_Propylene</t>
         </is>
       </c>
-      <c r="B52" s="110" t="inlineStr">
+      <c r="B52" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">      Propylene</t>
         </is>
@@ -35241,13 +35241,13 @@
         <v>-0.000178</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" s="95">
+    <row r="53" ht="15" customHeight="1" s="96">
       <c r="A53" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_MotorGasoline</t>
         </is>
       </c>
-      <c r="B53" s="110" t="inlineStr">
+      <c r="B53" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline</t>
         </is>
@@ -35349,13 +35349,13 @@
         <v>0.017228</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" s="95">
+    <row r="54" ht="15" customHeight="1" s="96">
       <c r="A54" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_Distillate</t>
         </is>
       </c>
-      <c r="B54" s="110" t="inlineStr">
+      <c r="B54" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -35457,13 +35457,13 @@
         <v>0.01629</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" s="95">
+    <row r="55" ht="15" customHeight="1" s="96">
       <c r="A55" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_ResidualFuel</t>
         </is>
       </c>
-      <c r="B55" s="110" t="inlineStr">
+      <c r="B55" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -35565,13 +35565,13 @@
         <v>0.015015</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="95">
+    <row r="56" ht="15" customHeight="1" s="96">
       <c r="A56" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_Petrochemical</t>
         </is>
       </c>
-      <c r="B56" s="110" t="inlineStr">
+      <c r="B56" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Petrochemical Feedstocks</t>
         </is>
@@ -35673,13 +35673,13 @@
         <v>0.004002</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" s="95">
+    <row r="57" ht="15" customHeight="1" s="96">
       <c r="A57" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_PetroleumCoke</t>
         </is>
       </c>
-      <c r="B57" s="110" t="inlineStr">
+      <c r="B57" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Petroleum Coke</t>
         </is>
@@ -35781,13 +35781,13 @@
         <v>0.028378</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="95">
+    <row r="58" ht="15" customHeight="1" s="96">
       <c r="A58" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_Asphalt</t>
         </is>
       </c>
-      <c r="B58" s="110" t="inlineStr">
+      <c r="B58" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Asphalt and Road Oil</t>
         </is>
@@ -35889,13 +35889,13 @@
         <v>0.012032</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" s="95">
+    <row r="59" ht="15" customHeight="1" s="96">
       <c r="A59" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_Miscellaneous</t>
         </is>
       </c>
-      <c r="B59" s="110" t="inlineStr">
+      <c r="B59" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Miscellaneous Petroleum 3/</t>
         </is>
@@ -35997,13 +35997,13 @@
         <v>-0.001785</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" s="95">
+    <row r="60" ht="15" customHeight="1" s="96">
       <c r="A60" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_PetroleumSubt</t>
         </is>
       </c>
-      <c r="B60" s="110" t="inlineStr">
+      <c r="B60" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Petroleum and Other Liquids Subtotal</t>
         </is>
@@ -36105,13 +36105,13 @@
         <v>0.016199</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" s="95">
+    <row r="61" ht="15" customHeight="1" s="96">
       <c r="A61" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_NatralGasHeat</t>
         </is>
       </c>
-      <c r="B61" s="110" t="inlineStr">
+      <c r="B61" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Heat and Power</t>
         </is>
@@ -36213,13 +36213,13 @@
         <v>0.014344</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" s="95">
+    <row r="62" ht="15" customHeight="1" s="96">
       <c r="A62" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_NatralGasFeed</t>
         </is>
       </c>
-      <c r="B62" s="110" t="inlineStr">
+      <c r="B62" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Feedstocks</t>
         </is>
@@ -36321,13 +36321,13 @@
         <v>0.01521</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" s="95">
+    <row r="63" ht="15" customHeight="1" s="96">
       <c r="A63" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_LeaseandPlant</t>
         </is>
       </c>
-      <c r="B63" s="110" t="inlineStr">
+      <c r="B63" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Lease and Plant Fuel 4/</t>
         </is>
@@ -36429,13 +36429,13 @@
         <v>0.016729</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" s="95">
+    <row r="64" ht="15" customHeight="1" s="96">
       <c r="A64" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_liquefactexp</t>
         </is>
       </c>
-      <c r="B64" s="110" t="inlineStr">
+      <c r="B64" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Liquefaction for Export 5/</t>
         </is>
@@ -36537,13 +36537,13 @@
         <v>0.041444</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="95">
+    <row r="65" ht="15" customHeight="1" s="96">
       <c r="A65" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_NaturalGasSub</t>
         </is>
       </c>
-      <c r="B65" s="110" t="inlineStr">
+      <c r="B65" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Natural Gas Subtotal</t>
         </is>
@@ -36645,13 +36645,13 @@
         <v>0.016423</v>
       </c>
     </row>
-    <row r="66" ht="14.5" customHeight="1" s="95">
+    <row r="66" ht="14.5" customHeight="1" s="96">
       <c r="A66" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_Metallurgical</t>
         </is>
       </c>
-      <c r="B66" s="110" t="inlineStr">
+      <c r="B66" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal and Coke 6/</t>
         </is>
@@ -36753,13 +36753,13 @@
         <v>0.001586</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" s="95">
+    <row r="67" ht="15" customHeight="1" s="96">
       <c r="A67" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_SteamCoal</t>
         </is>
       </c>
-      <c r="B67" s="110" t="inlineStr">
+      <c r="B67" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Industrial Coal</t>
         </is>
@@ -36861,13 +36861,13 @@
         <v>-0.000359</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" s="95">
+    <row r="68" ht="15" customHeight="1" s="96">
       <c r="A68" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_CoalSubtotal</t>
         </is>
       </c>
-      <c r="B68" s="110" t="inlineStr">
+      <c r="B68" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Coal Subtotal</t>
         </is>
@@ -36969,13 +36969,13 @@
         <v>0.000613</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" s="95">
+    <row r="69" ht="15" customHeight="1" s="96">
       <c r="A69" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_Renewables</t>
         </is>
       </c>
-      <c r="B69" s="110" t="inlineStr">
+      <c r="B69" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Renewables 7/</t>
         </is>
@@ -37077,13 +37077,13 @@
         <v>0.009468000000000001</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" s="95">
+    <row r="70" ht="15" customHeight="1" s="96">
       <c r="A70" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_PurchasedElec</t>
         </is>
       </c>
-      <c r="B70" s="110" t="inlineStr">
+      <c r="B70" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Purchased Electricity</t>
         </is>
@@ -37185,7 +37185,7 @@
         <v>0.011178</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="95">
+    <row r="71" ht="15" customHeight="1" s="96">
       <c r="A71" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_DeliveredEner</t>
@@ -37293,13 +37293,13 @@
         <v>0.014636</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" s="95">
+    <row r="72" ht="15" customHeight="1" s="96">
       <c r="A72" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_ElectricityRe</t>
         </is>
       </c>
-      <c r="B72" s="110" t="inlineStr">
+      <c r="B72" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity Related Losses</t>
         </is>
@@ -37401,7 +37401,7 @@
         <v>0.001112</v>
       </c>
     </row>
-    <row r="73" ht="12" customHeight="1" s="95">
+    <row r="73" ht="12" customHeight="1" s="96">
       <c r="A73" s="10" t="inlineStr">
         <is>
           <t>IKI000:ia_Total</t>
@@ -37509,20 +37509,20 @@
         <v>0.01228</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" s="95">
+    <row r="76" ht="15" customHeight="1" s="96">
       <c r="B76" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Refining Consumption</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" s="95">
+    <row r="77" ht="15" customHeight="1" s="96">
       <c r="A77" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_LiqPetGasHeat</t>
         </is>
       </c>
-      <c r="B77" s="110" t="inlineStr">
+      <c r="B77" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Liquefied Petroleum Gas Heat and Power 2/</t>
         </is>
@@ -37626,13 +37626,13 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1" s="95">
+    <row r="78" ht="15" customHeight="1" s="96">
       <c r="A78" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_Distillate</t>
         </is>
       </c>
-      <c r="B78" s="110" t="inlineStr">
+      <c r="B78" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -37736,13 +37736,13 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="14.5" customHeight="1" s="95">
+    <row r="79" ht="14.5" customHeight="1" s="96">
       <c r="A79" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_ResidualFuel</t>
         </is>
       </c>
-      <c r="B79" s="110" t="inlineStr">
+      <c r="B79" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -37846,13 +37846,13 @@
         </is>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1" s="95">
+    <row r="80" ht="15" customHeight="1" s="96">
       <c r="A80" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_PetroleumCoke</t>
         </is>
       </c>
-      <c r="B80" s="110" t="inlineStr">
+      <c r="B80" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Petroleum Coke</t>
         </is>
@@ -37954,13 +37954,13 @@
         <v>0.001891</v>
       </c>
     </row>
-    <row r="81" ht="14.5" customHeight="1" s="95">
+    <row r="81" ht="14.5" customHeight="1" s="96">
       <c r="A81" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_StillGasAll</t>
         </is>
       </c>
-      <c r="B81" s="110" t="inlineStr">
+      <c r="B81" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Still Gas</t>
         </is>
@@ -38062,13 +38062,13 @@
         <v>0.001106</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1" s="95">
+    <row r="82" ht="15" customHeight="1" s="96">
       <c r="A82" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_Miscellaneous</t>
         </is>
       </c>
-      <c r="B82" s="110" t="inlineStr">
+      <c r="B82" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Miscellaneous Petroleum 3/</t>
         </is>
@@ -38170,13 +38170,13 @@
         <v>0.093044</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1" s="95">
+    <row r="83" ht="15" customHeight="1" s="96">
       <c r="A83" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_PetroleumSubt</t>
         </is>
       </c>
-      <c r="B83" s="110" t="inlineStr">
+      <c r="B83" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Petroleum and Other Liquids Subtotal</t>
         </is>
@@ -38278,13 +38278,13 @@
         <v>0.002248</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" s="95">
+    <row r="84" ht="15" customHeight="1" s="96">
       <c r="A84" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_NatralGasHeat</t>
         </is>
       </c>
-      <c r="B84" s="110" t="inlineStr">
+      <c r="B84" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Heat and Power</t>
         </is>
@@ -38386,13 +38386,13 @@
         <v>0.000457</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" s="95">
+    <row r="85" ht="15" customHeight="1" s="96">
       <c r="A85" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_NaturalFeedst</t>
         </is>
       </c>
-      <c r="B85" s="110" t="inlineStr">
+      <c r="B85" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Feedstocks</t>
         </is>
@@ -38494,13 +38494,13 @@
         <v>-0.009178</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1" s="95">
+    <row r="86" ht="15" customHeight="1" s="96">
       <c r="A86" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_NatGas2LiqH&amp;P</t>
         </is>
       </c>
-      <c r="B86" s="110" t="inlineStr">
+      <c r="B86" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural-Gas-to-Liquids Heat and Power</t>
         </is>
@@ -38604,13 +38604,13 @@
         </is>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1" s="95">
+    <row r="87" ht="15" customHeight="1" s="96">
       <c r="A87" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_NaturalGasSub</t>
         </is>
       </c>
-      <c r="B87" s="110" t="inlineStr">
+      <c r="B87" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Natural Gas Subtotal</t>
         </is>
@@ -38712,13 +38712,13 @@
         <v>-0.000796</v>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1" s="95">
+    <row r="88" ht="15" customHeight="1" s="96">
       <c r="A88" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_SteamCoal</t>
         </is>
       </c>
-      <c r="B88" s="110" t="inlineStr">
+      <c r="B88" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Industrial Coal</t>
         </is>
@@ -38820,13 +38820,13 @@
         <v>0.00758</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1" s="95">
+    <row r="89" ht="15" customHeight="1" s="96">
       <c r="A89" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_CoaltoLiquids</t>
         </is>
       </c>
-      <c r="B89" s="110" t="inlineStr">
+      <c r="B89" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal-to-Liquids Heat and Power</t>
         </is>
@@ -38930,13 +38930,13 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1" s="95">
+    <row r="90" ht="15" customHeight="1" s="96">
       <c r="A90" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_CoalSubtotal</t>
         </is>
       </c>
-      <c r="B90" s="110" t="inlineStr">
+      <c r="B90" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Coal Subtotal</t>
         </is>
@@ -39038,13 +39038,13 @@
         <v>0.00758</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1" s="95">
+    <row r="91" ht="15" customHeight="1" s="96">
       <c r="A91" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_BiofuelHeatCo</t>
         </is>
       </c>
-      <c r="B91" s="110" t="inlineStr">
+      <c r="B91" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Biofuels Heat and Coproducts</t>
         </is>
@@ -39146,13 +39146,13 @@
         <v>0.006056</v>
       </c>
     </row>
-    <row r="92" ht="14.5" customHeight="1" s="95">
+    <row r="92" ht="14.5" customHeight="1" s="96">
       <c r="A92" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_PurchasedElec</t>
         </is>
       </c>
-      <c r="B92" s="110" t="inlineStr">
+      <c r="B92" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Purchased Electricity</t>
         </is>
@@ -39254,7 +39254,7 @@
         <v>0.003074</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1" s="95">
+    <row r="93" ht="15" customHeight="1" s="96">
       <c r="A93" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_DeliveredEner</t>
@@ -39362,13 +39362,13 @@
         <v>0.002169</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1" s="95">
+    <row r="94" ht="15" customHeight="1" s="96">
       <c r="A94" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_ElectricityRe</t>
         </is>
       </c>
-      <c r="B94" s="110" t="inlineStr">
+      <c r="B94" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity Related Losses</t>
         </is>
@@ -39470,7 +39470,7 @@
         <v>-0.006911</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1" s="95">
+    <row r="95" ht="15" customHeight="1" s="96">
       <c r="A95" s="10" t="inlineStr">
         <is>
           <t>IKI000:ka_Total</t>
@@ -39578,20 +39578,20 @@
         <v>0.001587</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1" s="95">
+    <row r="97" ht="15" customHeight="1" s="96">
       <c r="B97" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Total Industrial Sector Consumption</t>
         </is>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1" s="95">
+    <row r="98" ht="15" customHeight="1" s="96">
       <c r="A98" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_LiqPetGasHeat</t>
         </is>
       </c>
-      <c r="B98" s="110" t="inlineStr">
+      <c r="B98" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Liquefied Petroleum Gas Heat and Power 2/</t>
         </is>
@@ -39693,13 +39693,13 @@
         <v>0.019673</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1" s="95">
+    <row r="99" ht="15" customHeight="1" s="96">
       <c r="A99" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_LiqPetGasFeed</t>
         </is>
       </c>
-      <c r="B99" s="110" t="inlineStr">
+      <c r="B99" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Hydrocarbon Gas Liquid Feedstocks 2/</t>
         </is>
@@ -39801,13 +39801,13 @@
         <v>0.020879</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1" s="95">
+    <row r="100" ht="15" customHeight="1" s="96">
       <c r="A100" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_MotorGasoline</t>
         </is>
       </c>
-      <c r="B100" s="110" t="inlineStr">
+      <c r="B100" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline</t>
         </is>
@@ -39909,13 +39909,13 @@
         <v>0.017228</v>
       </c>
     </row>
-    <row r="101" ht="14.5" customHeight="1" s="95">
+    <row r="101" ht="14.5" customHeight="1" s="96">
       <c r="A101" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_Distillate</t>
         </is>
       </c>
-      <c r="B101" s="110" t="inlineStr">
+      <c r="B101" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -40017,13 +40017,13 @@
         <v>0.016231</v>
       </c>
     </row>
-    <row r="102" ht="14.5" customHeight="1" s="95">
+    <row r="102" ht="14.5" customHeight="1" s="96">
       <c r="A102" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_ResidualFuel</t>
         </is>
       </c>
-      <c r="B102" s="110" t="inlineStr">
+      <c r="B102" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -40125,7 +40125,7 @@
         <v>0.014849</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1" s="95">
+    <row r="103" ht="15" customHeight="1" s="96">
       <c r="A103" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_Petrochemical</t>
@@ -40233,13 +40233,13 @@
         <v>0.004002</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1" s="95">
+    <row r="104" ht="15" customHeight="1" s="96">
       <c r="A104" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_PetroleumCoke</t>
         </is>
       </c>
-      <c r="B104" s="110" t="inlineStr">
+      <c r="B104" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Petroleum Coke</t>
         </is>
@@ -40341,7 +40341,7 @@
         <v>0.005133</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1" s="95">
+    <row r="105" ht="15" customHeight="1" s="96">
       <c r="A105" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_Asphalt</t>
@@ -40449,13 +40449,13 @@
         <v>0.012032</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1" s="95">
+    <row r="106" ht="15" customHeight="1" s="96">
       <c r="A106" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_StillGas</t>
         </is>
       </c>
-      <c r="B106" s="110" t="inlineStr">
+      <c r="B106" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Still Gas</t>
         </is>
@@ -40557,13 +40557,13 @@
         <v>0.001106</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1" s="95">
+    <row r="107" ht="15" customHeight="1" s="96">
       <c r="A107" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_Miscellaneous</t>
         </is>
       </c>
-      <c r="B107" s="110" t="inlineStr">
+      <c r="B107" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Miscellaneous Petroleum 3/</t>
         </is>
@@ -40665,7 +40665,7 @@
         <v>0.002207</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1" s="95">
+    <row r="108" ht="15" customHeight="1" s="96">
       <c r="A108" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_PetroleumSubt</t>
@@ -40773,13 +40773,13 @@
         <v>0.013603</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1" s="95">
+    <row r="109" ht="15" customHeight="1" s="96">
       <c r="A109" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_NatralGasHeat</t>
         </is>
       </c>
-      <c r="B109" s="110" t="inlineStr">
+      <c r="B109" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Heat and Power</t>
         </is>
@@ -40881,13 +40881,13 @@
         <v>0.012426</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1" s="95">
+    <row r="110" ht="15" customHeight="1" s="96">
       <c r="A110" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_NatralGasFeed</t>
         </is>
       </c>
-      <c r="B110" s="110" t="inlineStr">
+      <c r="B110" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Feedstocks</t>
         </is>
@@ -40989,13 +40989,13 @@
         <v>0.010052</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1" s="95">
+    <row r="111" ht="15" customHeight="1" s="96">
       <c r="A111" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_NatGas2LiqH&amp;P</t>
         </is>
       </c>
-      <c r="B111" s="110" t="inlineStr">
+      <c r="B111" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural-Gas-to-Liquids Heat and Power</t>
         </is>
@@ -41099,57 +41099,57 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1" s="95">
+    <row r="112" ht="15" customHeight="1" s="96">
       <c r="A112" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_LeaseandPlant</t>
         </is>
       </c>
-      <c r="B112" s="110" t="inlineStr">
+      <c r="B112" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Lease and Plant Fuel 4/</t>
         </is>
       </c>
-      <c r="C112" s="111" t="n"/>
-      <c r="D112" s="111" t="n"/>
-      <c r="E112" s="111" t="n"/>
-      <c r="F112" s="111" t="n"/>
-      <c r="G112" s="111" t="n"/>
-      <c r="H112" s="111" t="n"/>
-      <c r="I112" s="111" t="n"/>
-      <c r="J112" s="111" t="n"/>
-      <c r="K112" s="111" t="n"/>
-      <c r="L112" s="111" t="n"/>
-      <c r="M112" s="111" t="n"/>
-      <c r="N112" s="111" t="n"/>
-      <c r="O112" s="111" t="n"/>
-      <c r="P112" s="111" t="n"/>
-      <c r="Q112" s="111" t="n"/>
-      <c r="R112" s="111" t="n"/>
-      <c r="S112" s="111" t="n"/>
-      <c r="T112" s="111" t="n"/>
-      <c r="U112" s="111" t="n"/>
-      <c r="V112" s="111" t="n"/>
-      <c r="W112" s="111" t="n"/>
-      <c r="X112" s="111" t="n"/>
-      <c r="Y112" s="111" t="n"/>
-      <c r="Z112" s="111" t="n"/>
-      <c r="AA112" s="111" t="n"/>
-      <c r="AB112" s="111" t="n"/>
-      <c r="AC112" s="111" t="n"/>
-      <c r="AD112" s="111" t="n"/>
-      <c r="AE112" s="111" t="n"/>
-      <c r="AF112" s="111" t="n"/>
-      <c r="AG112" s="111" t="n"/>
-      <c r="AH112" s="111" t="n"/>
-    </row>
-    <row r="113" ht="15" customHeight="1" s="95">
+      <c r="C112" s="112" t="n"/>
+      <c r="D112" s="112" t="n"/>
+      <c r="E112" s="112" t="n"/>
+      <c r="F112" s="112" t="n"/>
+      <c r="G112" s="112" t="n"/>
+      <c r="H112" s="112" t="n"/>
+      <c r="I112" s="112" t="n"/>
+      <c r="J112" s="112" t="n"/>
+      <c r="K112" s="112" t="n"/>
+      <c r="L112" s="112" t="n"/>
+      <c r="M112" s="112" t="n"/>
+      <c r="N112" s="112" t="n"/>
+      <c r="O112" s="112" t="n"/>
+      <c r="P112" s="112" t="n"/>
+      <c r="Q112" s="112" t="n"/>
+      <c r="R112" s="112" t="n"/>
+      <c r="S112" s="112" t="n"/>
+      <c r="T112" s="112" t="n"/>
+      <c r="U112" s="112" t="n"/>
+      <c r="V112" s="112" t="n"/>
+      <c r="W112" s="112" t="n"/>
+      <c r="X112" s="112" t="n"/>
+      <c r="Y112" s="112" t="n"/>
+      <c r="Z112" s="112" t="n"/>
+      <c r="AA112" s="112" t="n"/>
+      <c r="AB112" s="112" t="n"/>
+      <c r="AC112" s="112" t="n"/>
+      <c r="AD112" s="112" t="n"/>
+      <c r="AE112" s="112" t="n"/>
+      <c r="AF112" s="112" t="n"/>
+      <c r="AG112" s="112" t="n"/>
+      <c r="AH112" s="112" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="96">
       <c r="A113" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_liquefactexp</t>
         </is>
       </c>
-      <c r="B113" s="110" t="inlineStr">
+      <c r="B113" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Liquefaction for Export 5/</t>
         </is>
@@ -41251,13 +41251,13 @@
         <v>0.041444</v>
       </c>
     </row>
-    <row r="114" ht="15" customHeight="1" s="95">
+    <row r="114" ht="15" customHeight="1" s="96">
       <c r="A114" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_NaturalGasSub</t>
         </is>
       </c>
-      <c r="B114" s="110" t="inlineStr">
+      <c r="B114" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Natural Gas Subtotal</t>
         </is>
@@ -41359,13 +41359,13 @@
         <v>0.014507</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1" s="95">
+    <row r="115" ht="15" customHeight="1" s="96">
       <c r="A115" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_Metallurgical</t>
         </is>
       </c>
-      <c r="B115" s="110" t="inlineStr">
+      <c r="B115" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal and Coke 6/</t>
         </is>
@@ -41467,13 +41467,13 @@
         <v>0.001586</v>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1" s="95">
+    <row r="116" ht="15" customHeight="1" s="96">
       <c r="A116" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_SteamCoal</t>
         </is>
       </c>
-      <c r="B116" s="110" t="inlineStr">
+      <c r="B116" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Industrial Coal</t>
         </is>
@@ -41575,13 +41575,13 @@
         <v>8.000000000000001e-05</v>
       </c>
     </row>
-    <row r="117" ht="15" customHeight="1" s="95">
+    <row r="117" ht="15" customHeight="1" s="96">
       <c r="A117" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_CoaltoLiquids</t>
         </is>
       </c>
-      <c r="B117" s="110" t="inlineStr">
+      <c r="B117" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal-to-Liquids Heat and Power</t>
         </is>
@@ -41685,13 +41685,13 @@
         </is>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1" s="95">
+    <row r="118" ht="15" customHeight="1" s="96">
       <c r="A118" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_CoalSubtotal</t>
         </is>
       </c>
-      <c r="B118" s="110" t="inlineStr">
+      <c r="B118" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Coal Subtotal</t>
         </is>
@@ -41793,13 +41793,13 @@
         <v>0.000811</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1" s="95">
+    <row r="119" ht="15" customHeight="1" s="96">
       <c r="A119" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_BiofuelHeatCo</t>
         </is>
       </c>
-      <c r="B119" s="110" t="inlineStr">
+      <c r="B119" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Biofuels Heat and Coproducts</t>
         </is>
@@ -41901,13 +41901,13 @@
         <v>0.006056</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1" s="95">
+    <row r="120" ht="15" customHeight="1" s="96">
       <c r="A120" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_Renewables</t>
         </is>
       </c>
-      <c r="B120" s="110" t="inlineStr">
+      <c r="B120" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Renewables 7/</t>
         </is>
@@ -42009,13 +42009,13 @@
         <v>0.009468000000000001</v>
       </c>
     </row>
-    <row r="121" ht="15" customHeight="1" s="95">
+    <row r="121" ht="15" customHeight="1" s="96">
       <c r="A121" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_PurchasedElec</t>
         </is>
       </c>
-      <c r="B121" s="110" t="inlineStr">
+      <c r="B121" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Purchased Electricity</t>
         </is>
@@ -42117,7 +42117,7 @@
         <v>0.010742</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1" s="95">
+    <row r="122" ht="15" customHeight="1" s="96">
       <c r="A122" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_DeliveredEner</t>
@@ -42225,13 +42225,13 @@
         <v>0.01278</v>
       </c>
     </row>
-    <row r="123" ht="15" customHeight="1" s="95">
+    <row r="123" ht="15" customHeight="1" s="96">
       <c r="A123" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_ElectricityRe</t>
         </is>
       </c>
-      <c r="B123" s="110" t="inlineStr">
+      <c r="B123" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity Related Losses</t>
         </is>
@@ -42333,7 +42333,7 @@
         <v>0.000681</v>
       </c>
     </row>
-    <row r="124" ht="15" customHeight="1" s="95">
+    <row r="124" ht="15" customHeight="1" s="96">
       <c r="A124" s="10" t="inlineStr">
         <is>
           <t>IKI000:da_Total</t>
@@ -42441,27 +42441,27 @@
         <v>0.010853</v>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1" s="95">
+    <row r="126" ht="15" customHeight="1" s="96">
       <c r="B126" s="15" t="inlineStr">
         <is>
           <t>Energy Consumption per dollar of Shipments 1/</t>
         </is>
       </c>
     </row>
-    <row r="127" ht="15" customHeight="1" s="95">
+    <row r="127" ht="15" customHeight="1" s="96">
       <c r="B127" s="15" t="inlineStr">
         <is>
           <t>(thousand Btu per 2012 dollar)</t>
         </is>
       </c>
     </row>
-    <row r="128" ht="15" customHeight="1" s="95">
+    <row r="128" ht="15" customHeight="1" s="96">
       <c r="A128" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_LiqPetGasHeat</t>
         </is>
       </c>
-      <c r="B128" s="110" t="inlineStr">
+      <c r="B128" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Liquefied Petroleum Gas Heat and Power 2/</t>
         </is>
@@ -42563,13 +42563,13 @@
         <v>0.003308</v>
       </c>
     </row>
-    <row r="129" ht="15" customHeight="1" s="95">
+    <row r="129" ht="15" customHeight="1" s="96">
       <c r="A129" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_LiqPetGasFeed</t>
         </is>
       </c>
-      <c r="B129" s="110" t="inlineStr">
+      <c r="B129" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Hydrocarbon Gas Liquid Feedstocks 2/</t>
         </is>
@@ -42671,13 +42671,13 @@
         <v>0.004495</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1" s="95">
+    <row r="130" ht="15" customHeight="1" s="96">
       <c r="A130" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_MotorGasoline</t>
         </is>
       </c>
-      <c r="B130" s="110" t="inlineStr">
+      <c r="B130" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Motor Gasoline</t>
         </is>
@@ -42779,13 +42779,13 @@
         <v>0.000903</v>
       </c>
     </row>
-    <row r="131" ht="15" customHeight="1" s="95">
+    <row r="131" ht="15" customHeight="1" s="96">
       <c r="A131" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_Distillate</t>
         </is>
       </c>
-      <c r="B131" s="110" t="inlineStr">
+      <c r="B131" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Distillate Fuel Oil</t>
         </is>
@@ -42887,13 +42887,13 @@
         <v>-7.8e-05</v>
       </c>
     </row>
-    <row r="132" ht="15" customHeight="1" s="95">
+    <row r="132" ht="15" customHeight="1" s="96">
       <c r="A132" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_ResidualFuel</t>
         </is>
       </c>
-      <c r="B132" s="110" t="inlineStr">
+      <c r="B132" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Residual Fuel Oil</t>
         </is>
@@ -42995,13 +42995,13 @@
         <v>-0.001438</v>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1" s="95">
+    <row r="133" ht="15" customHeight="1" s="96">
       <c r="A133" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_Petrochemical</t>
         </is>
       </c>
-      <c r="B133" s="110" t="inlineStr">
+      <c r="B133" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Petrochemical Feedstocks</t>
         </is>
@@ -43103,13 +43103,13 @@
         <v>-0.012111</v>
       </c>
     </row>
-    <row r="134" ht="15" customHeight="1" s="95">
+    <row r="134" ht="15" customHeight="1" s="96">
       <c r="A134" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_PetroleumCoke</t>
         </is>
       </c>
-      <c r="B134" s="110" t="inlineStr">
+      <c r="B134" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Petroleum Coke</t>
         </is>
@@ -43211,13 +43211,13 @@
         <v>-0.010998</v>
       </c>
     </row>
-    <row r="135" ht="15" customHeight="1" s="95">
+    <row r="135" ht="15" customHeight="1" s="96">
       <c r="A135" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_Asphalt</t>
         </is>
       </c>
-      <c r="B135" s="110" t="inlineStr">
+      <c r="B135" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Asphalt and Road Oil</t>
         </is>
@@ -43319,13 +43319,13 @@
         <v>-0.00421</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1" s="95">
+    <row r="136" ht="15" customHeight="1" s="96">
       <c r="A136" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_StillGas</t>
         </is>
       </c>
-      <c r="B136" s="110" t="inlineStr">
+      <c r="B136" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Still Gas</t>
         </is>
@@ -43427,13 +43427,13 @@
         <v>-0.014961</v>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1" s="95">
+    <row r="137" ht="15" customHeight="1" s="96">
       <c r="A137" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_Miscellaneous</t>
         </is>
       </c>
-      <c r="B137" s="110" t="inlineStr">
+      <c r="B137" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Miscellaneous Petroleum 3/</t>
         </is>
@@ -43535,13 +43535,13 @@
         <v>-0.013877</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1" s="95">
+    <row r="138" ht="15" customHeight="1" s="96">
       <c r="A138" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_PetroleumSubt</t>
         </is>
       </c>
-      <c r="B138" s="110" t="inlineStr">
+      <c r="B138" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Petroleum and Other Liquids Subtotal</t>
         </is>
@@ -43643,13 +43643,13 @@
         <v>-0.002664</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1" s="95">
+    <row r="139" ht="15" customHeight="1" s="96">
       <c r="A139" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_NatralGasHeat</t>
         </is>
       </c>
-      <c r="B139" s="110" t="inlineStr">
+      <c r="B139" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Heat and Power</t>
         </is>
@@ -43751,13 +43751,13 @@
         <v>-0.003822</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1" s="95">
+    <row r="140" ht="15" customHeight="1" s="96">
       <c r="A140" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_NatralGasFeed</t>
         </is>
       </c>
-      <c r="B140" s="110" t="inlineStr">
+      <c r="B140" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Feedstock</t>
         </is>
@@ -43859,13 +43859,13 @@
         <v>-0.006158</v>
       </c>
     </row>
-    <row r="141" ht="14.5" customHeight="1" s="95">
+    <row r="141" ht="14.5" customHeight="1" s="96">
       <c r="A141" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_NatGas2LiqH&amp;P</t>
         </is>
       </c>
-      <c r="B141" s="110" t="inlineStr">
+      <c r="B141" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural-Gas-to-Liquids Heat and Power</t>
         </is>
@@ -43969,13 +43969,13 @@
         </is>
       </c>
     </row>
-    <row r="142" ht="14.5" customHeight="1" s="95">
+    <row r="142" ht="14.5" customHeight="1" s="96">
       <c r="A142" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_LeaseandPlant</t>
         </is>
       </c>
-      <c r="B142" s="110" t="inlineStr">
+      <c r="B142" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Lease and Plant Fuel 4/</t>
         </is>
@@ -44077,13 +44077,13 @@
         <v>0.000412</v>
       </c>
     </row>
-    <row r="143" ht="14.5" customHeight="1" s="95">
+    <row r="143" ht="14.5" customHeight="1" s="96">
       <c r="A143" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_liquefactexp</t>
         </is>
       </c>
-      <c r="B143" s="110" t="inlineStr">
+      <c r="B143" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Natural Gas Liquefaction for Export 5/</t>
         </is>
@@ -44185,13 +44185,13 @@
         <v>0.02473</v>
       </c>
     </row>
-    <row r="144" ht="14.5" customHeight="1" s="95">
+    <row r="144" ht="14.5" customHeight="1" s="96">
       <c r="A144" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_NaturalGasSub</t>
         </is>
       </c>
-      <c r="B144" s="110" t="inlineStr">
+      <c r="B144" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Natural Gas Subtotal</t>
         </is>
@@ -44293,13 +44293,13 @@
         <v>-0.001775</v>
       </c>
     </row>
-    <row r="145" ht="14.5" customHeight="1" s="95">
+    <row r="145" ht="14.5" customHeight="1" s="96">
       <c r="A145" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_Metallurgical</t>
         </is>
       </c>
-      <c r="B145" s="110" t="inlineStr">
+      <c r="B145" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Metallurgical Coal and Coke 6/</t>
         </is>
@@ -44401,13 +44401,13 @@
         <v>-0.014488</v>
       </c>
     </row>
-    <row r="146" ht="14.5" customHeight="1" s="95">
+    <row r="146" ht="14.5" customHeight="1" s="96">
       <c r="A146" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_SteamCoal</t>
         </is>
       </c>
-      <c r="B146" s="110" t="inlineStr">
+      <c r="B146" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Other Industrial Coal</t>
         </is>
@@ -44509,13 +44509,13 @@
         <v>-0.01597</v>
       </c>
     </row>
-    <row r="147" ht="14.5" customHeight="1" s="95">
+    <row r="147" ht="14.5" customHeight="1" s="96">
       <c r="A147" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_CoaltoLiquids</t>
         </is>
       </c>
-      <c r="B147" s="110" t="inlineStr">
+      <c r="B147" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Coal-to-Liquids Heat and Power</t>
         </is>
@@ -44619,13 +44619,13 @@
         </is>
       </c>
     </row>
-    <row r="148" ht="14.5" customHeight="1" s="95">
+    <row r="148" ht="14.5" customHeight="1" s="96">
       <c r="A148" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_CoalSubtotal</t>
         </is>
       </c>
-      <c r="B148" s="110" t="inlineStr">
+      <c r="B148" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">     Coal Subtotal</t>
         </is>
@@ -44727,13 +44727,13 @@
         <v>-0.015251</v>
       </c>
     </row>
-    <row r="149" ht="14.5" customHeight="1" s="95">
+    <row r="149" ht="14.5" customHeight="1" s="96">
       <c r="A149" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_BiofuelHeatCo</t>
         </is>
       </c>
-      <c r="B149" s="110" t="inlineStr">
+      <c r="B149" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Biofuels Heat and Coproducts</t>
         </is>
@@ -44835,13 +44835,13 @@
         <v>-0.01009</v>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1" s="95">
+    <row r="150" ht="15" customHeight="1" s="96">
       <c r="A150" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_Renewables</t>
         </is>
       </c>
-      <c r="B150" s="110" t="inlineStr">
+      <c r="B150" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Renewables 7/</t>
         </is>
@@ -44943,13 +44943,13 @@
         <v>-0.006733</v>
       </c>
     </row>
-    <row r="151" ht="15" customHeight="1" s="95">
+    <row r="151" ht="15" customHeight="1" s="96">
       <c r="A151" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_PurchasedElec</t>
         </is>
       </c>
-      <c r="B151" s="110" t="inlineStr">
+      <c r="B151" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Purchased Electricity</t>
         </is>
@@ -45051,7 +45051,7 @@
         <v>-0.005479</v>
       </c>
     </row>
-    <row r="152" ht="15" customHeight="1" s="95">
+    <row r="152" ht="15" customHeight="1" s="96">
       <c r="A152" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_DeliveredEner</t>
@@ -45159,13 +45159,13 @@
         <v>-0.003474</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1" s="95">
+    <row r="153" ht="15" customHeight="1" s="96">
       <c r="A153" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_ElectricityRe</t>
         </is>
       </c>
-      <c r="B153" s="110" t="inlineStr">
+      <c r="B153" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">   Electricity Related Losses</t>
         </is>
@@ -45267,7 +45267,7 @@
         <v>-0.015379</v>
       </c>
     </row>
-    <row r="154" ht="15" customHeight="1" s="95">
+    <row r="154" ht="15" customHeight="1" s="96">
       <c r="A154" s="10" t="inlineStr">
         <is>
           <t>IKI000:ea_Total</t>
@@ -45375,20 +45375,20 @@
         <v>-0.00537</v>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1" s="95">
+    <row r="156" ht="15" customHeight="1" s="96">
       <c r="B156" s="15" t="inlineStr">
         <is>
           <t>Total Industrial Combined Heat and Power 1/</t>
         </is>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1" s="95">
+    <row r="157" ht="15" customHeight="1" s="96">
       <c r="A157" s="10" t="inlineStr">
         <is>
           <t>IKI000:ha_Capacity(giga</t>
         </is>
       </c>
-      <c r="B157" s="110" t="inlineStr">
+      <c r="B157" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">  Capacity (gigawatts)</t>
         </is>
@@ -45490,13 +45490,13 @@
         <v>0.017017</v>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1" s="95">
+    <row r="158" ht="15" customHeight="1" s="96">
       <c r="A158" s="10" t="inlineStr">
         <is>
           <t>IKI000:ha_Generation(bi</t>
         </is>
       </c>
-      <c r="B158" s="110" t="inlineStr">
+      <c r="B158" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">  Generation (billion kilowatthours)</t>
         </is>
@@ -45598,117 +45598,117 @@
         <v>0.016477</v>
       </c>
     </row>
-    <row r="159" ht="15" customHeight="1" s="95" thickBot="1"/>
-    <row r="160" ht="15" customHeight="1" s="95">
-      <c r="B160" s="108" t="inlineStr">
+    <row r="159" ht="15" customHeight="1" s="96" thickBot="1"/>
+    <row r="160" ht="15" customHeight="1" s="96">
+      <c r="B160" s="109" t="inlineStr">
         <is>
           <t>1/ Includes combined heat and power plants that have a non-regulatory status, and small on-site generating systems.</t>
         </is>
       </c>
-      <c r="C160" s="109" t="n"/>
-      <c r="D160" s="109" t="n"/>
-      <c r="E160" s="109" t="n"/>
-      <c r="F160" s="109" t="n"/>
-      <c r="G160" s="109" t="n"/>
-      <c r="H160" s="109" t="n"/>
-      <c r="I160" s="109" t="n"/>
-      <c r="J160" s="109" t="n"/>
-      <c r="K160" s="109" t="n"/>
-      <c r="L160" s="109" t="n"/>
-      <c r="M160" s="109" t="n"/>
-      <c r="N160" s="109" t="n"/>
-      <c r="O160" s="109" t="n"/>
-      <c r="P160" s="109" t="n"/>
-      <c r="Q160" s="109" t="n"/>
-      <c r="R160" s="109" t="n"/>
-      <c r="S160" s="109" t="n"/>
-      <c r="T160" s="109" t="n"/>
-      <c r="U160" s="109" t="n"/>
-      <c r="V160" s="109" t="n"/>
-      <c r="W160" s="109" t="n"/>
-      <c r="X160" s="109" t="n"/>
-      <c r="Y160" s="109" t="n"/>
-      <c r="Z160" s="109" t="n"/>
-      <c r="AA160" s="109" t="n"/>
-      <c r="AB160" s="109" t="n"/>
-      <c r="AC160" s="109" t="n"/>
-      <c r="AD160" s="109" t="n"/>
-      <c r="AE160" s="109" t="n"/>
-      <c r="AF160" s="109" t="n"/>
-      <c r="AG160" s="109" t="n"/>
+      <c r="C160" s="110" t="n"/>
+      <c r="D160" s="110" t="n"/>
+      <c r="E160" s="110" t="n"/>
+      <c r="F160" s="110" t="n"/>
+      <c r="G160" s="110" t="n"/>
+      <c r="H160" s="110" t="n"/>
+      <c r="I160" s="110" t="n"/>
+      <c r="J160" s="110" t="n"/>
+      <c r="K160" s="110" t="n"/>
+      <c r="L160" s="110" t="n"/>
+      <c r="M160" s="110" t="n"/>
+      <c r="N160" s="110" t="n"/>
+      <c r="O160" s="110" t="n"/>
+      <c r="P160" s="110" t="n"/>
+      <c r="Q160" s="110" t="n"/>
+      <c r="R160" s="110" t="n"/>
+      <c r="S160" s="110" t="n"/>
+      <c r="T160" s="110" t="n"/>
+      <c r="U160" s="110" t="n"/>
+      <c r="V160" s="110" t="n"/>
+      <c r="W160" s="110" t="n"/>
+      <c r="X160" s="110" t="n"/>
+      <c r="Y160" s="110" t="n"/>
+      <c r="Z160" s="110" t="n"/>
+      <c r="AA160" s="110" t="n"/>
+      <c r="AB160" s="110" t="n"/>
+      <c r="AC160" s="110" t="n"/>
+      <c r="AD160" s="110" t="n"/>
+      <c r="AE160" s="110" t="n"/>
+      <c r="AF160" s="110" t="n"/>
+      <c r="AG160" s="110" t="n"/>
       <c r="AH160" s="89" t="n"/>
     </row>
-    <row r="161" ht="15" customHeight="1" s="95">
+    <row r="161" ht="15" customHeight="1" s="96">
       <c r="B161" s="20" t="inlineStr">
         <is>
           <t>2/ Includes ethane, natural gasoline, and refinery olefins.</t>
         </is>
       </c>
     </row>
-    <row r="162" ht="15" customHeight="1" s="95">
+    <row r="162" ht="15" customHeight="1" s="96">
       <c r="B162" s="20" t="inlineStr">
         <is>
           <t>3/ Includes lubricants and miscellaneous petroleum products.</t>
         </is>
       </c>
     </row>
-    <row r="163" ht="15" customHeight="1" s="95">
+    <row r="163" ht="15" customHeight="1" s="96">
       <c r="B163" s="20" t="inlineStr">
         <is>
           <t>4/ Represents natural gas used in well, field, and lease operations, and in natural gas processing plant machinery.</t>
         </is>
       </c>
     </row>
-    <row r="164" ht="15" customHeight="1" s="95">
+    <row r="164" ht="15" customHeight="1" s="96">
       <c r="B164" s="20" t="inlineStr">
         <is>
           <t>5/ Fuel used in facilities that liquefy natural gas for export.</t>
         </is>
       </c>
     </row>
-    <row r="165" ht="12" customHeight="1" s="95">
+    <row r="165" ht="12" customHeight="1" s="96">
       <c r="B165" s="20" t="inlineStr">
         <is>
           <t>6/ Includes net coal coke imports.</t>
         </is>
       </c>
     </row>
-    <row r="166" ht="15" customHeight="1" s="95">
+    <row r="166" ht="15" customHeight="1" s="96">
       <c r="B166" s="20" t="inlineStr">
         <is>
           <t>7/ Includes consumption of energy produced from hydroelectric, wood and wood waste, municipal waste, and other biomass sources.</t>
         </is>
       </c>
     </row>
-    <row r="167" ht="15" customHeight="1" s="95">
+    <row r="167" ht="15" customHeight="1" s="96">
       <c r="B167" s="20" t="inlineStr">
         <is>
           <t>Btu = British thermal unit.</t>
         </is>
       </c>
     </row>
-    <row r="168" ht="15" customHeight="1" s="95">
+    <row r="168" ht="15" customHeight="1" s="96">
       <c r="B168" s="20" t="inlineStr">
         <is>
           <t>- - = Not applicable.</t>
         </is>
       </c>
     </row>
-    <row r="169" ht="15" customHeight="1" s="95">
+    <row r="169" ht="15" customHeight="1" s="96">
       <c r="B169" s="20" t="inlineStr">
         <is>
           <t>Note:  Includes estimated consumption for petroleum and other liquids.  Totals may not equal sum of components due to independent rounding.</t>
         </is>
       </c>
     </row>
-    <row r="170" ht="15" customHeight="1" s="95">
+    <row r="170" ht="15" customHeight="1" s="96">
       <c r="B170" s="20" t="inlineStr">
         <is>
           <t>Sources:  2020:  U.S. Energy Information Administration (EIA), Short-Term Energy Outlook, October 2020 and EIA, AEO2021</t>
         </is>
       </c>
     </row>
-    <row r="171" ht="15" customHeight="1" s="95">
+    <row r="171" ht="15" customHeight="1" s="96">
       <c r="B171" s="20" t="inlineStr">
         <is>
           <t>National Energy Modeling System run highogs.d120120a.  Projections:  EIA, AEO2021 National Energy Modeling System run highogs.d120120a.</t>
@@ -45740,17 +45740,17 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
-    <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
+    <col hidden="1" width="22.5" customWidth="1" style="113" min="1" max="1"/>
+    <col width="49" customWidth="1" style="113" min="2" max="2"/>
+    <col width="9.1796875" customWidth="1" style="113" min="3" max="33"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" style="113" min="34" max="34"/>
+    <col width="9.1796875" customWidth="1" style="113" min="35" max="35"/>
+    <col width="9.1796875" customWidth="1" style="113" min="36" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="1" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="B1" s="6" t="inlineStr">
         <is>
           <t>highogs.d120120a</t>
@@ -45850,8 +45850,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="95" thickTop="1"/>
-    <row r="3" ht="15" customHeight="1" s="95">
+    <row r="2" ht="15" customHeight="1" s="96" thickTop="1"/>
+    <row r="3" ht="15" customHeight="1" s="96">
       <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Report</t>
@@ -45867,7 +45867,7 @@
       <c r="G3" s="9" t="n"/>
       <c r="H3" s="9" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1" s="95">
+    <row r="4" ht="15" customHeight="1" s="96">
       <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Scenario</t>
@@ -45887,7 +45887,7 @@
       </c>
       <c r="H4" s="9" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="95">
+    <row r="5" ht="15" customHeight="1" s="96">
       <c r="C5" s="8" t="inlineStr">
         <is>
           <t>Datekey</t>
@@ -45903,7 +45903,7 @@
       <c r="G5" s="9" t="n"/>
       <c r="H5" s="9" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="95">
+    <row r="6" ht="15" customHeight="1" s="96">
       <c r="C6" s="8" t="inlineStr">
         <is>
           <t>Release Date</t>
@@ -45919,7 +45919,7 @@
       <c r="G6" s="9" t="n"/>
       <c r="H6" s="9" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="95">
+    <row r="7" ht="15" customHeight="1" s="96">
       <c r="C7" s="9" t="n"/>
       <c r="D7" s="9" t="n"/>
       <c r="E7" s="9" t="n"/>
@@ -45927,9 +45927,9 @@
       <c r="G7" s="9" t="n"/>
       <c r="H7" s="9" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="95"/>
-    <row r="9" ht="12" customHeight="1" s="95"/>
-    <row r="10" ht="15" customHeight="1" s="95">
+    <row r="8" ht="12" customHeight="1" s="96"/>
+    <row r="9" ht="12" customHeight="1" s="96"/>
+    <row r="10" ht="15" customHeight="1" s="96">
       <c r="A10" s="10" t="inlineStr">
         <is>
           <t>REM000</t>
@@ -45946,7 +45946,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="95">
+    <row r="11" ht="15" customHeight="1" s="96">
       <c r="B11" s="6" t="inlineStr">
         <is>
           <t>(quadrillion Btu, unless otherwise noted)</t>
@@ -45958,7 +45958,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="95">
+    <row r="12" ht="15" customHeight="1" s="96">
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -45997,7 +45997,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="95" thickBot="1">
+    <row r="13" ht="15" customHeight="1" s="96" thickBot="1">
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sector and Source</t>
@@ -46102,15 +46102,15 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="95" thickTop="1"/>
-    <row r="15" ht="15" customHeight="1" s="95">
+    <row r="14" ht="15" customHeight="1" s="96" thickTop="1"/>
+    <row r="15" ht="15" customHeight="1" s="96">
       <c r="B15" s="15" t="inlineStr">
         <is>
           <t>Marketed Renewable Energy 1/</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="95">
+    <row r="17" ht="15" customHeight="1" s="96">
       <c r="A17" s="10" t="inlineStr">
         <is>
           <t>REM000:ca_Residential(w</t>
@@ -46218,7 +46218,7 @@
         <v>-0.011621</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="95">
+    <row r="19" ht="15" customHeight="1" s="96">
       <c r="A19" s="10" t="inlineStr">
         <is>
           <t>REM000:da_Commercial(bi</t>
@@ -46326,7 +46326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="95">
+    <row r="21" ht="15" customHeight="1" s="96">
       <c r="A21" s="10" t="inlineStr">
         <is>
           <t>REM000:ea_Industrial</t>
@@ -46434,13 +46434,13 @@
         <v>0.008239</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="95">
+    <row r="22" ht="15" customHeight="1" s="96">
       <c r="A22" s="10" t="inlineStr">
         <is>
           <t>REM000:ea_ConventionalH</t>
         </is>
       </c>
-      <c r="B22" s="110" t="inlineStr">
+      <c r="B22" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Conventional Hydroelectric Power</t>
         </is>
@@ -46542,13 +46542,13 @@
         <v>0.018285</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="95">
+    <row r="23" ht="15" customHeight="1" s="96">
       <c r="A23" s="10" t="inlineStr">
         <is>
           <t>REM000:ea_MunicipalSoli</t>
         </is>
       </c>
-      <c r="B23" s="110" t="inlineStr">
+      <c r="B23" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Municipal Waste 3/</t>
         </is>
@@ -46650,13 +46650,13 @@
         <v>0.001833</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="95">
+    <row r="24" ht="15" customHeight="1" s="96">
       <c r="A24" s="10" t="inlineStr">
         <is>
           <t>REM000:ea_Biomass</t>
         </is>
       </c>
-      <c r="B24" s="110" t="inlineStr">
+      <c r="B24" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Biomass</t>
         </is>
@@ -46758,13 +46758,13 @@
         <v>0.010196</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="95">
+    <row r="25" ht="15" customHeight="1" s="96">
       <c r="A25" s="10" t="inlineStr">
         <is>
           <t>REM000:ea_BiomasHeat&amp;Co</t>
         </is>
       </c>
-      <c r="B25" s="110" t="inlineStr">
+      <c r="B25" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Biofuels Heat and Coproducts</t>
         </is>
@@ -46866,7 +46866,7 @@
         <v>0.006056</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="95">
+    <row r="27" ht="15" customHeight="1" s="96">
       <c r="A27" s="10" t="inlineStr">
         <is>
           <t>REM000:fa_Transportatio</t>
@@ -46974,13 +46974,13 @@
         <v>0.008274999999999999</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="95">
+    <row r="28" ht="15" customHeight="1" s="96">
       <c r="A28" s="10" t="inlineStr">
         <is>
           <t>REM000:fa_Ethanolusedin</t>
         </is>
       </c>
-      <c r="B28" s="110" t="inlineStr">
+      <c r="B28" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Ethanol used in E85 4/</t>
         </is>
@@ -47082,13 +47082,13 @@
         <v>0.002463</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="95">
+    <row r="29" ht="15" customHeight="1" s="96">
       <c r="A29" s="10" t="inlineStr">
         <is>
           <t>REM000:ga_Ethanolusedin</t>
         </is>
       </c>
-      <c r="B29" s="110" t="inlineStr">
+      <c r="B29" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Ethanol used in Gasoline Blending</t>
         </is>
@@ -47190,13 +47190,13 @@
         <v>0.006867</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="95">
+    <row r="30" ht="15" customHeight="1" s="96">
       <c r="A30" s="10" t="inlineStr">
         <is>
           <t>REM000:ga_BioDieselBlen</t>
         </is>
       </c>
-      <c r="B30" s="110" t="inlineStr">
+      <c r="B30" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Biodiesel used in Distillate Blending</t>
         </is>
@@ -47298,13 +47298,13 @@
         <v>0.004217</v>
       </c>
     </row>
-    <row r="31" ht="14.5" customHeight="1" s="95">
+    <row r="31" ht="14.5" customHeight="1" s="96">
       <c r="A31" s="10" t="inlineStr">
         <is>
           <t>REM000:trans_biobute</t>
         </is>
       </c>
-      <c r="B31" s="110" t="inlineStr">
+      <c r="B31" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Biobutanol</t>
         </is>
@@ -47408,13 +47408,13 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="14.5" customHeight="1" s="95">
+    <row r="32" ht="14.5" customHeight="1" s="96">
       <c r="A32" s="10" t="inlineStr">
         <is>
           <t>REM000:gb_LiquidfromBio</t>
         </is>
       </c>
-      <c r="B32" s="110" t="inlineStr">
+      <c r="B32" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Liquids from Biomass</t>
         </is>
@@ -47518,13 +47518,13 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="14.5" customHeight="1" s="95">
+    <row r="33" ht="14.5" customHeight="1" s="96">
       <c r="A33" s="10" t="inlineStr">
         <is>
           <t>REM000:gb_GreenLiquids</t>
         </is>
       </c>
-      <c r="B33" s="110" t="inlineStr">
+      <c r="B33" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Renewable Diesel and Gasoline 5/</t>
         </is>
@@ -47626,8 +47626,8 @@
         <v>0.032188</v>
       </c>
     </row>
-    <row r="34" ht="12" customHeight="1" s="95"/>
-    <row r="35" ht="12" customHeight="1" s="95">
+    <row r="34" ht="12" customHeight="1" s="96"/>
+    <row r="35" ht="12" customHeight="1" s="96">
       <c r="A35" s="10" t="inlineStr">
         <is>
           <t>REM000:ha_ElectricPower</t>
@@ -47735,13 +47735,13 @@
         <v>0.024932</v>
       </c>
     </row>
-    <row r="36" ht="14.5" customHeight="1" s="95">
+    <row r="36" ht="14.5" customHeight="1" s="96">
       <c r="A36" s="10" t="inlineStr">
         <is>
           <t>REM000:ha_ConventionalH</t>
         </is>
       </c>
-      <c r="B36" s="110" t="inlineStr">
+      <c r="B36" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Conventional Hydroelectric Power</t>
         </is>
@@ -47843,13 +47843,13 @@
         <v>-0.00524</v>
       </c>
     </row>
-    <row r="37" ht="14.5" customHeight="1" s="95">
+    <row r="37" ht="14.5" customHeight="1" s="96">
       <c r="A37" s="10" t="inlineStr">
         <is>
           <t>REM000:ha_Geothermal</t>
         </is>
       </c>
-      <c r="B37" s="110" t="inlineStr">
+      <c r="B37" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Geothermal</t>
         </is>
@@ -47951,13 +47951,13 @@
         <v>0.030129</v>
       </c>
     </row>
-    <row r="38" ht="14.5" customHeight="1" s="95">
+    <row r="38" ht="14.5" customHeight="1" s="96">
       <c r="A38" s="10" t="inlineStr">
         <is>
           <t>REM000:ha_MunicipalSoli</t>
         </is>
       </c>
-      <c r="B38" s="110" t="inlineStr">
+      <c r="B38" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Biogenic Municipal Waste 7/</t>
         </is>
@@ -48059,13 +48059,13 @@
         <v>0.021599</v>
       </c>
     </row>
-    <row r="39" ht="14.5" customHeight="1" s="95">
+    <row r="39" ht="14.5" customHeight="1" s="96">
       <c r="A39" s="10" t="inlineStr">
         <is>
           <t>REM000:ha_Biomass</t>
         </is>
       </c>
-      <c r="B39" s="110" t="inlineStr">
+      <c r="B39" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Biomass</t>
         </is>
@@ -48167,13 +48167,13 @@
         <v>-0.001073</v>
       </c>
     </row>
-    <row r="40" ht="14.5" customHeight="1" s="95">
+    <row r="40" ht="14.5" customHeight="1" s="96">
       <c r="A40" s="10" t="inlineStr">
         <is>
           <t>REM000:ha_DedicatedPlan</t>
         </is>
       </c>
-      <c r="B40" s="110" t="inlineStr">
+      <c r="B40" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">      Dedicated Plants</t>
         </is>
@@ -48275,13 +48275,13 @@
         <v>-0.000894</v>
       </c>
     </row>
-    <row r="41" ht="14.5" customHeight="1" s="95">
+    <row r="41" ht="14.5" customHeight="1" s="96">
       <c r="A41" s="10" t="inlineStr">
         <is>
           <t>REM000:ha_Cofiring</t>
         </is>
       </c>
-      <c r="B41" s="110" t="inlineStr">
+      <c r="B41" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">      Cofiring</t>
         </is>
@@ -48383,13 +48383,13 @@
         <v>-0.001796</v>
       </c>
     </row>
-    <row r="42" ht="14.5" customHeight="1" s="95">
+    <row r="42" ht="14.5" customHeight="1" s="96">
       <c r="A42" s="10" t="inlineStr">
         <is>
           <t>REM000:ha_SolarThermal</t>
         </is>
       </c>
-      <c r="B42" s="110" t="inlineStr">
+      <c r="B42" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Solar Thermal</t>
         </is>
@@ -48491,13 +48491,13 @@
         <v>-0.01158</v>
       </c>
     </row>
-    <row r="43" ht="14.5" customHeight="1" s="95">
+    <row r="43" ht="14.5" customHeight="1" s="96">
       <c r="A43" s="10" t="inlineStr">
         <is>
           <t>REM000:ha_SolarPhotovol</t>
         </is>
       </c>
-      <c r="B43" s="110" t="inlineStr">
+      <c r="B43" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Solar Photovoltaic</t>
         </is>
@@ -48599,13 +48599,13 @@
         <v>0.07083299999999999</v>
       </c>
     </row>
-    <row r="44" ht="14.5" customHeight="1" s="95">
+    <row r="44" ht="14.5" customHeight="1" s="96">
       <c r="A44" s="10" t="inlineStr">
         <is>
           <t>REM000:ha_Wind</t>
         </is>
       </c>
-      <c r="B44" s="110" t="inlineStr">
+      <c r="B44" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Wind</t>
         </is>
@@ -48707,8 +48707,8 @@
         <v>0.02037</v>
       </c>
     </row>
-    <row r="45" ht="12" customHeight="1" s="95"/>
-    <row r="46" ht="12" customHeight="1" s="95">
+    <row r="45" ht="12" customHeight="1" s="96"/>
+    <row r="46" ht="12" customHeight="1" s="96">
       <c r="A46" s="10" t="inlineStr">
         <is>
           <t>REM000:ia_TotalMarketed</t>
@@ -48816,21 +48816,21 @@
         <v>0.018916</v>
       </c>
     </row>
-    <row r="47" ht="12" customHeight="1" s="95"/>
-    <row r="48" ht="12" customHeight="1" s="95">
+    <row r="47" ht="12" customHeight="1" s="96"/>
+    <row r="48" ht="12" customHeight="1" s="96">
       <c r="B48" s="15" t="inlineStr">
         <is>
           <t>Sources of Ethanol</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="14.5" customHeight="1" s="95">
+    <row r="49" ht="14.5" customHeight="1" s="96">
       <c r="A49" s="10" t="inlineStr">
         <is>
           <t>REM000:ja_FromCorn</t>
         </is>
       </c>
-      <c r="B49" s="110" t="inlineStr">
+      <c r="B49" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">  From Corn and Other Starch</t>
         </is>
@@ -48932,13 +48932,13 @@
         <v>0.011221</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="95">
+    <row r="50" ht="15" customHeight="1" s="96">
       <c r="A50" s="10" t="inlineStr">
         <is>
           <t>REM000:ja_FromCellulose</t>
         </is>
       </c>
-      <c r="B50" s="110" t="inlineStr">
+      <c r="B50" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">  From Cellulose</t>
         </is>
@@ -49040,13 +49040,13 @@
         <v>0.431732</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="95">
+    <row r="51" ht="15" customHeight="1" s="96">
       <c r="A51" s="10" t="inlineStr">
         <is>
           <t>REM000:ja_Imports</t>
         </is>
       </c>
-      <c r="B51" s="110" t="inlineStr">
+      <c r="B51" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">  Net Imports</t>
         </is>
@@ -49148,7 +49148,7 @@
         <v>0.039829</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" s="95">
+    <row r="52" ht="15" customHeight="1" s="96">
       <c r="A52" s="10" t="inlineStr">
         <is>
           <t>REM000:ja_Total</t>
@@ -49256,21 +49256,21 @@
         <v>0.006787</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" s="95">
+    <row r="55" ht="15" customHeight="1" s="96">
       <c r="B55" s="15" t="inlineStr">
         <is>
           <t>Nonmarketed Renewable Energy 8/</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="95">
+    <row r="56" ht="15" customHeight="1" s="96">
       <c r="B56" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">     Selected Consumption</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="95">
+    <row r="58" ht="15" customHeight="1" s="96">
       <c r="A58" s="10" t="inlineStr">
         <is>
           <t>REM000:la_Residential</t>
@@ -49378,13 +49378,13 @@
         <v>0.051526</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" s="95">
+    <row r="59" ht="15" customHeight="1" s="96">
       <c r="A59" s="10" t="inlineStr">
         <is>
           <t>REM000:la_SolarHotWater</t>
         </is>
       </c>
-      <c r="B59" s="110" t="inlineStr">
+      <c r="B59" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Solar Hot Water Heating</t>
         </is>
@@ -49486,13 +49486,13 @@
         <v>0.003766</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" s="95">
+    <row r="60" ht="15" customHeight="1" s="96">
       <c r="A60" s="10" t="inlineStr">
         <is>
           <t>REM000:la_GeothermalHea</t>
         </is>
       </c>
-      <c r="B60" s="110" t="inlineStr">
+      <c r="B60" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Geothermal Heat Pumps</t>
         </is>
@@ -49594,13 +49594,13 @@
         <v>0.04531</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" s="95">
+    <row r="61" ht="15" customHeight="1" s="96">
       <c r="A61" s="10" t="inlineStr">
         <is>
           <t>REM000:la_SolarPhotovol</t>
         </is>
       </c>
-      <c r="B61" s="110" t="inlineStr">
+      <c r="B61" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Solar Photovoltaic</t>
         </is>
@@ -49702,13 +49702,13 @@
         <v>0.05644</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" s="95">
+    <row r="62" ht="15" customHeight="1" s="96">
       <c r="A62" s="10" t="inlineStr">
         <is>
           <t>REM000:la_blowWindblow</t>
         </is>
       </c>
-      <c r="B62" s="110" t="inlineStr">
+      <c r="B62" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Wind</t>
         </is>
@@ -49810,7 +49810,7 @@
         <v>1.6e-05</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" s="95">
+    <row r="64" ht="15" customHeight="1" s="96">
       <c r="A64" s="10" t="inlineStr">
         <is>
           <t>REM000:ma_Commercial</t>
@@ -49918,13 +49918,13 @@
         <v>0.028707</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="95">
+    <row r="65" ht="15" customHeight="1" s="96">
       <c r="A65" s="10" t="inlineStr">
         <is>
           <t>REM000:ma_SolarThermal</t>
         </is>
       </c>
-      <c r="B65" s="110" t="inlineStr">
+      <c r="B65" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Solar Thermal</t>
         </is>
@@ -50026,13 +50026,13 @@
         <v>-0.003965</v>
       </c>
     </row>
-    <row r="66" ht="14.5" customHeight="1" s="95">
+    <row r="66" ht="14.5" customHeight="1" s="96">
       <c r="A66" s="10" t="inlineStr">
         <is>
           <t>REM000:ma_SolarPhotovol</t>
         </is>
       </c>
-      <c r="B66" s="110" t="inlineStr">
+      <c r="B66" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Solar Photovoltaic</t>
         </is>
@@ -50134,13 +50134,13 @@
         <v>0.037794</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" s="95">
+    <row r="67" ht="15" customHeight="1" s="96">
       <c r="A67" s="10" t="inlineStr">
         <is>
           <t>REM000:ma_blowWindblow</t>
         </is>
       </c>
-      <c r="B67" s="110" t="inlineStr">
+      <c r="B67" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve">    Wind</t>
         </is>
@@ -50242,259 +50242,251 @@
         <v>-0.00355</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" s="95" thickBot="1"/>
-    <row r="69" ht="15" customHeight="1" s="95">
-      <c r="B69" s="108" t="inlineStr">
+    <row r="68" ht="15" customHeight="1" s="96" thickBot="1"/>
+    <row r="69" ht="15" customHeight="1" s="96">
+      <c r="B69" s="109" t="inlineStr">
         <is>
           <t>1/ Includes nonelectric renewable energy groups for which the energy source is bought and sold in the marketplace, although</t>
         </is>
       </c>
-      <c r="C69" s="109" t="n"/>
-      <c r="D69" s="109" t="n"/>
-      <c r="E69" s="109" t="n"/>
-      <c r="F69" s="109" t="n"/>
-      <c r="G69" s="109" t="n"/>
-      <c r="H69" s="109" t="n"/>
-      <c r="I69" s="109" t="n"/>
-      <c r="J69" s="109" t="n"/>
-      <c r="K69" s="109" t="n"/>
-      <c r="L69" s="109" t="n"/>
-      <c r="M69" s="109" t="n"/>
-      <c r="N69" s="109" t="n"/>
-      <c r="O69" s="109" t="n"/>
-      <c r="P69" s="109" t="n"/>
-      <c r="Q69" s="109" t="n"/>
-      <c r="R69" s="109" t="n"/>
-      <c r="S69" s="109" t="n"/>
-      <c r="T69" s="109" t="n"/>
-      <c r="U69" s="109" t="n"/>
-      <c r="V69" s="109" t="n"/>
-      <c r="W69" s="109" t="n"/>
-      <c r="X69" s="109" t="n"/>
-      <c r="Y69" s="109" t="n"/>
-      <c r="Z69" s="109" t="n"/>
-      <c r="AA69" s="109" t="n"/>
-      <c r="AB69" s="109" t="n"/>
-      <c r="AC69" s="109" t="n"/>
-      <c r="AD69" s="109" t="n"/>
-      <c r="AE69" s="109" t="n"/>
-      <c r="AF69" s="109" t="n"/>
-      <c r="AG69" s="109" t="n"/>
+      <c r="C69" s="110" t="n"/>
+      <c r="D69" s="110" t="n"/>
+      <c r="E69" s="110" t="n"/>
+      <c r="F69" s="110" t="n"/>
+      <c r="G69" s="110" t="n"/>
+      <c r="H69" s="110" t="n"/>
+      <c r="I69" s="110" t="n"/>
+      <c r="J69" s="110" t="n"/>
+      <c r="K69" s="110" t="n"/>
+      <c r="L69" s="110" t="n"/>
+      <c r="M69" s="110" t="n"/>
+      <c r="N69" s="110" t="n"/>
+      <c r="O69" s="110" t="n"/>
+      <c r="P69" s="110" t="n"/>
+      <c r="Q69" s="110" t="n"/>
+      <c r="R69" s="110" t="n"/>
+      <c r="S69" s="110" t="n"/>
+      <c r="T69" s="110" t="n"/>
+      <c r="U69" s="110" t="n"/>
+      <c r="V69" s="110" t="n"/>
+      <c r="W69" s="110" t="n"/>
+      <c r="X69" s="110" t="n"/>
+      <c r="Y69" s="110" t="n"/>
+      <c r="Z69" s="110" t="n"/>
+      <c r="AA69" s="110" t="n"/>
+      <c r="AB69" s="110" t="n"/>
+      <c r="AC69" s="110" t="n"/>
+      <c r="AD69" s="110" t="n"/>
+      <c r="AE69" s="110" t="n"/>
+      <c r="AF69" s="110" t="n"/>
+      <c r="AG69" s="110" t="n"/>
       <c r="AH69" s="89" t="n"/>
     </row>
-    <row r="70" ht="15" customHeight="1" s="95">
+    <row r="70" ht="15" customHeight="1" s="96">
       <c r="B70" s="20" t="inlineStr">
         <is>
           <t>all transactions may not necessarily be marketed, and renewable energy inputs for electricity entering the marketplace</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="95">
+    <row r="71" ht="15" customHeight="1" s="96">
       <c r="B71" s="20" t="inlineStr">
         <is>
           <t>on the electric power grid.  Excludes electricity imports; see Table 2.  Actual heat rates used to determine fuel consumption</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" s="95">
+    <row r="72" ht="15" customHeight="1" s="96">
       <c r="B72" s="20" t="inlineStr">
         <is>
           <t>for all renewable fuels except hydroelectric, geothermal, solar, and wind.  Consumption at hydroelectric, geothermal, solar, and</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="12" customHeight="1" s="95">
+    <row r="73" ht="12" customHeight="1" s="96">
       <c r="B73" s="20" t="inlineStr">
         <is>
           <t>wind facilities is determined by using the average electric power sector net heat rate for fossil fuels.</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1" s="95">
+    <row r="74" ht="15" customHeight="1" s="96">
       <c r="B74" s="20" t="inlineStr">
         <is>
           <t>2/ Includes combined heat and power plants that have a non-regulatory status, and small on-site generating systems.</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" s="95">
+    <row r="75" ht="15" customHeight="1" s="96">
       <c r="B75" s="20" t="inlineStr">
         <is>
           <t>3/ Includes municipal waste, landfill gas, and municipal sewage sludge.  All municipal waste is included, although a</t>
         </is>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" s="95">
+    <row r="76" ht="15" customHeight="1" s="96">
       <c r="B76" s="20" t="inlineStr">
         <is>
           <t>portion of the municipal waste stream contains petroleum-derived plastics and other non-renewable sources.</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" s="95">
+    <row r="77" ht="15" customHeight="1" s="96">
       <c r="B77" s="20" t="inlineStr">
         <is>
           <t>4/ Excludes motor gasoline component of E85.</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1" s="95">
+    <row r="78" ht="15" customHeight="1" s="96">
       <c r="B78" s="20" t="inlineStr">
         <is>
           <t>5/ Renewable feedstocks for the on-site production of diesel and gasoline.</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="12" customHeight="1" s="95">
+    <row r="79" ht="12" customHeight="1" s="96">
       <c r="B79" s="20" t="inlineStr">
         <is>
           <t>6/ Includes consumption of energy by electricity-only and combined heat and power plants that have a regulatory status.</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1" s="95">
+    <row r="80" ht="15" customHeight="1" s="96">
       <c r="B80" s="20" t="inlineStr">
         <is>
           <t>7/ Includes biogenic municipal waste, landfill gas, and municipal sewage sludge.  Incremental growth is assumed to be for</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="12" customHeight="1" s="95">
+    <row r="81" ht="12" customHeight="1" s="96">
       <c r="B81" s="20" t="inlineStr">
         <is>
           <t>landfill gas facilities.</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1" s="95">
+    <row r="82" ht="15" customHeight="1" s="96">
       <c r="B82" s="20" t="inlineStr">
         <is>
           <t>8/ Includes selected renewable energy consumption data for which the energy is not bought or sold, either</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1" s="95">
+    <row r="83" ht="15" customHeight="1" s="96">
       <c r="B83" s="20" t="inlineStr">
         <is>
           <t>directly or indirectly as an input to marketed energy.  The U.S. Energy Information Administration does not</t>
         </is>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" s="95">
+    <row r="84" ht="15" customHeight="1" s="96">
       <c r="B84" s="20" t="inlineStr">
         <is>
           <t>estimate or project total consumption of nonmarketed renewable energy.</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" s="95">
+    <row r="85" ht="15" customHeight="1" s="96">
       <c r="B85" s="20" t="inlineStr">
         <is>
           <t>- - = Not applicable.</t>
         </is>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1" s="95">
+    <row r="86" ht="15" customHeight="1" s="96">
       <c r="B86" s="20" t="inlineStr">
         <is>
           <t>Btu = British thermal unit.</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1" s="95">
+    <row r="87" ht="15" customHeight="1" s="96">
       <c r="B87" s="20" t="inlineStr">
         <is>
           <t>Note:  Totals may not equal sum of components due to independent rounding.</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1" s="95">
+    <row r="88" ht="15" customHeight="1" s="96">
       <c r="B88" s="20" t="inlineStr">
         <is>
           <t>Sources:  2020:  U.S. Energy Information Administration (EIA), Short-Term Energy Outlook, October 2020 and EIA,</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1" s="95">
+    <row r="89" ht="15" customHeight="1" s="96">
       <c r="B89" s="20" t="inlineStr">
         <is>
           <t>AEO2021 National Energy Modeling System run highogs.d120120a. Projections:  EIA, AEO2021 National Energy Modeling System run highogs.d120120a.</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="12" customHeight="1" s="95"/>
-    <row r="101" ht="12" customHeight="1" s="95"/>
-    <row r="102" ht="12" customHeight="1" s="95"/>
-    <row r="112" ht="15" customHeight="1" s="95">
-      <c r="B112" s="112" t="n"/>
-    </row>
-    <row r="308" ht="15" customHeight="1" s="95">
-      <c r="B308" s="112" t="n"/>
-    </row>
-    <row r="511" ht="15" customHeight="1" s="95">
-      <c r="B511" s="112" t="n"/>
-    </row>
-    <row r="712" ht="15" customHeight="1" s="95">
-      <c r="B712" s="112" t="n"/>
-    </row>
-    <row r="887" ht="15" customHeight="1" s="95">
-      <c r="B887" s="112" t="n"/>
-    </row>
-    <row r="1100" ht="15" customHeight="1" s="95">
-      <c r="B1100" s="112" t="n"/>
-    </row>
-    <row r="1227" ht="15" customHeight="1" s="95">
-      <c r="B1227" s="112" t="n"/>
-    </row>
-    <row r="1390" ht="15" customHeight="1" s="95">
-      <c r="B1390" s="112" t="n"/>
-    </row>
-    <row r="1502" ht="15" customHeight="1" s="95">
-      <c r="B1502" s="112" t="n"/>
-    </row>
-    <row r="1604" ht="15" customHeight="1" s="95">
-      <c r="B1604" s="112" t="n"/>
-    </row>
-    <row r="1698" ht="15" customHeight="1" s="95">
-      <c r="B1698" s="112" t="n"/>
-    </row>
-    <row r="1945" ht="15" customHeight="1" s="95">
-      <c r="B1945" s="112" t="n"/>
-    </row>
-    <row r="2031" ht="15" customHeight="1" s="95">
-      <c r="B2031" s="112" t="n"/>
-    </row>
-    <row r="2153" ht="15" customHeight="1" s="95">
-      <c r="B2153" s="112" t="n"/>
-    </row>
-    <row r="2317" ht="15" customHeight="1" s="95">
-      <c r="B2317" s="112" t="n"/>
-    </row>
-    <row r="2419" ht="15" customHeight="1" s="95">
-      <c r="B2419" s="112" t="n"/>
-    </row>
-    <row r="2509" ht="15" customHeight="1" s="95">
-      <c r="B2509" s="112" t="n"/>
-    </row>
-    <row r="2598" ht="15" customHeight="1" s="95">
-      <c r="B2598" s="112" t="n"/>
-    </row>
-    <row r="2719" ht="15" customHeight="1" s="95">
-      <c r="B2719" s="112" t="n"/>
-    </row>
-    <row r="2837" ht="15" customHeight="1" s="95">
-      <c r="B2837" s="112" t="n"/>
+    <row r="92" ht="12" customHeight="1" s="96"/>
+    <row r="101" ht="12" customHeight="1" s="96"/>
+    <row r="102" ht="12" customHeight="1" s="96"/>
+    <row r="112" ht="15" customHeight="1" s="96">
+      <c r="B112" s="113" t="n"/>
+    </row>
+    <row r="308" ht="15" customHeight="1" s="96">
+      <c r="B308" s="113" t="n"/>
+    </row>
+    <row r="511" ht="15" customHeight="1" s="96">
+      <c r="B511" s="113" t="n"/>
+    </row>
+    <row r="712" ht="15" customHeight="1" s="96">
+      <c r="B712" s="113" t="n"/>
+    </row>
+    <row r="887" ht="15" customHeight="1" s="96">
+      <c r="B887" s="113" t="n"/>
+    </row>
+    <row r="1100" ht="15" customHeight="1" s="96">
+      <c r="B1100" s="113" t="n"/>
+    </row>
+    <row r="1227" ht="15" customHeight="1" s="96">
+      <c r="B1227" s="113" t="n"/>
+    </row>
+    <row r="1390" ht="15" customHeight="1" s="96">
+      <c r="B1390" s="113" t="n"/>
+    </row>
+    <row r="1502" ht="15" customHeight="1" s="96">
+      <c r="B1502" s="113" t="n"/>
+    </row>
+    <row r="1604" ht="15" customHeight="1" s="96">
+      <c r="B1604" s="113" t="n"/>
+    </row>
+    <row r="1698" ht="15" customHeight="1" s="96">
+      <c r="B1698" s="113" t="n"/>
+    </row>
+    <row r="1945" ht="15" customHeight="1" s="96">
+      <c r="B1945" s="113" t="n"/>
+    </row>
+    <row r="2031" ht="15" customHeight="1" s="96">
+      <c r="B2031" s="113" t="n"/>
+    </row>
+    <row r="2153" ht="15" customHeight="1" s="96">
+      <c r="B2153" s="113" t="n"/>
+    </row>
+    <row r="2317" ht="15" customHeight="1" s="96">
+      <c r="B2317" s="113" t="n"/>
+    </row>
+    <row r="2419" ht="15" customHeight="1" s="96">
+      <c r="B2419" s="113" t="n"/>
+    </row>
+    <row r="2509" ht="15" customHeight="1" s="96">
+      <c r="B2509" s="113" t="n"/>
+    </row>
+    <row r="2598" ht="15" customHeight="1" s="96">
+      <c r="B2598" s="113" t="n"/>
+    </row>
+    <row r="2719" ht="15" customHeight="1" s="96">
+      <c r="B2719" s="113" t="n"/>
+    </row>
+    <row r="2837" ht="15" customHeight="1" s="96">
+      <c r="B2837" s="113" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2837:AH2837"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2153:AH2153"/>
-    <mergeCell ref="B2317:AH2317"/>
-    <mergeCell ref="B2419:AH2419"/>
-    <mergeCell ref="B2509:AH2509"/>
-    <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B69:AG69"/>
     <mergeCell ref="B1945:AH1945"/>
     <mergeCell ref="B112:AH112"/>
@@ -50508,6 +50500,14 @@
     <mergeCell ref="B1502:AH1502"/>
     <mergeCell ref="B1604:AH1604"/>
     <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B2837:AH2837"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2153:AH2153"/>
+    <mergeCell ref="B2317:AH2317"/>
+    <mergeCell ref="B2419:AH2419"/>
+    <mergeCell ref="B2509:AH2509"/>
+    <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B2719:AH2719"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -50527,13 +50527,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="36.5" customWidth="1" style="95" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" style="95" min="2" max="26"/>
-    <col width="13.83203125" customWidth="1" style="95" min="27" max="27"/>
-    <col width="10.6640625" customWidth="1" style="95" min="28" max="28"/>
-    <col width="10.1640625" customWidth="1" style="95" min="29" max="43"/>
+    <col width="36.5" customWidth="1" style="96" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" style="96" min="2" max="26"/>
+    <col width="13.81640625" customWidth="1" style="96" min="27" max="27"/>
+    <col width="10.6796875" customWidth="1" style="96" min="28" max="28"/>
+    <col width="10.1796875" customWidth="1" style="96" min="29" max="43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">

--- a/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
+++ b/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
@@ -2003,7 +2003,7 @@
         <v/>
       </c>
       <c r="G21" s="43" t="n">
-        <v>0</v>
+        <v>587383929.73</v>
       </c>
     </row>
     <row r="22">
@@ -2104,7 +2104,7 @@
         <v/>
       </c>
       <c r="G26" s="43" t="n">
-        <v>4413408698.01</v>
+        <v>3649362297.75</v>
       </c>
     </row>
     <row r="27">
